--- a/Following.xlsx
+++ b/Following.xlsx
@@ -12,7 +12,169 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="965">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="962">
+  <si>
+    <t>3658771700</t>
+  </si>
+  <si>
+    <t>nazar.vita.m</t>
+  </si>
+  <si>
+    <t>Vita</t>
+  </si>
+  <si>
+    <t>4349200104</t>
+  </si>
+  <si>
+    <t>lenok_lev4enko</t>
+  </si>
+  <si>
+    <t>Лена Диденко</t>
+  </si>
+  <si>
+    <t>46571608989</t>
+  </si>
+  <si>
+    <t>k.a_t_rin.photo</t>
+  </si>
+  <si>
+    <t>Екатерина</t>
+  </si>
+  <si>
+    <t>5443128991</t>
+  </si>
+  <si>
+    <t>gleb_zotov7</t>
+  </si>
+  <si>
+    <t>Глеб Зотов</t>
+  </si>
+  <si>
+    <t>5978809531</t>
+  </si>
+  <si>
+    <t>novik.elena_</t>
+  </si>
+  <si>
+    <t>Lena</t>
+  </si>
+  <si>
+    <t>6088040543</t>
+  </si>
+  <si>
+    <t>lolita_mechkauskayte</t>
+  </si>
+  <si>
+    <t>Locenok</t>
+  </si>
+  <si>
+    <t>5533349388</t>
+  </si>
+  <si>
+    <t>lykina_nastyshka</t>
+  </si>
+  <si>
+    <t>Anastasiia Lukina</t>
+  </si>
+  <si>
+    <t>2968278645</t>
+  </si>
+  <si>
+    <t>liudmyla_minenko</t>
+  </si>
+  <si>
+    <t>Liudmyla Minenko</t>
+  </si>
+  <si>
+    <t>22927148540</t>
+  </si>
+  <si>
+    <t>utepilsrame</t>
+  </si>
+  <si>
+    <t>Anastasia</t>
+  </si>
+  <si>
+    <t>5709552856</t>
+  </si>
+  <si>
+    <t>no.sorrrow</t>
+  </si>
+  <si>
+    <t>anastasiia</t>
+  </si>
+  <si>
+    <t>40924417527</t>
+  </si>
+  <si>
+    <t>sergostruk</t>
+  </si>
+  <si>
+    <t>Serg Ostruk</t>
+  </si>
+  <si>
+    <t>5776101665</t>
+  </si>
+  <si>
+    <t>ana.stazzi</t>
+  </si>
+  <si>
+    <t>Anastasia 🐾</t>
+  </si>
+  <si>
+    <t>41902230851</t>
+  </si>
+  <si>
+    <t>timofei.kasianov1992</t>
+  </si>
+  <si>
+    <t>Timofei Kasianov</t>
+  </si>
+  <si>
+    <t>5480621170</t>
+  </si>
+  <si>
+    <t>steshastepa</t>
+  </si>
+  <si>
+    <t>Stephanie 🌸🌺🌸</t>
+  </si>
+  <si>
+    <t>2007944267</t>
+  </si>
+  <si>
+    <t>saltanovska</t>
+  </si>
+  <si>
+    <t>Marharyta Saltanovska💜</t>
+  </si>
+  <si>
+    <t>3807973440</t>
+  </si>
+  <si>
+    <t>dashalutsiva</t>
+  </si>
+  <si>
+    <t>Даша Луцива</t>
+  </si>
+  <si>
+    <t>15537004820</t>
+  </si>
+  <si>
+    <t>_double.cheese_</t>
+  </si>
+  <si>
+    <t>Доставка піци | Харків</t>
+  </si>
+  <si>
+    <t>4398943967</t>
+  </si>
+  <si>
+    <t>vikki__tkachenko</t>
+  </si>
+  <si>
+    <t>Виктория (Заречная) Ткаченко🍀</t>
+  </si>
   <si>
     <t>5496836121</t>
   </si>
@@ -23,22 +185,172 @@
     <t>Karuchenko Dmitry</t>
   </si>
   <si>
-    <t>22927148540</t>
-  </si>
-  <si>
-    <t>utepilsrame</t>
-  </si>
-  <si>
-    <t>Anastasia</t>
-  </si>
-  <si>
-    <t>3658771700</t>
-  </si>
-  <si>
-    <t>nazar.vita.m</t>
-  </si>
-  <si>
-    <t>Vita</t>
+    <t>3015590643</t>
+  </si>
+  <si>
+    <t>lunarlesta</t>
+  </si>
+  <si>
+    <t>Olha Sanzharovska</t>
+  </si>
+  <si>
+    <t>5682107042</t>
+  </si>
+  <si>
+    <t>timurryazantcev</t>
+  </si>
+  <si>
+    <t>Timur Ryazantcev</t>
+  </si>
+  <si>
+    <t>6780188613</t>
+  </si>
+  <si>
+    <t>baranov.oleh</t>
+  </si>
+  <si>
+    <t>Олег Баранов</t>
+  </si>
+  <si>
+    <t>1918492898</t>
+  </si>
+  <si>
+    <t>joaorosha</t>
+  </si>
+  <si>
+    <t>João Rocha</t>
+  </si>
+  <si>
+    <t>3066364385</t>
+  </si>
+  <si>
+    <t>amalia_raiskaya</t>
+  </si>
+  <si>
+    <t>Amalia</t>
+  </si>
+  <si>
+    <t>1509525978</t>
+  </si>
+  <si>
+    <t>ver_alenka</t>
+  </si>
+  <si>
+    <t>Alena Alena</t>
+  </si>
+  <si>
+    <t>3557576209</t>
+  </si>
+  <si>
+    <t>nikolay.rusanov7</t>
+  </si>
+  <si>
+    <t>Nikolay</t>
+  </si>
+  <si>
+    <t>188841268</t>
+  </si>
+  <si>
+    <t>zeotron_art</t>
+  </si>
+  <si>
+    <t>Roma🌿</t>
+  </si>
+  <si>
+    <t>1557036485</t>
+  </si>
+  <si>
+    <t>anatolii_balakiriev</t>
+  </si>
+  <si>
+    <t>Anatolii Balakiriev</t>
+  </si>
+  <si>
+    <t>3298306558</t>
+  </si>
+  <si>
+    <t>katiushakhomut</t>
+  </si>
+  <si>
+    <t>Катюшка 🎀 Хомут</t>
+  </si>
+  <si>
+    <t>1507437372</t>
+  </si>
+  <si>
+    <t>koteikanovik</t>
+  </si>
+  <si>
+    <t>Катя Новик</t>
+  </si>
+  <si>
+    <t>46919920426</t>
+  </si>
+  <si>
+    <t>ms.zheldak</t>
+  </si>
+  <si>
+    <t>Mikhail Zheldak</t>
+  </si>
+  <si>
+    <t>8146374396</t>
+  </si>
+  <si>
+    <t>return_cat</t>
+  </si>
+  <si>
+    <t>Natalie</t>
+  </si>
+  <si>
+    <t>1718182182</t>
+  </si>
+  <si>
+    <t>smartfoxdev</t>
+  </si>
+  <si>
+    <t>Валерий Кузнецов</t>
+  </si>
+  <si>
+    <t>4297113243</t>
+  </si>
+  <si>
+    <t>alexsavochenko</t>
+  </si>
+  <si>
+    <t>Александр Савоченко</t>
+  </si>
+  <si>
+    <t>6720001536</t>
+  </si>
+  <si>
+    <t>vita.prishchepa</t>
+  </si>
+  <si>
+    <t>PrishchepaVictoria</t>
+  </si>
+  <si>
+    <t>8941412338</t>
+  </si>
+  <si>
+    <t>lukina_lenchik</t>
+  </si>
+  <si>
+    <t>Елена Лукина</t>
+  </si>
+  <si>
+    <t>1665158140</t>
+  </si>
+  <si>
+    <t>katerina_ne_moroz</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1960067267</t>
+  </si>
+  <si>
+    <t>ksushchan</t>
   </si>
   <si>
     <t>3194868831</t>
@@ -47,7 +359,58 @@
     <t>nataterletskaya</t>
   </si>
   <si>
-    <t/>
+    <t>543161485</t>
+  </si>
+  <si>
+    <t>maxsorl</t>
+  </si>
+  <si>
+    <t>Макс Сорокин</t>
+  </si>
+  <si>
+    <t>8571005253</t>
+  </si>
+  <si>
+    <t>shekhovtsov_anton</t>
+  </si>
+  <si>
+    <t>Антон Шеховцов</t>
+  </si>
+  <si>
+    <t>8704514423</t>
+  </si>
+  <si>
+    <t>natik1285</t>
+  </si>
+  <si>
+    <t>Natalka</t>
+  </si>
+  <si>
+    <t>4448583004</t>
+  </si>
+  <si>
+    <t>shevanton_</t>
+  </si>
+  <si>
+    <t>Toxa</t>
+  </si>
+  <si>
+    <t>3286803688</t>
+  </si>
+  <si>
+    <t>den.alekseenko</t>
+  </si>
+  <si>
+    <t>Denis Alekseenko</t>
+  </si>
+  <si>
+    <t>46736323946</t>
+  </si>
+  <si>
+    <t>___chpok_v_pupok___</t>
+  </si>
+  <si>
+    <t>Igoryan</t>
   </si>
   <si>
     <t>5589026095</t>
@@ -59,76 +422,130 @@
     <t>Lisunov Oleksandr</t>
   </si>
   <si>
-    <t>40924417527</t>
-  </si>
-  <si>
-    <t>sergostruk</t>
-  </si>
-  <si>
-    <t>Serg Ostruk</t>
-  </si>
-  <si>
-    <t>1507437372</t>
-  </si>
-  <si>
-    <t>koteikanovik</t>
-  </si>
-  <si>
-    <t>Катя Новик</t>
-  </si>
-  <si>
-    <t>5978809531</t>
-  </si>
-  <si>
-    <t>novik.elena_</t>
-  </si>
-  <si>
-    <t>Lena</t>
-  </si>
-  <si>
-    <t>5443128991</t>
-  </si>
-  <si>
-    <t>gleb_zotov7</t>
-  </si>
-  <si>
-    <t>Глеб Зотов</t>
-  </si>
-  <si>
-    <t>41902230851</t>
-  </si>
-  <si>
-    <t>timofei.kasianov1992</t>
-  </si>
-  <si>
-    <t>Timofei Kasianov</t>
-  </si>
-  <si>
-    <t>1509525978</t>
-  </si>
-  <si>
-    <t>ver_alenka</t>
-  </si>
-  <si>
-    <t>Alena Alena</t>
-  </si>
-  <si>
-    <t>1557036485</t>
-  </si>
-  <si>
-    <t>anatolii_balakiriev</t>
-  </si>
-  <si>
-    <t>Anatolii Balakiriev</t>
-  </si>
-  <si>
-    <t>5533349388</t>
-  </si>
-  <si>
-    <t>lykina_nastyshka</t>
-  </si>
-  <si>
-    <t>Anastasiia Lukina</t>
+    <t>2872342906</t>
+  </si>
+  <si>
+    <t>gaidenfeld</t>
+  </si>
+  <si>
+    <t>Oleg</t>
+  </si>
+  <si>
+    <t>7404815080</t>
+  </si>
+  <si>
+    <t>kucheryavaya_s</t>
+  </si>
+  <si>
+    <t>Sveta</t>
+  </si>
+  <si>
+    <t>9134759088</t>
+  </si>
+  <si>
+    <t>sergeialeksandrov46</t>
+  </si>
+  <si>
+    <t>Сергей Александров</t>
+  </si>
+  <si>
+    <t>643074866</t>
+  </si>
+  <si>
+    <t>justhappyann</t>
+  </si>
+  <si>
+    <t>Аня Саранча</t>
+  </si>
+  <si>
+    <t>479640061</t>
+  </si>
+  <si>
+    <t>marinabezuglaya</t>
+  </si>
+  <si>
+    <t>Marina Bezuglaya</t>
+  </si>
+  <si>
+    <t>8914189722</t>
+  </si>
+  <si>
+    <t>travel_mir_kharkov</t>
+  </si>
+  <si>
+    <t>Юлия | Туры Харьков</t>
+  </si>
+  <si>
+    <t>2378416242</t>
+  </si>
+  <si>
+    <t>n_a_t_a_l_i_94</t>
+  </si>
+  <si>
+    <t>Натали</t>
+  </si>
+  <si>
+    <t>4205223257</t>
+  </si>
+  <si>
+    <t>dmitriy_kurilo</t>
+  </si>
+  <si>
+    <t>Дмитрий Курило</t>
+  </si>
+  <si>
+    <t>998040048</t>
+  </si>
+  <si>
+    <t>fqjony</t>
+  </si>
+  <si>
+    <t>Dmitry Smirnov</t>
+  </si>
+  <si>
+    <t>1980124718</t>
+  </si>
+  <si>
+    <t>k.a_t_r.i.n</t>
+  </si>
+  <si>
+    <t>Екатерина Сергеевна</t>
+  </si>
+  <si>
+    <t>5592849355</t>
+  </si>
+  <si>
+    <t>chaosbest</t>
+  </si>
+  <si>
+    <t>Alexander Victorovich</t>
+  </si>
+  <si>
+    <t>334729418</t>
+  </si>
+  <si>
+    <t>svetlana_krutik</t>
+  </si>
+  <si>
+    <t>Света Поцяпун</t>
+  </si>
+  <si>
+    <t>7587493365</t>
+  </si>
+  <si>
+    <t>elvira__kadirova</t>
+  </si>
+  <si>
+    <t>Эльвира Кадырова</t>
+  </si>
+  <si>
+    <t>6894521451</t>
+  </si>
+  <si>
+    <t>ri.lykova</t>
+  </si>
+  <si>
+    <t>Irina Lykova</t>
   </si>
   <si>
     <t>39383552563</t>
@@ -140,148 +557,76 @@
     <t>Иван Пелих</t>
   </si>
   <si>
-    <t>4297113243</t>
-  </si>
-  <si>
-    <t>alexsavochenko</t>
-  </si>
-  <si>
-    <t>Александр Савоченко</t>
-  </si>
-  <si>
-    <t>5709552856</t>
-  </si>
-  <si>
-    <t>no.sorrrow</t>
-  </si>
-  <si>
-    <t>anastasiia</t>
-  </si>
-  <si>
-    <t>2007944267</t>
-  </si>
-  <si>
-    <t>saltanovska</t>
-  </si>
-  <si>
-    <t>Marharyta Saltanovska💜</t>
-  </si>
-  <si>
-    <t>8146374396</t>
-  </si>
-  <si>
-    <t>return_cat</t>
-  </si>
-  <si>
-    <t>Natalie</t>
-  </si>
-  <si>
-    <t>1718182182</t>
-  </si>
-  <si>
-    <t>smartfoxdev</t>
-  </si>
-  <si>
-    <t>Валерий Кузнецов</t>
-  </si>
-  <si>
-    <t>1918492898</t>
-  </si>
-  <si>
-    <t>joaorosha</t>
-  </si>
-  <si>
-    <t>João Rocha</t>
-  </si>
-  <si>
-    <t>5682107042</t>
-  </si>
-  <si>
-    <t>timurryazantcev</t>
-  </si>
-  <si>
-    <t>Timur Ryazantcev</t>
-  </si>
-  <si>
-    <t>8941412338</t>
-  </si>
-  <si>
-    <t>lukina_lenchik</t>
-  </si>
-  <si>
-    <t>Елена Лукина</t>
-  </si>
-  <si>
-    <t>4398943967</t>
-  </si>
-  <si>
-    <t>vikki__tkachenko</t>
-  </si>
-  <si>
-    <t>Виктория (Заречная) Ткаченко🍀</t>
-  </si>
-  <si>
-    <t>3557576209</t>
-  </si>
-  <si>
-    <t>nikolay.rusanov7</t>
-  </si>
-  <si>
-    <t>Nikolay</t>
-  </si>
-  <si>
-    <t>3066364385</t>
-  </si>
-  <si>
-    <t>amalia_raiskaya</t>
-  </si>
-  <si>
-    <t>Amalia</t>
-  </si>
-  <si>
-    <t>46736323946</t>
-  </si>
-  <si>
-    <t>___chpok_v_pupok___</t>
-  </si>
-  <si>
-    <t>Igoryan</t>
-  </si>
-  <si>
-    <t>5480621170</t>
-  </si>
-  <si>
-    <t>steshastepa</t>
-  </si>
-  <si>
-    <t>Stephanie 🌸🌺🌸</t>
-  </si>
-  <si>
-    <t>4448583004</t>
-  </si>
-  <si>
-    <t>shevanton_</t>
-  </si>
-  <si>
-    <t>Toxa</t>
-  </si>
-  <si>
-    <t>6720001536</t>
-  </si>
-  <si>
-    <t>vita.prishchepa</t>
-  </si>
-  <si>
-    <t>PrishchepaVictoria</t>
-  </si>
-  <si>
-    <t>2968278645</t>
-  </si>
-  <si>
-    <t>liudmyla_minenko</t>
-  </si>
-  <si>
-    <t>Liudmyla Minenko</t>
+    <t>33582932</t>
+  </si>
+  <si>
+    <t>karelspil</t>
+  </si>
+  <si>
+    <t>Karel Spilka</t>
+  </si>
+  <si>
+    <t>10933221669</t>
+  </si>
+  <si>
+    <t>anpylypenko</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>5653354215</t>
+  </si>
+  <si>
+    <t>morris_my_life</t>
+  </si>
+  <si>
+    <t>Elena Revyakina</t>
+  </si>
+  <si>
+    <t>5581548784</t>
+  </si>
+  <si>
+    <t>sergkraina</t>
+  </si>
+  <si>
+    <t>Сергей Николаевич</t>
+  </si>
+  <si>
+    <t>42271971663</t>
+  </si>
+  <si>
+    <t>valentine.kravtsov</t>
+  </si>
+  <si>
+    <t>Валик Кравцов</t>
+  </si>
+  <si>
+    <t>6888074835</t>
+  </si>
+  <si>
+    <t>maksik_15_03</t>
+  </si>
+  <si>
+    <t>Artem Maksimchyk</t>
+  </si>
+  <si>
+    <t>12035188875</t>
+  </si>
+  <si>
+    <t>mswaleron</t>
+  </si>
+  <si>
+    <t>Валерий</t>
+  </si>
+  <si>
+    <t>4776861533</t>
+  </si>
+  <si>
+    <t>mykola_kretinin</t>
+  </si>
+  <si>
+    <t>Mykola Kretinin</t>
   </si>
   <si>
     <t>5836694356</t>
@@ -293,118 +638,397 @@
     <t>Anton Kurochka</t>
   </si>
   <si>
-    <t>6088040543</t>
-  </si>
-  <si>
-    <t>lolita_mechkauskayte</t>
-  </si>
-  <si>
-    <t>Locenok</t>
-  </si>
-  <si>
-    <t>3807973440</t>
-  </si>
-  <si>
-    <t>dashalutsiva</t>
-  </si>
-  <si>
-    <t>Даша Луцива</t>
-  </si>
-  <si>
-    <t>4349200104</t>
-  </si>
-  <si>
-    <t>lenok_lev4enko</t>
-  </si>
-  <si>
-    <t>Лена Диденко</t>
-  </si>
-  <si>
-    <t>1665158140</t>
-  </si>
-  <si>
-    <t>katerina_ne_moroz</t>
-  </si>
-  <si>
-    <t>46919920426</t>
-  </si>
-  <si>
-    <t>ms.zheldak</t>
-  </si>
-  <si>
-    <t>Mikhail Zheldak</t>
-  </si>
-  <si>
-    <t>4776861533</t>
-  </si>
-  <si>
-    <t>mykola_kretinin</t>
-  </si>
-  <si>
-    <t>Mykola Kretinin</t>
-  </si>
-  <si>
-    <t>3015590643</t>
-  </si>
-  <si>
-    <t>lunarlesta</t>
-  </si>
-  <si>
-    <t>Olha Sanzharovska</t>
-  </si>
-  <si>
-    <t>46571608989</t>
-  </si>
-  <si>
-    <t>k.a_t_rin.photo</t>
-  </si>
-  <si>
-    <t>Екатерина</t>
-  </si>
-  <si>
-    <t>3298306558</t>
-  </si>
-  <si>
-    <t>katiushakhomut</t>
-  </si>
-  <si>
-    <t>Катюшка 🎀 Хомут</t>
-  </si>
-  <si>
-    <t>9134759088</t>
-  </si>
-  <si>
-    <t>sergeialeksandrov46</t>
-  </si>
-  <si>
-    <t>Сергей Александров</t>
-  </si>
-  <si>
-    <t>7404815080</t>
-  </si>
-  <si>
-    <t>kucheryavaya_s</t>
-  </si>
-  <si>
-    <t>Sveta</t>
-  </si>
-  <si>
-    <t>3286803688</t>
-  </si>
-  <si>
-    <t>den.alekseenko</t>
-  </si>
-  <si>
-    <t>Denis Alekseenko</t>
-  </si>
-  <si>
-    <t>479640061</t>
-  </si>
-  <si>
-    <t>marinabezuglaya</t>
-  </si>
-  <si>
-    <t>Marina Bezuglaya</t>
+    <t>5973121850</t>
+  </si>
+  <si>
+    <t>grigoriy.belov</t>
+  </si>
+  <si>
+    <t>Григорий Белов</t>
+  </si>
+  <si>
+    <t>6537477830</t>
+  </si>
+  <si>
+    <t>darkward666</t>
+  </si>
+  <si>
+    <t>Дмитрий Слончинский</t>
+  </si>
+  <si>
+    <t>1675609130</t>
+  </si>
+  <si>
+    <t>anastasia_vikhot</t>
+  </si>
+  <si>
+    <t>Анастасия</t>
+  </si>
+  <si>
+    <t>8018318830</t>
+  </si>
+  <si>
+    <t>iliyamisevra</t>
+  </si>
+  <si>
+    <t>Илья Мисевра</t>
+  </si>
+  <si>
+    <t>1930368337</t>
+  </si>
+  <si>
+    <t>deaddogdeus</t>
+  </si>
+  <si>
+    <t>Bondarenko Alexander</t>
+  </si>
+  <si>
+    <t>19469763805</t>
+  </si>
+  <si>
+    <t>keisiedouble</t>
+  </si>
+  <si>
+    <t>KeiSie Double</t>
+  </si>
+  <si>
+    <t>7076447811</t>
+  </si>
+  <si>
+    <t>pavlishchuk_sania</t>
+  </si>
+  <si>
+    <t>Саня Павлищук</t>
+  </si>
+  <si>
+    <t>2262155321</t>
+  </si>
+  <si>
+    <t>nastyaionenko</t>
+  </si>
+  <si>
+    <t>4390935361</t>
+  </si>
+  <si>
+    <t>olhapozyvailo</t>
+  </si>
+  <si>
+    <t>𝙾𝚕𝚑𝚊 𝙿𝚘𝚣𝚢𝚟𝚊𝚒𝚕𝚘</t>
+  </si>
+  <si>
+    <t>3083007165</t>
+  </si>
+  <si>
+    <t>bezmen.live</t>
+  </si>
+  <si>
+    <t>Иван Безменов</t>
+  </si>
+  <si>
+    <t>7694075739</t>
+  </si>
+  <si>
+    <t>greg.burghard</t>
+  </si>
+  <si>
+    <t>Gregory Bukharov</t>
+  </si>
+  <si>
+    <t>4058002273</t>
+  </si>
+  <si>
+    <t>b.m.joe</t>
+  </si>
+  <si>
+    <t>Марисюк Остап</t>
+  </si>
+  <si>
+    <t>1969480744</t>
+  </si>
+  <si>
+    <t>jenina_jenya</t>
+  </si>
+  <si>
+    <t>СТУДИЯ JJ</t>
+  </si>
+  <si>
+    <t>272786242</t>
+  </si>
+  <si>
+    <t>cirius_kh</t>
+  </si>
+  <si>
+    <t>Tolya</t>
+  </si>
+  <si>
+    <t>7861314594</t>
+  </si>
+  <si>
+    <t>jul.fox.0</t>
+  </si>
+  <si>
+    <t>Juliet</t>
+  </si>
+  <si>
+    <t>7877598311</t>
+  </si>
+  <si>
+    <t>bugaiovmikhailo</t>
+  </si>
+  <si>
+    <t>Михайло Бугайов</t>
+  </si>
+  <si>
+    <t>216793250</t>
+  </si>
+  <si>
+    <t>kirillvasilenko</t>
+  </si>
+  <si>
+    <t>Kyryl Vasylenko</t>
+  </si>
+  <si>
+    <t>5360516989</t>
+  </si>
+  <si>
+    <t>yevgeniya_pishchevskaya</t>
+  </si>
+  <si>
+    <t>Евгения Пищевская</t>
+  </si>
+  <si>
+    <t>3261126243</t>
+  </si>
+  <si>
+    <t>verunja108</t>
+  </si>
+  <si>
+    <t>2052730441</t>
+  </si>
+  <si>
+    <t>kyb85</t>
+  </si>
+  <si>
+    <t>Алексей</t>
+  </si>
+  <si>
+    <t>4872254528</t>
+  </si>
+  <si>
+    <t>tanya_tanyushka_podarki</t>
+  </si>
+  <si>
+    <t>Татьяна Павлова</t>
+  </si>
+  <si>
+    <t>1423890471</t>
+  </si>
+  <si>
+    <t>a__kostenko__</t>
+  </si>
+  <si>
+    <t>Андрей Костенко</t>
+  </si>
+  <si>
+    <t>31770896422</t>
+  </si>
+  <si>
+    <t>knt_spirit</t>
+  </si>
+  <si>
+    <t>Настольный теннис Харьков</t>
+  </si>
+  <si>
+    <t>8683014817</t>
+  </si>
+  <si>
+    <t>myroslav_bakuta</t>
+  </si>
+  <si>
+    <t>Мирослав Бакута</t>
+  </si>
+  <si>
+    <t>45649772571</t>
+  </si>
+  <si>
+    <t>nikita.startup</t>
+  </si>
+  <si>
+    <t>Никита Стартап</t>
+  </si>
+  <si>
+    <t>2514549667</t>
+  </si>
+  <si>
+    <t>irina0044</t>
+  </si>
+  <si>
+    <t>🌎 Irina Korba  #Kharkiv 🌎</t>
+  </si>
+  <si>
+    <t>1554928320</t>
+  </si>
+  <si>
+    <t>topspinkharkov</t>
+  </si>
+  <si>
+    <t>НАСТОЛЬНЫЙ ТЕННИС ХАРЬКОВ</t>
+  </si>
+  <si>
+    <t>5649619609</t>
+  </si>
+  <si>
+    <t>tengoku_</t>
+  </si>
+  <si>
+    <t>Vlada</t>
+  </si>
+  <si>
+    <t>5608895880</t>
+  </si>
+  <si>
+    <t>mkjoy42</t>
+  </si>
+  <si>
+    <t>Марина Вакуленко</t>
+  </si>
+  <si>
+    <t>5685672290</t>
+  </si>
+  <si>
+    <t>maksim_shiyan</t>
+  </si>
+  <si>
+    <t>Максим Шиян</t>
+  </si>
+  <si>
+    <t>1760538822</t>
+  </si>
+  <si>
+    <t>artem_pavlov_ua</t>
+  </si>
+  <si>
+    <t>Артём Павлов</t>
+  </si>
+  <si>
+    <t>8628968557</t>
+  </si>
+  <si>
+    <t>cybulin2018</t>
+  </si>
+  <si>
+    <t>Сергей Цыбулин</t>
+  </si>
+  <si>
+    <t>5836516802</t>
+  </si>
+  <si>
+    <t>sixteencolorsofme</t>
+  </si>
+  <si>
+    <t>Sergey Savchenko</t>
+  </si>
+  <si>
+    <t>2282315409</t>
+  </si>
+  <si>
+    <t>novik.sergey</t>
+  </si>
+  <si>
+    <t>4656429905</t>
+  </si>
+  <si>
+    <t>igor_garry_verb</t>
+  </si>
+  <si>
+    <t>Igor Garry  V.</t>
+  </si>
+  <si>
+    <t>6139757237</t>
+  </si>
+  <si>
+    <t>vova_mixx</t>
+  </si>
+  <si>
+    <t>Вова Сериков</t>
+  </si>
+  <si>
+    <t>37574006666</t>
+  </si>
+  <si>
+    <t>slava_dyachenko10</t>
+  </si>
+  <si>
+    <t>8630127905</t>
+  </si>
+  <si>
+    <t>iullia_iullia5019</t>
+  </si>
+  <si>
+    <t>Юляшка (АЛЕКС)</t>
+  </si>
+  <si>
+    <t>6972153229</t>
+  </si>
+  <si>
+    <t>danileichenko.dmitriy</t>
+  </si>
+  <si>
+    <t>Дмитрий Данилейченко</t>
+  </si>
+  <si>
+    <t>7239973909</t>
+  </si>
+  <si>
+    <t>24feetofsmoke</t>
+  </si>
+  <si>
+    <t>Ruslan Vadimovich</t>
+  </si>
+  <si>
+    <t>4767075514</t>
+  </si>
+  <si>
+    <t>pavel_hunt</t>
+  </si>
+  <si>
+    <t>Павел</t>
+  </si>
+  <si>
+    <t>9375328733</t>
+  </si>
+  <si>
+    <t>topspinshop.com.ua</t>
+  </si>
+  <si>
+    <t>ТОВАРЫ ДЛЯ НАСТОЛЬНОГО ТЕННИСА</t>
+  </si>
+  <si>
+    <t>17617023602</t>
+  </si>
+  <si>
+    <t>viacheslavrudenko34</t>
+  </si>
+  <si>
+    <t>Вячеслав Руденко</t>
+  </si>
+  <si>
+    <t>603510930</t>
+  </si>
+  <si>
+    <t>caxap1987</t>
+  </si>
+  <si>
+    <t>Александр Неживой</t>
+  </si>
+  <si>
+    <t>9295779044</t>
+  </si>
+  <si>
+    <t>samogon19901</t>
+  </si>
+  <si>
+    <t>Олег Даценко</t>
   </si>
   <si>
     <t>5989541461</t>
@@ -416,136 +1040,1171 @@
     <t>Виктория</t>
   </si>
   <si>
-    <t>7694075739</t>
-  </si>
-  <si>
-    <t>greg.burghard</t>
-  </si>
-  <si>
-    <t>Gregory Bukharov</t>
-  </si>
-  <si>
-    <t>8704514423</t>
-  </si>
-  <si>
-    <t>natik1285</t>
-  </si>
-  <si>
-    <t>Natalka</t>
-  </si>
-  <si>
-    <t>2872342906</t>
-  </si>
-  <si>
-    <t>gaidenfeld</t>
-  </si>
-  <si>
-    <t>Oleg</t>
-  </si>
-  <si>
-    <t>5581548784</t>
-  </si>
-  <si>
-    <t>sergkraina</t>
-  </si>
-  <si>
-    <t>Сергей Николаевич</t>
-  </si>
-  <si>
-    <t>543161485</t>
-  </si>
-  <si>
-    <t>maxsorl</t>
-  </si>
-  <si>
-    <t>Макс Сорокин</t>
-  </si>
-  <si>
-    <t>1960067267</t>
-  </si>
-  <si>
-    <t>ksushchan</t>
-  </si>
-  <si>
-    <t>643074866</t>
-  </si>
-  <si>
-    <t>justhappyann</t>
-  </si>
-  <si>
-    <t>Аня Саранча</t>
-  </si>
-  <si>
-    <t>1980124718</t>
-  </si>
-  <si>
-    <t>k.a_t_r.i.n</t>
-  </si>
-  <si>
-    <t>Екатерина Сергеевна</t>
-  </si>
-  <si>
-    <t>8571005253</t>
-  </si>
-  <si>
-    <t>shekhovtsov_anton</t>
-  </si>
-  <si>
-    <t>Антон Шеховцов</t>
-  </si>
-  <si>
-    <t>7587493365</t>
-  </si>
-  <si>
-    <t>elvira__kadirova</t>
-  </si>
-  <si>
-    <t>Эльвира Кадырова</t>
-  </si>
-  <si>
-    <t>6894521451</t>
-  </si>
-  <si>
-    <t>ri.lykova</t>
-  </si>
-  <si>
-    <t>Irina Lykova</t>
-  </si>
-  <si>
-    <t>998040048</t>
-  </si>
-  <si>
-    <t>fqjony</t>
-  </si>
-  <si>
-    <t>Dmitry Smirnov</t>
-  </si>
-  <si>
-    <t>5592849355</t>
-  </si>
-  <si>
-    <t>chaosbest</t>
-  </si>
-  <si>
-    <t>Alexander Victorovich</t>
-  </si>
-  <si>
-    <t>334729418</t>
-  </si>
-  <si>
-    <t>svetlana_krutik</t>
-  </si>
-  <si>
-    <t>Света Поцяпун</t>
-  </si>
-  <si>
-    <t>10933221669</t>
-  </si>
-  <si>
-    <t>anpylypenko</t>
-  </si>
-  <si>
-    <t>Anna</t>
+    <t>8665544898</t>
+  </si>
+  <si>
+    <t>ser18ab1</t>
+  </si>
+  <si>
+    <t>Table Tennis</t>
+  </si>
+  <si>
+    <t>718852048</t>
+  </si>
+  <si>
+    <t>pupsarin</t>
+  </si>
+  <si>
+    <t>6535902432</t>
+  </si>
+  <si>
+    <t>oksanakriokhova</t>
+  </si>
+  <si>
+    <t>Оксана Крёхова</t>
+  </si>
+  <si>
+    <t>39486630028</t>
+  </si>
+  <si>
+    <t>igorlenaverba</t>
+  </si>
+  <si>
+    <t>igorlena</t>
+  </si>
+  <si>
+    <t>5800991337</t>
+  </si>
+  <si>
+    <t>anatoliy_gusev1</t>
+  </si>
+  <si>
+    <t>Анатолий Гусев</t>
+  </si>
+  <si>
+    <t>43157567373</t>
+  </si>
+  <si>
+    <t>aleksandrsigin</t>
+  </si>
+  <si>
+    <t>Александр Сигин</t>
+  </si>
+  <si>
+    <t>14016672808</t>
+  </si>
+  <si>
+    <t>batin_sbln</t>
+  </si>
+  <si>
+    <t>Станислав Ваганов</t>
+  </si>
+  <si>
+    <t>1289460729</t>
+  </si>
+  <si>
+    <t>miss_kvitka</t>
+  </si>
+  <si>
+    <t>Yulia</t>
+  </si>
+  <si>
+    <t>420614558</t>
+  </si>
+  <si>
+    <t>ksyu_anomaly</t>
+  </si>
+  <si>
+    <t>Ksyu Torina</t>
+  </si>
+  <si>
+    <t>37347412681</t>
+  </si>
+  <si>
+    <t>balint_borsodi_eu_2032</t>
+  </si>
+  <si>
+    <t>Bælint Børsodi</t>
+  </si>
+  <si>
+    <t>46035603330</t>
+  </si>
+  <si>
+    <t>ttkrest</t>
+  </si>
+  <si>
+    <t>Товары для настольного тенниса</t>
+  </si>
+  <si>
+    <t>9381435639</t>
+  </si>
+  <si>
+    <t>pashenko_lisihansk</t>
+  </si>
+  <si>
+    <t>Андрюха Пащенко</t>
+  </si>
+  <si>
+    <t>2987001354</t>
+  </si>
+  <si>
+    <t>vovo444ka86</t>
+  </si>
+  <si>
+    <t>Владимир</t>
+  </si>
+  <si>
+    <t>16127390313</t>
+  </si>
+  <si>
+    <t>li_liia8499</t>
+  </si>
+  <si>
+    <t>Лилия</t>
+  </si>
+  <si>
+    <t>21967846913</t>
+  </si>
+  <si>
+    <t>malashenko608</t>
+  </si>
+  <si>
+    <t>Дмитрий Малашенко</t>
+  </si>
+  <si>
+    <t>14019691361</t>
+  </si>
+  <si>
+    <t>sharaman7777</t>
+  </si>
+  <si>
+    <t>Sharaman</t>
+  </si>
+  <si>
+    <t>1583496075</t>
+  </si>
+  <si>
+    <t>hengamemansouri</t>
+  </si>
+  <si>
+    <t>Hengame Mansouri</t>
+  </si>
+  <si>
+    <t>4813340383</t>
+  </si>
+  <si>
+    <t>malashenko.80</t>
+  </si>
+  <si>
+    <t>Малашенко</t>
+  </si>
+  <si>
+    <t>4974294280</t>
+  </si>
+  <si>
+    <t>_de.margitta_97_</t>
+  </si>
+  <si>
+    <t>Margitta</t>
+  </si>
+  <si>
+    <t>7772209292</t>
+  </si>
+  <si>
+    <t>boiko317</t>
+  </si>
+  <si>
+    <t>Виктор Бойко</t>
+  </si>
+  <si>
+    <t>44006848755</t>
+  </si>
+  <si>
+    <t>taxi.lisichansk</t>
+  </si>
+  <si>
+    <t>Сергей</t>
+  </si>
+  <si>
+    <t>27928412773</t>
+  </si>
+  <si>
+    <t>alphaburgerua</t>
+  </si>
+  <si>
+    <t>Alpha Burger</t>
+  </si>
+  <si>
+    <t>6919696194</t>
+  </si>
+  <si>
+    <t>nikolai.pokatilov</t>
+  </si>
+  <si>
+    <t>Николай</t>
+  </si>
+  <si>
+    <t>9480853479</t>
+  </si>
+  <si>
+    <t>tenisdnepr</t>
+  </si>
+  <si>
+    <t>Настольный Теннис Днепр</t>
+  </si>
+  <si>
+    <t>4623069415</t>
+  </si>
+  <si>
+    <t>meridian_tennis</t>
+  </si>
+  <si>
+    <t>Настольный теннис Харьков</t>
+  </si>
+  <si>
+    <t>7501003464</t>
+  </si>
+  <si>
+    <t>vladsirozhko</t>
+  </si>
+  <si>
+    <t>Влад Сирожко</t>
+  </si>
+  <si>
+    <t>6503651182</t>
+  </si>
+  <si>
+    <t>sia_kardum</t>
+  </si>
+  <si>
+    <t>422554428</t>
+  </si>
+  <si>
+    <t>anastasiabugrim</t>
+  </si>
+  <si>
+    <t>1535665604</t>
+  </si>
+  <si>
+    <t>haruspex1897</t>
+  </si>
+  <si>
+    <t>Valdemar Vynnyk</t>
+  </si>
+  <si>
+    <t>4286104321</t>
+  </si>
+  <si>
+    <t>anatoliilegkii</t>
+  </si>
+  <si>
+    <t>Анатолий Легкий</t>
+  </si>
+  <si>
+    <t>2032233620</t>
+  </si>
+  <si>
+    <t>pyatkovaan</t>
+  </si>
+  <si>
+    <t>Natalia</t>
+  </si>
+  <si>
+    <t>26666034377</t>
+  </si>
+  <si>
+    <t>yatsenko_1041_</t>
+  </si>
+  <si>
+    <t>54524405</t>
+  </si>
+  <si>
+    <t>olgaodynezz</t>
+  </si>
+  <si>
+    <t>Olga</t>
+  </si>
+  <si>
+    <t>3724731092</t>
+  </si>
+  <si>
+    <t>oleg.pavliuk_</t>
+  </si>
+  <si>
+    <t>Oleg Pavliuk</t>
+  </si>
+  <si>
+    <t>4490756624</t>
+  </si>
+  <si>
+    <t>alyona_yarmak</t>
+  </si>
+  <si>
+    <t>Алёна</t>
+  </si>
+  <si>
+    <t>2955845920</t>
+  </si>
+  <si>
+    <t>roman_mironets</t>
+  </si>
+  <si>
+    <t>Роман Миронец</t>
+  </si>
+  <si>
+    <t>10685035713</t>
+  </si>
+  <si>
+    <t>vadimmisevra</t>
+  </si>
+  <si>
+    <t>Вадим Мисевра</t>
+  </si>
+  <si>
+    <t>5518314093</t>
+  </si>
+  <si>
+    <t>lubyanitskii</t>
+  </si>
+  <si>
+    <t>Андрей Лубяницкий</t>
+  </si>
+  <si>
+    <t>5823545291</t>
+  </si>
+  <si>
+    <t>artemkosyakevich</t>
+  </si>
+  <si>
+    <t>Artem  Kosyakevich</t>
+  </si>
+  <si>
+    <t>1548626158</t>
+  </si>
+  <si>
+    <t>mak.alina</t>
+  </si>
+  <si>
+    <t>Alina Mak</t>
+  </si>
+  <si>
+    <t>1452414526</t>
+  </si>
+  <si>
+    <t>iamjayceivanah</t>
+  </si>
+  <si>
+    <t>6889430046</t>
+  </si>
+  <si>
+    <t>blackmakerxx</t>
+  </si>
+  <si>
+    <t>The world is yours</t>
+  </si>
+  <si>
+    <t>1812324489</t>
+  </si>
+  <si>
+    <t>koto__mania</t>
+  </si>
+  <si>
+    <t>КОТОМАНИЯ</t>
+  </si>
+  <si>
+    <t>36495907092</t>
+  </si>
+  <si>
+    <t>virusnach</t>
+  </si>
+  <si>
+    <t>ЮМОР | ПРИКОЛЫ | ВИДЕО</t>
+  </si>
+  <si>
+    <t>6318102721</t>
+  </si>
+  <si>
+    <t>trash.hot</t>
+  </si>
+  <si>
+    <t>👇ПРОДОЛЖЕНИЕ У НАС👇</t>
+  </si>
+  <si>
+    <t>289615210</t>
+  </si>
+  <si>
+    <t>sekavines</t>
+  </si>
+  <si>
+    <t>Toktarbek Sergazy</t>
+  </si>
+  <si>
+    <t>8995965862</t>
+  </si>
+  <si>
+    <t>ar_b0n</t>
+  </si>
+  <si>
+    <t>Артём Бондаренко</t>
+  </si>
+  <si>
+    <t>7075785703</t>
+  </si>
+  <si>
+    <t>amoralich</t>
+  </si>
+  <si>
+    <t>Аморальные сториз</t>
+  </si>
+  <si>
+    <t>2160937696</t>
+  </si>
+  <si>
+    <t>video_russia</t>
+  </si>
+  <si>
+    <t>VIDEO_RUSSIA🐻</t>
+  </si>
+  <si>
+    <t>4963387845</t>
+  </si>
+  <si>
+    <t>marya_leontyeva</t>
+  </si>
+  <si>
+    <t>Коучинг/ женский мастер-клуб</t>
+  </si>
+  <si>
+    <t>31691424063</t>
+  </si>
+  <si>
+    <t>fantastic_tushina</t>
+  </si>
+  <si>
+    <t>Наталья Тушина</t>
+  </si>
+  <si>
+    <t>2902894748</t>
+  </si>
+  <si>
+    <t>psixos_vidos</t>
+  </si>
+  <si>
+    <t>Безумные Видео ☠️</t>
+  </si>
+  <si>
+    <t>1282733316</t>
+  </si>
+  <si>
+    <t>straightouttalens</t>
+  </si>
+  <si>
+    <t>©©©</t>
+  </si>
+  <si>
+    <t>43681973646</t>
+  </si>
+  <si>
+    <t>andruha2552</t>
+  </si>
+  <si>
+    <t>Андрей Удоденко</t>
+  </si>
+  <si>
+    <t>2241082037</t>
+  </si>
+  <si>
+    <t>katiushka_kot</t>
+  </si>
+  <si>
+    <t>Катюшка</t>
+  </si>
+  <si>
+    <t>4190933959</t>
+  </si>
+  <si>
+    <t>redress.journal</t>
+  </si>
+  <si>
+    <t>#REDRESS JOURNAL</t>
+  </si>
+  <si>
+    <t>46736303</t>
+  </si>
+  <si>
+    <t>viksi666</t>
+  </si>
+  <si>
+    <t>Виктория Рахматулина</t>
+  </si>
+  <si>
+    <t>2328336758</t>
+  </si>
+  <si>
+    <t>apasnayaryka</t>
+  </si>
+  <si>
+    <t>Апасный</t>
+  </si>
+  <si>
+    <t>1498883561</t>
+  </si>
+  <si>
+    <t>epicua</t>
+  </si>
+  <si>
+    <t>EPICUA</t>
+  </si>
+  <si>
+    <t>4153041240</t>
+  </si>
+  <si>
+    <t>marveloff</t>
+  </si>
+  <si>
+    <t>🎬Киновселенные MARVEL И DC</t>
+  </si>
+  <si>
+    <t>215063898</t>
+  </si>
+  <si>
+    <t>zusjeofficial</t>
+  </si>
+  <si>
+    <t>2979849929</t>
+  </si>
+  <si>
+    <t>supreme.english</t>
+  </si>
+  <si>
+    <t>ИНГЛИШ ПО ПЕСНЯМ С КОСТЕЙ</t>
+  </si>
+  <si>
+    <t>216391754</t>
+  </si>
+  <si>
+    <t>max._.makarenko</t>
+  </si>
+  <si>
+    <t>Max Makarenko</t>
+  </si>
+  <si>
+    <t>308126696</t>
+  </si>
+  <si>
+    <t>lenakatina</t>
+  </si>
+  <si>
+    <t>Lena Katina</t>
+  </si>
+  <si>
+    <t>7941480640</t>
+  </si>
+  <si>
+    <t>alexandr.hard</t>
+  </si>
+  <si>
+    <t>Харжевский Александр</t>
+  </si>
+  <si>
+    <t>7780840080</t>
+  </si>
+  <si>
+    <t>picture.humor</t>
+  </si>
+  <si>
+    <t>ПРОДОЛЖЕНИЕ 👇🏻🤯</t>
+  </si>
+  <si>
+    <t>3230850889</t>
+  </si>
+  <si>
+    <t>bez.kota</t>
+  </si>
+  <si>
+    <t>Без Кота И Жизнь Не Та</t>
+  </si>
+  <si>
+    <t>658567576</t>
+  </si>
+  <si>
+    <t>sense_me_dance</t>
+  </si>
+  <si>
+    <t>6344984705</t>
+  </si>
+  <si>
+    <t>kharkov_24_7</t>
+  </si>
+  <si>
+    <t>Харьков 24/7</t>
+  </si>
+  <si>
+    <t>10839302341</t>
+  </si>
+  <si>
+    <t>hardcorehudson</t>
+  </si>
+  <si>
+    <t>H. Hudson</t>
+  </si>
+  <si>
+    <t>2037497781</t>
+  </si>
+  <si>
+    <t>mad_video</t>
+  </si>
+  <si>
+    <t>МэдВидео</t>
+  </si>
+  <si>
+    <t>174970748</t>
+  </si>
+  <si>
+    <t>_.benditkis._</t>
+  </si>
+  <si>
+    <t>Igor Benditkis</t>
+  </si>
+  <si>
+    <t>6937642557</t>
+  </si>
+  <si>
+    <t>zvachkin</t>
+  </si>
+  <si>
+    <t>🔥Продолжение уже в ленте👇</t>
+  </si>
+  <si>
+    <t>20897343331</t>
+  </si>
+  <si>
+    <t>shatik_tv</t>
+  </si>
+  <si>
+    <t>Шатик - Видео Юмор Мемы🔥</t>
+  </si>
+  <si>
+    <t>1390356803</t>
+  </si>
+  <si>
+    <t>dimaovtcharov</t>
+  </si>
+  <si>
+    <t>Dima Ovtcharov 🏓</t>
+  </si>
+  <si>
+    <t>45413292705</t>
+  </si>
+  <si>
+    <t>sunmart_travel</t>
+  </si>
+  <si>
+    <t>Турагенство "Sunmart travel"</t>
+  </si>
+  <si>
+    <t>2460313075</t>
+  </si>
+  <si>
+    <t>krutoff_style</t>
+  </si>
+  <si>
+    <t>Александр Крутянский</t>
+  </si>
+  <si>
+    <t>1323501355</t>
+  </si>
+  <si>
+    <t>rg_kristina</t>
+  </si>
+  <si>
+    <t>ОСНОВАТЕЛЬ SHPAGAT.TEAM</t>
+  </si>
+  <si>
+    <t>4123471608</t>
+  </si>
+  <si>
+    <t>gangster_tm</t>
+  </si>
+  <si>
+    <t>🔪G A N G S T E R ™️ 🎩</t>
+  </si>
+  <si>
+    <t>4772787868</t>
+  </si>
+  <si>
+    <t>7_seas_tour</t>
+  </si>
+  <si>
+    <t>Турагентство "7 МОРЕЙ тур"</t>
+  </si>
+  <si>
+    <t>1352288822</t>
+  </si>
+  <si>
+    <t>ptencoff</t>
+  </si>
+  <si>
+    <t>Лучшие Видео🐥</t>
+  </si>
+  <si>
+    <t>11881080270</t>
+  </si>
+  <si>
+    <t>more_turov_kharkov_</t>
+  </si>
+  <si>
+    <t>🌍Туристическое агентство🌏</t>
+  </si>
+  <si>
+    <t>691900162</t>
+  </si>
+  <si>
+    <t>destabilizers.io</t>
+  </si>
+  <si>
+    <t>D3STΛB1LIZED</t>
+  </si>
+  <si>
+    <t>2117713276</t>
+  </si>
+  <si>
+    <t>devochki_vine</t>
+  </si>
+  <si>
+    <t>Видео/Женское</t>
+  </si>
+  <si>
+    <t>283664353</t>
+  </si>
+  <si>
+    <t>mariiarichard</t>
+  </si>
+  <si>
+    <t>🥢🎎Мария Ричард Japan🇯🇵🍣</t>
+  </si>
+  <si>
+    <t>46084843138</t>
+  </si>
+  <si>
+    <t>sigfox_ukraine</t>
+  </si>
+  <si>
+    <t>Sigfox Ukraine</t>
+  </si>
+  <si>
+    <t>48043873394</t>
+  </si>
+  <si>
+    <t>n.3d.design</t>
+  </si>
+  <si>
+    <t>N.design.3D</t>
+  </si>
+  <si>
+    <t>438378992</t>
+  </si>
+  <si>
+    <t>lukhashdotcom</t>
+  </si>
+  <si>
+    <t>LukHash</t>
+  </si>
+  <si>
+    <t>938822840</t>
+  </si>
+  <si>
+    <t>paranoia.tat</t>
+  </si>
+  <si>
+    <t>ᴏʟʏᴀ ᴘᴀʀᴀsᴏᴄʜᴋᴀ</t>
+  </si>
+  <si>
+    <t>1702878082</t>
+  </si>
+  <si>
+    <t>video.kek</t>
+  </si>
+  <si>
+    <t>Юмор | Видео 😉</t>
+  </si>
+  <si>
+    <t>3428979023</t>
+  </si>
+  <si>
+    <t>red.forest.leather</t>
+  </si>
+  <si>
+    <t>RED FOREST</t>
+  </si>
+  <si>
+    <t>7295786599</t>
+  </si>
+  <si>
+    <t>everrest_touring</t>
+  </si>
+  <si>
+    <t>ТУРАГЕНТСТВО ХАРЬКОВ</t>
+  </si>
+  <si>
+    <t>201467759</t>
+  </si>
+  <si>
+    <t>_brunatakahashi</t>
+  </si>
+  <si>
+    <t>Bruna takahashi</t>
+  </si>
+  <si>
+    <t>314372975</t>
+  </si>
+  <si>
+    <t>tiagoapolonia</t>
+  </si>
+  <si>
+    <t>Tiago Apolónia - Table Tennis</t>
+  </si>
+  <si>
+    <t>8226956098</t>
+  </si>
+  <si>
+    <t>h_saltovka</t>
+  </si>
+  <si>
+    <t>ХС | Харьков</t>
+  </si>
+  <si>
+    <t>2035208589</t>
+  </si>
+  <si>
+    <t>petya_english</t>
+  </si>
+  <si>
+    <t>🔞С ПЕТЕЙ ЛУЧШЕ ЧЕМ В ШКОЛЕ🔞</t>
+  </si>
+  <si>
+    <t>8170996928</t>
+  </si>
+  <si>
+    <t>vidoson</t>
+  </si>
+  <si>
+    <t>vidos on🔞</t>
+  </si>
+  <si>
+    <t>5487997204</t>
+  </si>
+  <si>
+    <t>photographer_mariya_gorbenko</t>
+  </si>
+  <si>
+    <t>Мария Горбенко</t>
+  </si>
+  <si>
+    <t>8797160179</t>
+  </si>
+  <si>
+    <t>richest_tm</t>
+  </si>
+  <si>
+    <t>RICHEST | Бизнес и Мотивация</t>
+  </si>
+  <si>
+    <t>17036010</t>
+  </si>
+  <si>
+    <t>mujuice</t>
+  </si>
+  <si>
+    <t>MUJUICE</t>
+  </si>
+  <si>
+    <t>410092223</t>
+  </si>
+  <si>
+    <t>official_juliavolkova</t>
+  </si>
+  <si>
+    <t>Julia Volkova | Юля Волкова</t>
+  </si>
+  <si>
+    <t>10903826375</t>
+  </si>
+  <si>
+    <t>m0xnach</t>
+  </si>
+  <si>
+    <t>Твой бро 🖤</t>
+  </si>
+  <si>
+    <t>1484054018</t>
+  </si>
+  <si>
+    <t>nemi_roman</t>
+  </si>
+  <si>
+    <t>я ʀᴏᴍᴀɴ 🙆🏼‍♂️</t>
+  </si>
+  <si>
+    <t>4254967</t>
+  </si>
+  <si>
+    <t>beeple_crap</t>
+  </si>
+  <si>
+    <t>beeple</t>
+  </si>
+  <si>
+    <t>39690991651</t>
+  </si>
+  <si>
+    <t>konxuwer</t>
+  </si>
+  <si>
+    <t>𝙄𝙜𝙤𝙧' 𝙃𝙤𝙙𝙮𝙪𝙠</t>
+  </si>
+  <si>
+    <t>31214092681</t>
+  </si>
+  <si>
+    <t>joolaportugal</t>
+  </si>
+  <si>
+    <t>joola portugal</t>
+  </si>
+  <si>
+    <t>45253615238</t>
+  </si>
+  <si>
+    <t>danileichenko_photo</t>
+  </si>
+  <si>
+    <t>Фотограф Лисичанск</t>
+  </si>
+  <si>
+    <t>2953565099</t>
+  </si>
+  <si>
+    <t>treneraa</t>
+  </si>
+  <si>
+    <t>Александр Минин</t>
+  </si>
+  <si>
+    <t>337340410</t>
+  </si>
+  <si>
+    <t>wtt</t>
+  </si>
+  <si>
+    <t>World Table Tennis</t>
+  </si>
+  <si>
+    <t>239344551</t>
+  </si>
+  <si>
+    <t>kyivstoner</t>
+  </si>
+  <si>
+    <t>#lowkeyfamous.</t>
+  </si>
+  <si>
+    <t>327748958</t>
+  </si>
+  <si>
+    <t>omarassar</t>
+  </si>
+  <si>
+    <t>Omar Assar عمر عصر</t>
+  </si>
+  <si>
+    <t>3509164846</t>
+  </si>
+  <si>
+    <t>svarog_hard</t>
+  </si>
+  <si>
+    <t>CDR`~SVAROG~</t>
+  </si>
+  <si>
+    <t>8636031716</t>
+  </si>
+  <si>
+    <t>alexxeiyyyy</t>
+  </si>
+  <si>
+    <t>Лёха Серебрянский</t>
+  </si>
+  <si>
+    <t>1027945159</t>
+  </si>
+  <si>
+    <t>kierandoesthings</t>
+  </si>
+  <si>
+    <t>Kmac2021</t>
+  </si>
+  <si>
+    <t>43604926039</t>
+  </si>
+  <si>
+    <t>ttdpocketrocket</t>
+  </si>
+  <si>
+    <t>Pocket Rocket 🚀</t>
+  </si>
+  <si>
+    <t>3408971671</t>
+  </si>
+  <si>
+    <t>dance_sfinks_official</t>
+  </si>
+  <si>
+    <t>🌓 Kamil Szpejenkowski 🌗</t>
+  </si>
+  <si>
+    <t>4627256829</t>
+  </si>
+  <si>
+    <t>pavel1975tatooirovka</t>
+  </si>
+  <si>
+    <t>Леванов  Павел</t>
+  </si>
+  <si>
+    <t>1535450008</t>
+  </si>
+  <si>
+    <t>pikavids</t>
+  </si>
+  <si>
+    <t>Пикавидс 🌀</t>
+  </si>
+  <si>
+    <t>1494802073</t>
+  </si>
+  <si>
+    <t>multachgram</t>
+  </si>
+  <si>
+    <t>Мультач - Видео Юмор Мемы</t>
+  </si>
+  <si>
+    <t>3432795339</t>
+  </si>
+  <si>
+    <t>trimer_shop</t>
+  </si>
+  <si>
+    <t>Машинки для стрижки / Триммеры</t>
+  </si>
+  <si>
+    <t>29188644182</t>
+  </si>
+  <si>
+    <t>sun_dali_travel</t>
+  </si>
+  <si>
+    <t>ТУРАГЕНТСТВО-ТУРЫ-ХАРЬКОВ🔝</t>
+  </si>
+  <si>
+    <t>27931275153</t>
+  </si>
+  <si>
+    <t>yaje.mama</t>
+  </si>
+  <si>
+    <t>Я ЖЕ МАТЬ 💁‍♀️</t>
+  </si>
+  <si>
+    <t>6597457685</t>
+  </si>
+  <si>
+    <t>dolbo_tv</t>
+  </si>
+  <si>
+    <t>Видео Долб*еба</t>
+  </si>
+  <si>
+    <t>3085152173</t>
+  </si>
+  <si>
+    <t>dream_motor</t>
+  </si>
+  <si>
+    <t>Авто из Канады и США под Заказ</t>
+  </si>
+  <si>
+    <t>8683534015</t>
+  </si>
+  <si>
+    <t>greenway.iko</t>
+  </si>
+  <si>
+    <t>🌍GREENWAY | ХАРЬКОВ🌍</t>
+  </si>
+  <si>
+    <t>45497625272</t>
+  </si>
+  <si>
+    <t>advocatprav</t>
+  </si>
+  <si>
+    <t>Адвокат</t>
+  </si>
+  <si>
+    <t>10106677553</t>
+  </si>
+  <si>
+    <t>advocatprava</t>
+  </si>
+  <si>
+    <t>Tg-канал "Адвокат Права" ⚖️</t>
+  </si>
+  <si>
+    <t>4933601714</t>
+  </si>
+  <si>
+    <t>chengiching.tt</t>
+  </si>
+  <si>
+    <t>Cheng I Ching🏓鄭怡靜-Table tennis</t>
+  </si>
+  <si>
+    <t>224289567</t>
+  </si>
+  <si>
+    <t>ciklum</t>
+  </si>
+  <si>
+    <t>Ciklum</t>
+  </si>
+  <si>
+    <t>4109924763</t>
+  </si>
+  <si>
+    <t>artem.koltunov</t>
+  </si>
+  <si>
+    <t>АРТЕМ КОЛТУНОВ | ПРОГРАММИСТ</t>
+  </si>
+  <si>
+    <t>1279094186</t>
+  </si>
+  <si>
+    <t>mihailov.prog</t>
+  </si>
+  <si>
+    <t>Илья программист | Java Dev</t>
+  </si>
+  <si>
+    <t>1797820041</t>
+  </si>
+  <si>
+    <t>tt.cup</t>
+  </si>
+  <si>
+    <t>TT Cup</t>
   </si>
   <si>
     <t>1636627502</t>
@@ -557,424 +2216,451 @@
     <t>Olga Smelik</t>
   </si>
   <si>
-    <t>1423890471</t>
-  </si>
-  <si>
-    <t>a__kostenko__</t>
-  </si>
-  <si>
-    <t>Андрей Костенко</t>
-  </si>
-  <si>
-    <t>8914189722</t>
-  </si>
-  <si>
-    <t>travel_mir_kharkov</t>
-  </si>
-  <si>
-    <t>Юлия | Туры Харьков</t>
-  </si>
-  <si>
-    <t>6780188613</t>
-  </si>
-  <si>
-    <t>baranov.oleh</t>
-  </si>
-  <si>
-    <t>Олег Баранов</t>
-  </si>
-  <si>
-    <t>5653354215</t>
-  </si>
-  <si>
-    <t>morris_my_life</t>
-  </si>
-  <si>
-    <t>Elena Revyakina</t>
-  </si>
-  <si>
-    <t>12035188875</t>
-  </si>
-  <si>
-    <t>mswaleron</t>
-  </si>
-  <si>
-    <t>Валерий</t>
-  </si>
-  <si>
-    <t>5973121850</t>
-  </si>
-  <si>
-    <t>grigoriy.belov</t>
-  </si>
-  <si>
-    <t>Григорий Белов</t>
-  </si>
-  <si>
-    <t>33582932</t>
-  </si>
-  <si>
-    <t>karelspil</t>
-  </si>
-  <si>
-    <t>Karel Spilka</t>
-  </si>
-  <si>
-    <t>42271971663</t>
-  </si>
-  <si>
-    <t>valentine.kravtsov</t>
-  </si>
-  <si>
-    <t>Валик Кравцов</t>
-  </si>
-  <si>
-    <t>2378416242</t>
-  </si>
-  <si>
-    <t>n_a_t_a_l_i_94</t>
-  </si>
-  <si>
-    <t>Наталья</t>
-  </si>
-  <si>
-    <t>1930368337</t>
-  </si>
-  <si>
-    <t>deaddogdeus</t>
-  </si>
-  <si>
-    <t>Bondarenko Alexander</t>
-  </si>
-  <si>
-    <t>6888074835</t>
-  </si>
-  <si>
-    <t>maksik_15_03</t>
-  </si>
-  <si>
-    <t>Artem Maksimchyk</t>
-  </si>
-  <si>
-    <t>5836516802</t>
-  </si>
-  <si>
-    <t>sixteencolorsofme</t>
-  </si>
-  <si>
-    <t>Sergey Savchenko</t>
-  </si>
-  <si>
-    <t>4205223257</t>
-  </si>
-  <si>
-    <t>dmitriy_kurilo</t>
-  </si>
-  <si>
-    <t>Дмитрий Курило</t>
-  </si>
-  <si>
-    <t>7076447811</t>
-  </si>
-  <si>
-    <t>pavlishchuk_sania</t>
-  </si>
-  <si>
-    <t>Саня Павлищук</t>
-  </si>
-  <si>
-    <t>6537477830</t>
-  </si>
-  <si>
-    <t>darkward666</t>
-  </si>
-  <si>
-    <t>Дмитрий Слончинский</t>
-  </si>
-  <si>
-    <t>2262155321</t>
-  </si>
-  <si>
-    <t>nastyaionenko</t>
-  </si>
-  <si>
-    <t>Анастасия</t>
-  </si>
-  <si>
-    <t>7861314594</t>
-  </si>
-  <si>
-    <t>jul.fox.0</t>
-  </si>
-  <si>
-    <t>Juliet</t>
-  </si>
-  <si>
-    <t>4767075514</t>
-  </si>
-  <si>
-    <t>pavel_hunt</t>
-  </si>
-  <si>
-    <t>Павел</t>
-  </si>
-  <si>
-    <t>31770896422</t>
-  </si>
-  <si>
-    <t>knt_spirit</t>
-  </si>
-  <si>
-    <t>Настольный теннис Харьков</t>
-  </si>
-  <si>
-    <t>4390935361</t>
-  </si>
-  <si>
-    <t>olhapozyvailo</t>
-  </si>
-  <si>
-    <t>𝙾𝚕𝚑𝚊 𝙿𝚘𝚣𝚢𝚟𝚊𝚒𝚕𝚘</t>
-  </si>
-  <si>
-    <t>8683014817</t>
-  </si>
-  <si>
-    <t>myroslav_bakuta</t>
-  </si>
-  <si>
-    <t>Мирослав Бакута</t>
-  </si>
-  <si>
-    <t>3261126243</t>
-  </si>
-  <si>
-    <t>verunja108</t>
-  </si>
-  <si>
-    <t>6139757237</t>
-  </si>
-  <si>
-    <t>vova_mixx</t>
-  </si>
-  <si>
-    <t>Вова Сериков</t>
-  </si>
-  <si>
-    <t>3083007165</t>
-  </si>
-  <si>
-    <t>bezmen.live</t>
-  </si>
-  <si>
-    <t>Иван Безменов</t>
-  </si>
-  <si>
-    <t>5360516989</t>
-  </si>
-  <si>
-    <t>yevgeniya_pishchevskaya</t>
-  </si>
-  <si>
-    <t>Евгения Пищевская</t>
-  </si>
-  <si>
-    <t>8018318830</t>
-  </si>
-  <si>
-    <t>iliyamisevra</t>
-  </si>
-  <si>
-    <t>Илья Мисевра</t>
-  </si>
-  <si>
-    <t>1969480744</t>
-  </si>
-  <si>
-    <t>jenina_jenya</t>
-  </si>
-  <si>
-    <t>СТУДИЯ JJ</t>
-  </si>
-  <si>
-    <t>4058002273</t>
-  </si>
-  <si>
-    <t>b.m.joe</t>
-  </si>
-  <si>
-    <t>Марисюк Остап</t>
-  </si>
-  <si>
-    <t>5685672290</t>
-  </si>
-  <si>
-    <t>maksim_shiyan</t>
-  </si>
-  <si>
-    <t>Максим Шиян</t>
-  </si>
-  <si>
-    <t>6972153229</t>
-  </si>
-  <si>
-    <t>danileichenko.dmitriy</t>
-  </si>
-  <si>
-    <t>Дмитрий Данилейченко</t>
-  </si>
-  <si>
-    <t>272786242</t>
-  </si>
-  <si>
-    <t>cirius_kh</t>
-  </si>
-  <si>
-    <t>Tolya</t>
-  </si>
-  <si>
-    <t>5776101665</t>
-  </si>
-  <si>
-    <t>ana.stazzi</t>
-  </si>
-  <si>
-    <t>Anastasia 🐾</t>
-  </si>
-  <si>
-    <t>2282315409</t>
-  </si>
-  <si>
-    <t>novik.sergey</t>
-  </si>
-  <si>
-    <t>1675609130</t>
-  </si>
-  <si>
-    <t>anastasia_vikhot</t>
-  </si>
-  <si>
-    <t>5649619609</t>
-  </si>
-  <si>
-    <t>tengoku_</t>
-  </si>
-  <si>
-    <t>Vlada</t>
-  </si>
-  <si>
-    <t>4872254528</t>
-  </si>
-  <si>
-    <t>tanya_tanyushka_podarki</t>
-  </si>
-  <si>
-    <t>Татьяна Павлова</t>
-  </si>
-  <si>
-    <t>718852048</t>
-  </si>
-  <si>
-    <t>pupsarin</t>
-  </si>
-  <si>
-    <t>1289460729</t>
-  </si>
-  <si>
-    <t>miss_kvitka</t>
-  </si>
-  <si>
-    <t>Yulia</t>
-  </si>
-  <si>
-    <t>6535902432</t>
-  </si>
-  <si>
-    <t>oksanakriokhova</t>
-  </si>
-  <si>
-    <t>Оксана Крёхова</t>
-  </si>
-  <si>
-    <t>8630127905</t>
-  </si>
-  <si>
-    <t>iullia_iullia5019</t>
-  </si>
-  <si>
-    <t>Юляшка (АЛЕКС)</t>
-  </si>
-  <si>
-    <t>7877598311</t>
-  </si>
-  <si>
-    <t>bugaiovmikhailo</t>
-  </si>
-  <si>
-    <t>Михайло Бугайов</t>
-  </si>
-  <si>
-    <t>14016672808</t>
-  </si>
-  <si>
-    <t>batin_sbln</t>
-  </si>
-  <si>
-    <t>Станислав Ваганов</t>
-  </si>
-  <si>
-    <t>1554928320</t>
-  </si>
-  <si>
-    <t>topspinkharkov</t>
-  </si>
-  <si>
-    <t>НАСТОЛЬНЫЙ ТЕННИС ХАРЬКОВ</t>
-  </si>
-  <si>
-    <t>7239973909</t>
-  </si>
-  <si>
-    <t>retchygod</t>
-  </si>
-  <si>
-    <t>Ruslan Vadimovich</t>
-  </si>
-  <si>
-    <t>216793250</t>
-  </si>
-  <si>
-    <t>kirillvasilenko</t>
-  </si>
-  <si>
-    <t>Kyryl Vasylenko</t>
-  </si>
-  <si>
-    <t>603510930</t>
-  </si>
-  <si>
-    <t>caxap1987</t>
-  </si>
-  <si>
-    <t>Александр Неживой</t>
-  </si>
-  <si>
-    <t>9375328733</t>
-  </si>
-  <si>
-    <t>topspinshop.com.ua</t>
-  </si>
-  <si>
-    <t>ТОВАРЫ ДЛЯ НАСТОЛЬНОГО ТЕННИСА</t>
-  </si>
-  <si>
-    <t>9295779044</t>
-  </si>
-  <si>
-    <t>samogon19901</t>
-  </si>
-  <si>
-    <t>Олег Даценко</t>
+    <t>4218359229</t>
+  </si>
+  <si>
+    <t>tv_amoral</t>
+  </si>
+  <si>
+    <t>АМОРАЛЬНЫЕ ВИДЕО 👽</t>
+  </si>
+  <si>
+    <t>324409988</t>
+  </si>
+  <si>
+    <t>shevtsov__denis</t>
+  </si>
+  <si>
+    <t>Видеограф | Видеосъемка</t>
+  </si>
+  <si>
+    <t>8702332531</t>
+  </si>
+  <si>
+    <t>fantastikys</t>
+  </si>
+  <si>
+    <t>Лучшая современная фантастика</t>
+  </si>
+  <si>
+    <t>16006044177</t>
+  </si>
+  <si>
+    <t>psy.loves</t>
+  </si>
+  <si>
+    <t>Психология.</t>
+  </si>
+  <si>
+    <t>3615617050</t>
+  </si>
+  <si>
+    <t>pikavidos</t>
+  </si>
+  <si>
+    <t>Видео | Юмор 😂</t>
+  </si>
+  <si>
+    <t>1553049699</t>
+  </si>
+  <si>
+    <t>videorashka</t>
+  </si>
+  <si>
+    <t>Лучшие видео 😉</t>
+  </si>
+  <si>
+    <t>8259933491</t>
+  </si>
+  <si>
+    <t>vitalii.ask</t>
+  </si>
+  <si>
+    <t>Vitalii</t>
+  </si>
+  <si>
+    <t>3245133212</t>
+  </si>
+  <si>
+    <t>fails_vidos</t>
+  </si>
+  <si>
+    <t>Видео Юмор</t>
+  </si>
+  <si>
+    <t>1427592412</t>
+  </si>
+  <si>
+    <t>music__off</t>
+  </si>
+  <si>
+    <t>Музыка | Юмор</t>
+  </si>
+  <si>
+    <t>6857856729</t>
+  </si>
+  <si>
+    <t>sukhofrukty_kh</t>
+  </si>
+  <si>
+    <t>Сухофрукты,орехи по Украине</t>
+  </si>
+  <si>
+    <t>42613699744</t>
+  </si>
+  <si>
+    <t>mindset4freedom</t>
+  </si>
+  <si>
+    <t>Stergios | Sales Guide</t>
+  </si>
+  <si>
+    <t>1070096815</t>
+  </si>
+  <si>
+    <t>jetbrains</t>
+  </si>
+  <si>
+    <t>JetBrains</t>
+  </si>
+  <si>
+    <t>3612823573</t>
+  </si>
+  <si>
+    <t>sabelgera</t>
+  </si>
+  <si>
+    <t>Руслан Сабельгера</t>
+  </si>
+  <si>
+    <t>21816368222</t>
+  </si>
+  <si>
+    <t>karnaval.tv</t>
+  </si>
+  <si>
+    <t>ЗАГЛЯНИ В ТЕЛЕГУ😏🔞‼</t>
+  </si>
+  <si>
+    <t>2105838025</t>
+  </si>
+  <si>
+    <t>nostalgy_vines</t>
+  </si>
+  <si>
+    <t>Ностальгия</t>
+  </si>
+  <si>
+    <t>1506640563</t>
+  </si>
+  <si>
+    <t>jizn_bol_video</t>
+  </si>
+  <si>
+    <t>Экстремально! Весело! Красиво!</t>
+  </si>
+  <si>
+    <t>52047920</t>
+  </si>
+  <si>
+    <t>tabletennisdaily</t>
+  </si>
+  <si>
+    <t>TableTennisDaily 🏓</t>
+  </si>
+  <si>
+    <t>13461163012</t>
+  </si>
+  <si>
+    <t>home_taverna</t>
+  </si>
+  <si>
+    <t>Доставка еды Харьков</t>
+  </si>
+  <si>
+    <t>2321849468</t>
+  </si>
+  <si>
+    <t>valerie__travel</t>
+  </si>
+  <si>
+    <t>Турагентство Харьков🌏</t>
+  </si>
+  <si>
+    <t>248142126</t>
+  </si>
+  <si>
+    <t>stigatabletennis</t>
+  </si>
+  <si>
+    <t>STIGA Table Tennis</t>
+  </si>
+  <si>
+    <t>9848203195</t>
+  </si>
+  <si>
+    <t>ramennaya</t>
+  </si>
+  <si>
+    <t>ПЕРША РАМЕННА У ХАРКОВІ</t>
+  </si>
+  <si>
+    <t>6656374239</t>
+  </si>
+  <si>
+    <t>mozgoday</t>
+  </si>
+  <si>
+    <t>39332267526</t>
+  </si>
+  <si>
+    <t>lin__yun_ju_</t>
+  </si>
+  <si>
+    <t>林昀儒</t>
+  </si>
+  <si>
+    <t>46426697374</t>
+  </si>
+  <si>
+    <t>ogoooooncat</t>
+  </si>
+  <si>
+    <t>Abyssinian / Абиссинский cat</t>
+  </si>
+  <si>
+    <t>4531718038</t>
+  </si>
+  <si>
+    <t>movienight_kh</t>
+  </si>
+  <si>
+    <t>MOVIENIGHT🌙 ХАРЬКОВ</t>
+  </si>
+  <si>
+    <t>1454352374</t>
+  </si>
+  <si>
+    <t>videoslon</t>
+  </si>
+  <si>
+    <t>ВИДЕОСЛОН</t>
+  </si>
+  <si>
+    <t>9198354873</t>
+  </si>
+  <si>
+    <t>tt.anastasiia</t>
+  </si>
+  <si>
+    <t>НАСТОЛЬНЫЙ ТЕННИС🏓 | ТРЕНЕР</t>
+  </si>
+  <si>
+    <t>5756884828</t>
+  </si>
+  <si>
+    <t>butterflyttofficial</t>
+  </si>
+  <si>
+    <t>Butterfly Table Tennis</t>
+  </si>
+  <si>
+    <t>4351895021</t>
+  </si>
+  <si>
+    <t>wantedloneliness</t>
+  </si>
+  <si>
+    <t>ひらめき</t>
+  </si>
+  <si>
+    <t>14290837607</t>
+  </si>
+  <si>
+    <t>hyperussia.tv</t>
+  </si>
+  <si>
+    <t>Видео | Юмор | Фэйлы</t>
+  </si>
+  <si>
+    <t>8714350266</t>
+  </si>
+  <si>
+    <t>shoniworld</t>
+  </si>
+  <si>
+    <t>Шони</t>
+  </si>
+  <si>
+    <t>5460808318</t>
+  </si>
+  <si>
+    <t>vladimirpolnikovtube</t>
+  </si>
+  <si>
+    <t>Vladimir Polnikov</t>
+  </si>
+  <si>
+    <t>11767951021</t>
+  </si>
+  <si>
+    <t>foxminded.ua</t>
+  </si>
+  <si>
+    <t>Курсы программирования ОНЛАЙН</t>
+  </si>
+  <si>
+    <t>42339566504</t>
+  </si>
+  <si>
+    <t>nofancyshitcooking</t>
+  </si>
+  <si>
+    <t>nofancyshit</t>
+  </si>
+  <si>
+    <t>2421865254</t>
+  </si>
+  <si>
+    <t>cats_vines</t>
+  </si>
+  <si>
+    <t>Cats Vines</t>
+  </si>
+  <si>
+    <t>6009575118</t>
+  </si>
+  <si>
+    <t>mews_news</t>
+  </si>
+  <si>
+    <t>Mews News</t>
+  </si>
+  <si>
+    <t>3915625350</t>
+  </si>
+  <si>
+    <t>standupstepa</t>
+  </si>
+  <si>
+    <t>Стендапы &amp; ЧБД</t>
+  </si>
+  <si>
+    <t>1595344221</t>
+  </si>
+  <si>
+    <t>mir.strasti</t>
+  </si>
+  <si>
+    <t>Видео | Юмор</t>
+  </si>
+  <si>
+    <t>15227517688</t>
+  </si>
+  <si>
+    <t>travel_advant7</t>
+  </si>
+  <si>
+    <t>Турагенство онлайн</t>
+  </si>
+  <si>
+    <t>7172379883</t>
+  </si>
+  <si>
+    <t>orevo_tv</t>
+  </si>
+  <si>
+    <t>😆Аморальный контент</t>
+  </si>
+  <si>
+    <t>11400401285</t>
+  </si>
+  <si>
+    <t>ataman.shop.men</t>
+  </si>
+  <si>
+    <t>КРОССОВКИ УКРАИНА</t>
+  </si>
+  <si>
+    <t>2182209389</t>
+  </si>
+  <si>
+    <t>shutnik_russia</t>
+  </si>
+  <si>
+    <t>Лучшие Видео</t>
+  </si>
+  <si>
+    <t>4482375232</t>
+  </si>
+  <si>
+    <t>tihii_chas</t>
+  </si>
+  <si>
+    <t>БАЛДЁЖНИК</t>
+  </si>
+  <si>
+    <t>3564283161</t>
+  </si>
+  <si>
+    <t>arlen.boss</t>
+  </si>
+  <si>
+    <t>ARLEN BOSS😎</t>
+  </si>
+  <si>
+    <t>1829389871</t>
+  </si>
+  <si>
+    <t>roomcomedy</t>
+  </si>
+  <si>
+    <t>Комната смеха😂 | Подпишись🔞</t>
+  </si>
+  <si>
+    <t>2982158557</t>
+  </si>
+  <si>
+    <t>neo.rock</t>
+  </si>
+  <si>
+    <t>Рок 😈</t>
+  </si>
+  <si>
+    <t>44544565475</t>
+  </si>
+  <si>
+    <t>motivatortvoy</t>
+  </si>
+  <si>
+    <t>МОТИВАЦИЯ | ВДОХНОВЕНИЕ</t>
+  </si>
+  <si>
+    <t>12184975594</t>
+  </si>
+  <si>
+    <t>black.sci</t>
+  </si>
+  <si>
+    <t>Black Science</t>
+  </si>
+  <si>
+    <t>9262569068</t>
+  </si>
+  <si>
+    <t>homsters_</t>
+  </si>
+  <si>
+    <t>Homsters</t>
+  </si>
+  <si>
+    <t>50787298</t>
+  </si>
+  <si>
+    <t>anton_lapenko</t>
+  </si>
+  <si>
+    <t>Anton Lapenko</t>
   </si>
   <si>
     <t>4739087564</t>
@@ -986,562 +2672,85 @@
     <t>Товарищ Гусь. (18+)</t>
   </si>
   <si>
-    <t>2514549667</t>
-  </si>
-  <si>
-    <t>irina0044</t>
-  </si>
-  <si>
-    <t>🌎 Irina Korba  #Kharkiv 🌎</t>
-  </si>
-  <si>
-    <t>2987001354</t>
-  </si>
-  <si>
-    <t>vovo444ka86</t>
-  </si>
-  <si>
-    <t>Владимир</t>
-  </si>
-  <si>
-    <t>17617023602</t>
-  </si>
-  <si>
-    <t>viacheslavrudenko34</t>
-  </si>
-  <si>
-    <t>Вячеслав Руденко</t>
-  </si>
-  <si>
-    <t>19469763805</t>
-  </si>
-  <si>
-    <t>keisiedouble</t>
-  </si>
-  <si>
-    <t>KeiSie Double</t>
-  </si>
-  <si>
-    <t>5800991337</t>
-  </si>
-  <si>
-    <t>anatoliy_gusev1</t>
-  </si>
-  <si>
-    <t>Анатолий Гусев</t>
-  </si>
-  <si>
-    <t>37574006666</t>
-  </si>
-  <si>
-    <t>slava_dyachenko10</t>
-  </si>
-  <si>
-    <t>2052730441</t>
-  </si>
-  <si>
-    <t>kyb85</t>
-  </si>
-  <si>
-    <t>Алексей</t>
-  </si>
-  <si>
-    <t>1702878082</t>
-  </si>
-  <si>
-    <t>video.kek</t>
-  </si>
-  <si>
-    <t>Юмор | Видео 😉</t>
-  </si>
-  <si>
-    <t>4656429905</t>
-  </si>
-  <si>
-    <t>igor_garry_verb</t>
-  </si>
-  <si>
-    <t>Igor Garry  V.</t>
-  </si>
-  <si>
-    <t>8665544898</t>
-  </si>
-  <si>
-    <t>ser18ab1</t>
-  </si>
-  <si>
-    <t>Table Tennis</t>
-  </si>
-  <si>
-    <t>1760538822</t>
-  </si>
-  <si>
-    <t>artem_pavlov_ua</t>
-  </si>
-  <si>
-    <t>Артём Павлов</t>
-  </si>
-  <si>
-    <t>46035603330</t>
-  </si>
-  <si>
-    <t>ttkrest</t>
-  </si>
-  <si>
-    <t>Товары для настольного тенниса</t>
-  </si>
-  <si>
-    <t>420614558</t>
-  </si>
-  <si>
-    <t>ksyu_anomaly</t>
-  </si>
-  <si>
-    <t>Ksyu Torina</t>
-  </si>
-  <si>
-    <t>1583496075</t>
-  </si>
-  <si>
-    <t>hengamemansouri</t>
-  </si>
-  <si>
-    <t>Hengame Mansouri</t>
-  </si>
-  <si>
-    <t>5608895880</t>
-  </si>
-  <si>
-    <t>mkjoy42</t>
-  </si>
-  <si>
-    <t>Марина Вакуленко</t>
-  </si>
-  <si>
-    <t>14019691361</t>
-  </si>
-  <si>
-    <t>sharaman7777</t>
-  </si>
-  <si>
-    <t>Sharaman</t>
-  </si>
-  <si>
-    <t>39486630028</t>
-  </si>
-  <si>
-    <t>igorlenaverba</t>
-  </si>
-  <si>
-    <t>igorlena</t>
-  </si>
-  <si>
-    <t>45649772571</t>
-  </si>
-  <si>
-    <t>nikita.startup</t>
-  </si>
-  <si>
-    <t>Никита Стартап</t>
-  </si>
-  <si>
-    <t>37347412681</t>
-  </si>
-  <si>
-    <t>balint_borsodi_eu_2032</t>
-  </si>
-  <si>
-    <t>Bælint Børsodi</t>
-  </si>
-  <si>
-    <t>16127390313</t>
-  </si>
-  <si>
-    <t>li_liia8499</t>
-  </si>
-  <si>
-    <t>Лилия</t>
-  </si>
-  <si>
-    <t>21967846913</t>
-  </si>
-  <si>
-    <t>malashenko608</t>
-  </si>
-  <si>
-    <t>Дмитрий Малашенко</t>
-  </si>
-  <si>
-    <t>43157567373</t>
-  </si>
-  <si>
-    <t>aleksandrsigin</t>
-  </si>
-  <si>
-    <t>Александр Сигин</t>
-  </si>
-  <si>
-    <t>9381435639</t>
-  </si>
-  <si>
-    <t>pashenko_lisihansk</t>
-  </si>
-  <si>
-    <t>Андрюха Пащенко</t>
-  </si>
-  <si>
-    <t>4813340383</t>
-  </si>
-  <si>
-    <t>malashenko.80</t>
-  </si>
-  <si>
-    <t>Малашенко</t>
-  </si>
-  <si>
-    <t>4974294280</t>
-  </si>
-  <si>
-    <t>_de.margitta_97_</t>
-  </si>
-  <si>
-    <t>Margitta</t>
-  </si>
-  <si>
-    <t>44006848755</t>
-  </si>
-  <si>
-    <t>taxi.lisichansk</t>
-  </si>
-  <si>
-    <t>Сергей</t>
-  </si>
-  <si>
-    <t>7772209292</t>
-  </si>
-  <si>
-    <t>boiko317</t>
-  </si>
-  <si>
-    <t>Виктор Бойко</t>
-  </si>
-  <si>
-    <t>7501003464</t>
-  </si>
-  <si>
-    <t>vladsirozhko</t>
-  </si>
-  <si>
-    <t>Влад Сирожко</t>
-  </si>
-  <si>
-    <t>6919696194</t>
-  </si>
-  <si>
-    <t>nikolai.pokatilov</t>
-  </si>
-  <si>
-    <t>Николай</t>
-  </si>
-  <si>
-    <t>4623069415</t>
-  </si>
-  <si>
-    <t>meridian_tennis</t>
-  </si>
-  <si>
-    <t>Настольный теннис Харьков</t>
-  </si>
-  <si>
-    <t>9480853479</t>
-  </si>
-  <si>
-    <t>tenisdnepr</t>
-  </si>
-  <si>
-    <t>Настольный Теннис Днепр</t>
-  </si>
-  <si>
-    <t>27928412773</t>
-  </si>
-  <si>
-    <t>alphaburgerua</t>
-  </si>
-  <si>
-    <t>Alpha Burger</t>
-  </si>
-  <si>
-    <t>6503651182</t>
-  </si>
-  <si>
-    <t>sia_kardum</t>
-  </si>
-  <si>
-    <t>26666034377</t>
-  </si>
-  <si>
-    <t>yatsenko_1041_</t>
-  </si>
-  <si>
-    <t>422554428</t>
-  </si>
-  <si>
-    <t>anastasiabugrim</t>
-  </si>
-  <si>
-    <t>1535665604</t>
-  </si>
-  <si>
-    <t>haruspex1897</t>
-  </si>
-  <si>
-    <t>Valdemar Vynnyk</t>
-  </si>
-  <si>
-    <t>54524405</t>
-  </si>
-  <si>
-    <t>olgaodynezz</t>
-  </si>
-  <si>
-    <t>Olga</t>
-  </si>
-  <si>
-    <t>10685035713</t>
-  </si>
-  <si>
-    <t>vadimmisevra</t>
-  </si>
-  <si>
-    <t>Вадим Мисевра</t>
-  </si>
-  <si>
-    <t>2032233620</t>
-  </si>
-  <si>
-    <t>pyatkovaan</t>
-  </si>
-  <si>
-    <t>Natalia</t>
-  </si>
-  <si>
-    <t>4490756624</t>
-  </si>
-  <si>
-    <t>alyona_yarmak</t>
-  </si>
-  <si>
-    <t>Алёна</t>
-  </si>
-  <si>
-    <t>3724731092</t>
-  </si>
-  <si>
-    <t>oleg.pavliuk_</t>
-  </si>
-  <si>
-    <t>Oleg Pavliuk</t>
-  </si>
-  <si>
-    <t>2955845920</t>
-  </si>
-  <si>
-    <t>roman_mironets</t>
-  </si>
-  <si>
-    <t>Роман Миронец</t>
-  </si>
-  <si>
-    <t>1548626158</t>
-  </si>
-  <si>
-    <t>mak.alina</t>
-  </si>
-  <si>
-    <t>Alina Mak</t>
-  </si>
-  <si>
-    <t>5518314093</t>
-  </si>
-  <si>
-    <t>lubyanitskii</t>
-  </si>
-  <si>
-    <t>Андрей Лубяницкий</t>
-  </si>
-  <si>
-    <t>4286104321</t>
-  </si>
-  <si>
-    <t>anatoliilegkii</t>
-  </si>
-  <si>
-    <t>Анатолий Легкий</t>
-  </si>
-  <si>
-    <t>8628968557</t>
-  </si>
-  <si>
-    <t>cybulin2018</t>
-  </si>
-  <si>
-    <t>Сергей Цыбулин</t>
-  </si>
-  <si>
-    <t>5823545291</t>
-  </si>
-  <si>
-    <t>artemkosyakevich</t>
-  </si>
-  <si>
-    <t>Artem  Kosyakevich</t>
-  </si>
-  <si>
-    <t>1812324489</t>
-  </si>
-  <si>
-    <t>koto__mania</t>
-  </si>
-  <si>
-    <t>КОТОМАНИЯ</t>
-  </si>
-  <si>
-    <t>2037497781</t>
-  </si>
-  <si>
-    <t>mad_video</t>
-  </si>
-  <si>
-    <t>МэдВидео</t>
-  </si>
-  <si>
-    <t>6889430046</t>
-  </si>
-  <si>
-    <t>blackmakerxx</t>
-  </si>
-  <si>
-    <t>The world is yours</t>
-  </si>
-  <si>
-    <t>1494802073</t>
-  </si>
-  <si>
-    <t>multachgram</t>
-  </si>
-  <si>
-    <t>Мультач - Видео Юмор Мемы</t>
-  </si>
-  <si>
-    <t>658567576</t>
-  </si>
-  <si>
-    <t>sense_me_dance</t>
-  </si>
-  <si>
-    <t>8226956098</t>
-  </si>
-  <si>
-    <t>h_saltovka</t>
-  </si>
-  <si>
-    <t>ХС | Харьков</t>
-  </si>
-  <si>
-    <t>1452414526</t>
-  </si>
-  <si>
-    <t>iamjayceivanah</t>
-  </si>
-  <si>
-    <t>JAYCE IVANAH CAGE</t>
-  </si>
-  <si>
-    <t>1498883561</t>
-  </si>
-  <si>
-    <t>epicua</t>
-  </si>
-  <si>
-    <t>2320067276</t>
-  </si>
-  <si>
-    <t>video_deti</t>
-  </si>
-  <si>
-    <t>ВИДЕО ДЕТИ 👼 ПОДПИШИСЬ</t>
-  </si>
-  <si>
-    <t>10106677553</t>
-  </si>
-  <si>
-    <t>advocatprava</t>
-  </si>
-  <si>
-    <t>Tg-канал "Адвокат Права" ⚖️</t>
-  </si>
-  <si>
-    <t>2241082037</t>
-  </si>
-  <si>
-    <t>katiushka_kot</t>
-  </si>
-  <si>
-    <t>Катюшка</t>
-  </si>
-  <si>
-    <t>1282733316</t>
-  </si>
-  <si>
-    <t>straightouttalens</t>
-  </si>
-  <si>
-    <t>©©©</t>
-  </si>
-  <si>
-    <t>289615210</t>
-  </si>
-  <si>
-    <t>sekavines</t>
-  </si>
-  <si>
-    <t>Токтарбек Сергазы</t>
-  </si>
-  <si>
-    <t>3564283161</t>
-  </si>
-  <si>
-    <t>arlen.boss</t>
-  </si>
-  <si>
-    <t>ARLEN BOSS😎</t>
-  </si>
-  <si>
-    <t>4963387845</t>
-  </si>
-  <si>
-    <t>marya_leontyeva</t>
-  </si>
-  <si>
-    <t>Коучинг/ женский мастер-клуб</t>
-  </si>
-  <si>
-    <t>4190933959</t>
-  </si>
-  <si>
-    <t>redress.journal</t>
-  </si>
-  <si>
-    <t>#REDRESS JOURNAL</t>
-  </si>
-  <si>
-    <t>8170996928</t>
-  </si>
-  <si>
-    <t>vidoson</t>
-  </si>
-  <si>
-    <t>vidos on🔞</t>
+    <t>12857421710</t>
+  </si>
+  <si>
+    <t>neural_tp</t>
+  </si>
+  <si>
+    <t>Илона Нейро</t>
+  </si>
+  <si>
+    <t>10396754514</t>
+  </si>
+  <si>
+    <t>objavka.com_official</t>
+  </si>
+  <si>
+    <t>𝕠𝕓𝕛𝕒𝕧𝕜𝕒.𝕔𝕠𝕞</t>
+  </si>
+  <si>
+    <t>21842422587</t>
+  </si>
+  <si>
+    <t>boris_vaporsynth</t>
+  </si>
+  <si>
+    <t>Boris©</t>
+  </si>
+  <si>
+    <t>6166113347</t>
+  </si>
+  <si>
+    <t>timoboll</t>
+  </si>
+  <si>
+    <t>Timo Boll</t>
+  </si>
+  <si>
+    <t>387403619</t>
+  </si>
+  <si>
+    <t>wonka42</t>
+  </si>
+  <si>
+    <t>Gamedev, 3D, SMM, Travel</t>
+  </si>
+  <si>
+    <t>454116557</t>
+  </si>
+  <si>
+    <t>crystalcastles</t>
+  </si>
+  <si>
+    <t>Crystal Castles</t>
+  </si>
+  <si>
+    <t>15854448013</t>
+  </si>
+  <si>
+    <t>sunrisehotel_official</t>
+  </si>
+  <si>
+    <t>Sunrise Hotel</t>
+  </si>
+  <si>
+    <t>7301114783</t>
+  </si>
+  <si>
+    <t>doctor_radion</t>
+  </si>
+  <si>
+    <t>Вертебролог.Невролог.Остеопат</t>
+  </si>
+  <si>
+    <t>18058295205</t>
+  </si>
+  <si>
+    <t>freedomclub_info</t>
+  </si>
+  <si>
+    <t>Авторские Туры| Канары| Бали|</t>
   </si>
   <si>
     <t>2121454021</t>
@@ -1553,246 +2762,6 @@
     <t>Video • Видео • Для Мужчин 😎👊</t>
   </si>
   <si>
-    <t>31691424063</t>
-  </si>
-  <si>
-    <t>fantastic_tushina</t>
-  </si>
-  <si>
-    <t>Наталья Тушина</t>
-  </si>
-  <si>
-    <t>2460313075</t>
-  </si>
-  <si>
-    <t>krutoff_style</t>
-  </si>
-  <si>
-    <t>Александр Крутянский</t>
-  </si>
-  <si>
-    <t>1390356803</t>
-  </si>
-  <si>
-    <t>dimaovtcharov</t>
-  </si>
-  <si>
-    <t>Dima Ovtcharov 🏓</t>
-  </si>
-  <si>
-    <t>8995965862</t>
-  </si>
-  <si>
-    <t>ar_b0n</t>
-  </si>
-  <si>
-    <t>Артём Бондаренко</t>
-  </si>
-  <si>
-    <t>6318102721</t>
-  </si>
-  <si>
-    <t>trash.hot</t>
-  </si>
-  <si>
-    <t>👇ПРОДОЛЖЕНИЕ У НАС👇</t>
-  </si>
-  <si>
-    <t>16006044177</t>
-  </si>
-  <si>
-    <t>psy.loves</t>
-  </si>
-  <si>
-    <t>Психология.</t>
-  </si>
-  <si>
-    <t>46736303</t>
-  </si>
-  <si>
-    <t>viksi666</t>
-  </si>
-  <si>
-    <t>Виктория Рахматулина</t>
-  </si>
-  <si>
-    <t>2160937696</t>
-  </si>
-  <si>
-    <t>video_russia</t>
-  </si>
-  <si>
-    <t>VIDEO_RUSSIA🐻</t>
-  </si>
-  <si>
-    <t>50787298</t>
-  </si>
-  <si>
-    <t>anton_lapenko</t>
-  </si>
-  <si>
-    <t>Anton Lapenko</t>
-  </si>
-  <si>
-    <t>308126696</t>
-  </si>
-  <si>
-    <t>lenakatina</t>
-  </si>
-  <si>
-    <t>Lena Katina</t>
-  </si>
-  <si>
-    <t>5754064100</t>
-  </si>
-  <si>
-    <t>blackpiratexx</t>
-  </si>
-  <si>
-    <t>Неформатный канал (+18)🏴‍☠️</t>
-  </si>
-  <si>
-    <t>216391754</t>
-  </si>
-  <si>
-    <t>max._.makarenko</t>
-  </si>
-  <si>
-    <t>Max Makarenko</t>
-  </si>
-  <si>
-    <t>2979849929</t>
-  </si>
-  <si>
-    <t>supreme.english</t>
-  </si>
-  <si>
-    <t>ИНГЛИШ ПО ПЕСНЯМ С КОСТЕЙ</t>
-  </si>
-  <si>
-    <t>7295786599</t>
-  </si>
-  <si>
-    <t>everrest_touring</t>
-  </si>
-  <si>
-    <t>ТУРАГЕНТСТВО ХАРЬКОВ</t>
-  </si>
-  <si>
-    <t>1323501355</t>
-  </si>
-  <si>
-    <t>rg_kristina</t>
-  </si>
-  <si>
-    <t>ОСНОВАТЕЛЬ SHPAGAT.TEAM</t>
-  </si>
-  <si>
-    <t>48043873394</t>
-  </si>
-  <si>
-    <t>n.3d.design</t>
-  </si>
-  <si>
-    <t>N.design.3D</t>
-  </si>
-  <si>
-    <t>215063898</t>
-  </si>
-  <si>
-    <t>zusjeofficial</t>
-  </si>
-  <si>
-    <t>3230850889</t>
-  </si>
-  <si>
-    <t>bez.kota</t>
-  </si>
-  <si>
-    <t>Без Кота И Жизнь Не Та</t>
-  </si>
-  <si>
-    <t>201467759</t>
-  </si>
-  <si>
-    <t>_brunatakahashi</t>
-  </si>
-  <si>
-    <t>Bruna takahashi</t>
-  </si>
-  <si>
-    <t>7998500583</t>
-  </si>
-  <si>
-    <t>webmxx</t>
-  </si>
-  <si>
-    <t>ВЕБМ | ВИДЕО КАТЕГОРИИ XX</t>
-  </si>
-  <si>
-    <t>46084843138</t>
-  </si>
-  <si>
-    <t>sigfox_ukraine</t>
-  </si>
-  <si>
-    <t>Sigfox Ukraine</t>
-  </si>
-  <si>
-    <t>45413292705</t>
-  </si>
-  <si>
-    <t>sunmart_travel</t>
-  </si>
-  <si>
-    <t>Турагенство "Sunmart travel"</t>
-  </si>
-  <si>
-    <t>1352288822</t>
-  </si>
-  <si>
-    <t>ptencoff</t>
-  </si>
-  <si>
-    <t>Лучшие Видео🐥</t>
-  </si>
-  <si>
-    <t>7780840080</t>
-  </si>
-  <si>
-    <t>picture.humor</t>
-  </si>
-  <si>
-    <t>ПРОДОЛЖЕНИЕ 👇🏻🤯</t>
-  </si>
-  <si>
-    <t>7941480640</t>
-  </si>
-  <si>
-    <t>alexandr.hard</t>
-  </si>
-  <si>
-    <t>Харжевский Александр</t>
-  </si>
-  <si>
-    <t>6344984705</t>
-  </si>
-  <si>
-    <t>kharkov_24_7</t>
-  </si>
-  <si>
-    <t>Харьков 24/7</t>
-  </si>
-  <si>
-    <t>174970748</t>
-  </si>
-  <si>
-    <t>_.benditkis._</t>
-  </si>
-  <si>
-    <t>Igor Benditkis</t>
-  </si>
-  <si>
     <t>6705285595</t>
   </si>
   <si>
@@ -1802,78 +2771,6 @@
     <t>Тот самый Видософ🔥</t>
   </si>
   <si>
-    <t>283664353</t>
-  </si>
-  <si>
-    <t>mariiarichard</t>
-  </si>
-  <si>
-    <t>🥢🎎Мария Ричард Japan🇯🇵🍣</t>
-  </si>
-  <si>
-    <t>248142126</t>
-  </si>
-  <si>
-    <t>stigatabletennis</t>
-  </si>
-  <si>
-    <t>STIGA Table Tennis</t>
-  </si>
-  <si>
-    <t>4772787868</t>
-  </si>
-  <si>
-    <t>7_seas_tour</t>
-  </si>
-  <si>
-    <t>Турагентство "7 МОРЕЙ тур"</t>
-  </si>
-  <si>
-    <t>4123471608</t>
-  </si>
-  <si>
-    <t>gangster_tm</t>
-  </si>
-  <si>
-    <t>🔪G A N G S T E R ™️ 🎩</t>
-  </si>
-  <si>
-    <t>938822840</t>
-  </si>
-  <si>
-    <t>paranoia.tat</t>
-  </si>
-  <si>
-    <t>ᴏʟʏᴀ ᴘᴀʀᴀsᴏᴄʜᴋᴀ</t>
-  </si>
-  <si>
-    <t>410092223</t>
-  </si>
-  <si>
-    <t>official_juliavolkova</t>
-  </si>
-  <si>
-    <t>Julia Volkova | Юля Волкова</t>
-  </si>
-  <si>
-    <t>43681973646</t>
-  </si>
-  <si>
-    <t>andruha2552</t>
-  </si>
-  <si>
-    <t>Андрей Удоденко</t>
-  </si>
-  <si>
-    <t>3428979023</t>
-  </si>
-  <si>
-    <t>red.forest.leather</t>
-  </si>
-  <si>
-    <t>RED FOREST</t>
-  </si>
-  <si>
     <t>3260997269</t>
   </si>
   <si>
@@ -1883,667 +2780,40 @@
     <t>Видео I ПОДПИШИСЬ,ЕСЛИ БРО ❤️</t>
   </si>
   <si>
-    <t>188841268</t>
-  </si>
-  <si>
-    <t>zeotron_art</t>
-  </si>
-  <si>
-    <t>Roma🌿</t>
-  </si>
-  <si>
-    <t>2328336758</t>
-  </si>
-  <si>
-    <t>apasnayaryka</t>
-  </si>
-  <si>
-    <t>Апасный</t>
-  </si>
-  <si>
-    <t>8797160179</t>
-  </si>
-  <si>
-    <t>richest_tm</t>
-  </si>
-  <si>
-    <t>RICHEST | Бизнес и Мотивация</t>
-  </si>
-  <si>
-    <t>4254967</t>
-  </si>
-  <si>
-    <t>beeple_crap</t>
-  </si>
-  <si>
-    <t>beeple</t>
-  </si>
-  <si>
-    <t>6937642557</t>
-  </si>
-  <si>
-    <t>zvachkin</t>
-  </si>
-  <si>
-    <t>🔥Продолжение уже в ленте👇</t>
-  </si>
-  <si>
-    <t>39690991651</t>
-  </si>
-  <si>
-    <t>konxuwer</t>
-  </si>
-  <si>
-    <t>𝙄𝙜𝙤𝙧' 𝙃𝙤𝙙𝙮𝙪𝙠</t>
-  </si>
-  <si>
-    <t>31214092681</t>
-  </si>
-  <si>
-    <t>joolaportugal</t>
-  </si>
-  <si>
-    <t>joola portugal</t>
-  </si>
-  <si>
-    <t>2035208589</t>
-  </si>
-  <si>
-    <t>petya_english</t>
-  </si>
-  <si>
-    <t>🔞С ПЕТЕЙ ЛУЧШЕ ЧЕМ В ШКОЛЕ🔞</t>
-  </si>
-  <si>
-    <t>3432795339</t>
-  </si>
-  <si>
-    <t>trimer_shop</t>
-  </si>
-  <si>
-    <t>Машинки для стрижки / Триммеры</t>
-  </si>
-  <si>
-    <t>3509164846</t>
-  </si>
-  <si>
-    <t>svarog_hard</t>
-  </si>
-  <si>
-    <t>CDR`~SVAROG~</t>
-  </si>
-  <si>
-    <t>5487997204</t>
-  </si>
-  <si>
-    <t>photographer_mariya_gorbenko</t>
-  </si>
-  <si>
-    <t>Мария Горбенко</t>
-  </si>
-  <si>
-    <t>4627256829</t>
-  </si>
-  <si>
-    <t>pavel1975tatooirovka</t>
-  </si>
-  <si>
-    <t>Леванов  Павел</t>
-  </si>
-  <si>
-    <t>11881080270</t>
-  </si>
-  <si>
-    <t>more_turov_kharkov_</t>
-  </si>
-  <si>
-    <t>🌍Туристическое агентство🌏</t>
-  </si>
-  <si>
-    <t>314372975</t>
-  </si>
-  <si>
-    <t>tiagoapolonia</t>
-  </si>
-  <si>
-    <t>Tiago Apolónia - Table Tennis</t>
-  </si>
-  <si>
-    <t>36495907092</t>
-  </si>
-  <si>
-    <t>virusnach</t>
-  </si>
-  <si>
-    <t>ЮМОР | ПРИКОЛЫ | ВИДЕО</t>
-  </si>
-  <si>
-    <t>4109924763</t>
-  </si>
-  <si>
-    <t>artem.koltunov</t>
-  </si>
-  <si>
-    <t>АРТЕМ КОЛТУНОВ | ПРОГРАММИСТ</t>
-  </si>
-  <si>
-    <t>1484054018</t>
-  </si>
-  <si>
-    <t>nemi_roman</t>
-  </si>
-  <si>
-    <t>я ʀᴏᴍᴀɴ 🙆🏼‍♂️</t>
-  </si>
-  <si>
-    <t>20897343331</t>
-  </si>
-  <si>
-    <t>shatik_tv</t>
-  </si>
-  <si>
-    <t>Шатик - Видео Юмор Мемы🔥</t>
-  </si>
-  <si>
-    <t>27931275153</t>
-  </si>
-  <si>
-    <t>yaje.mama</t>
-  </si>
-  <si>
-    <t>Я ЖЕ МАТЬ 💁‍♀️</t>
-  </si>
-  <si>
-    <t>691900162</t>
-  </si>
-  <si>
-    <t>destabilizers.io</t>
-  </si>
-  <si>
-    <t>D3STΛB1LIZED</t>
-  </si>
-  <si>
-    <t>3408971671</t>
-  </si>
-  <si>
-    <t>dance_sfinks_official</t>
-  </si>
-  <si>
-    <t>🌓 Kamil Szpejenkowski 🌗</t>
-  </si>
-  <si>
-    <t>327748958</t>
-  </si>
-  <si>
-    <t>omarassar</t>
-  </si>
-  <si>
-    <t>Omar Assar عمر عصر</t>
-  </si>
-  <si>
-    <t>8636031716</t>
-  </si>
-  <si>
-    <t>alexxeiyyyy</t>
-  </si>
-  <si>
-    <t>Лёха Серебрянский</t>
-  </si>
-  <si>
-    <t>224289567</t>
-  </si>
-  <si>
-    <t>ciklum</t>
-  </si>
-  <si>
-    <t>Ciklum</t>
-  </si>
-  <si>
-    <t>8259933491</t>
-  </si>
-  <si>
-    <t>vitalii.ask</t>
-  </si>
-  <si>
-    <t>Vitalii</t>
-  </si>
-  <si>
-    <t>17036010</t>
-  </si>
-  <si>
-    <t>mujuice</t>
-  </si>
-  <si>
-    <t>MUJUICE</t>
-  </si>
-  <si>
-    <t>2117713276</t>
-  </si>
-  <si>
-    <t>devochki_vine</t>
-  </si>
-  <si>
-    <t>Видео/Женское</t>
-  </si>
-  <si>
-    <t>324409988</t>
-  </si>
-  <si>
-    <t>shevtsov__denis</t>
-  </si>
-  <si>
-    <t>Видеограф | Видеосъемка</t>
-  </si>
-  <si>
-    <t>3612823573</t>
-  </si>
-  <si>
-    <t>sabelgera</t>
-  </si>
-  <si>
-    <t>Руслан Сабельгера</t>
-  </si>
-  <si>
-    <t>6857856729</t>
-  </si>
-  <si>
-    <t>sukhofrukty_kh</t>
-  </si>
-  <si>
-    <t>Сухофрукты,орехи по Украине</t>
-  </si>
-  <si>
-    <t>10903826375</t>
-  </si>
-  <si>
-    <t>m0xnach</t>
-  </si>
-  <si>
-    <t>Твой бро 🖤</t>
-  </si>
-  <si>
-    <t>45253615238</t>
-  </si>
-  <si>
-    <t>danileichenko_photo</t>
-  </si>
-  <si>
-    <t>Фотограф Лисичанск</t>
-  </si>
-  <si>
-    <t>2953565099</t>
-  </si>
-  <si>
-    <t>treneraa</t>
-  </si>
-  <si>
-    <t>Александр Минин</t>
-  </si>
-  <si>
-    <t>239344551</t>
-  </si>
-  <si>
-    <t>kyivstoner</t>
-  </si>
-  <si>
-    <t>#lowkeyfamous.</t>
-  </si>
-  <si>
-    <t>9848203195</t>
-  </si>
-  <si>
-    <t>ramennaya</t>
-  </si>
-  <si>
-    <t>ПЕРША РАМЕННА У ХАРКОВІ</t>
-  </si>
-  <si>
-    <t>2982158557</t>
-  </si>
-  <si>
-    <t>neo.rock</t>
-  </si>
-  <si>
-    <t>Рок 😈</t>
-  </si>
-  <si>
-    <t>45497625272</t>
-  </si>
-  <si>
-    <t>advocatprav</t>
-  </si>
-  <si>
-    <t>Адвокат</t>
-  </si>
-  <si>
-    <t>337340410</t>
-  </si>
-  <si>
-    <t>wtt</t>
-  </si>
-  <si>
-    <t>World Table Tennis</t>
-  </si>
-  <si>
-    <t>2902894748</t>
-  </si>
-  <si>
-    <t>psixos_vidos</t>
-  </si>
-  <si>
-    <t>Безумные Видео ☠️</t>
-  </si>
-  <si>
-    <t>3085152173</t>
-  </si>
-  <si>
-    <t>dream_motor</t>
-  </si>
-  <si>
-    <t>Авто из Канады и США под Заказ</t>
-  </si>
-  <si>
-    <t>8702332531</t>
-  </si>
-  <si>
-    <t>fantastikys</t>
-  </si>
-  <si>
-    <t>Лучшая современная фантастика</t>
-  </si>
-  <si>
-    <t>1535450008</t>
-  </si>
-  <si>
-    <t>pikavids</t>
-  </si>
-  <si>
-    <t>Пикавидс 🌀</t>
-  </si>
-  <si>
-    <t>3615617050</t>
-  </si>
-  <si>
-    <t>pikavidos</t>
-  </si>
-  <si>
-    <t>Видео | Юмор 😂</t>
-  </si>
-  <si>
-    <t>44544565475</t>
-  </si>
-  <si>
-    <t>motivatortvoy</t>
-  </si>
-  <si>
-    <t>МОТИВАЦИЯ | ВДОХНОВЕНИЕ</t>
-  </si>
-  <si>
-    <t>4482375232</t>
-  </si>
-  <si>
-    <t>tihii_chas</t>
-  </si>
-  <si>
-    <t>БАЛДЁЖНИК</t>
-  </si>
-  <si>
-    <t>1027945159</t>
-  </si>
-  <si>
-    <t>kierandoesthings</t>
-  </si>
-  <si>
-    <t>Kmac2021</t>
-  </si>
-  <si>
-    <t>27030660796</t>
-  </si>
-  <si>
-    <t>huevuy_ukraine</t>
-  </si>
-  <si>
-    <t>ХУкраина</t>
-  </si>
-  <si>
-    <t>4531718038</t>
-  </si>
-  <si>
-    <t>movienight_kh</t>
-  </si>
-  <si>
-    <t>MOVIENIGHT🌙 ХАРЬКОВ</t>
-  </si>
-  <si>
-    <t>4218359229</t>
-  </si>
-  <si>
-    <t>tv_amoral</t>
-  </si>
-  <si>
-    <t>АМОРАЛЬНЫЕ ВИДЕО 👽</t>
-  </si>
-  <si>
-    <t>8683534015</t>
-  </si>
-  <si>
-    <t>greenway.iko</t>
-  </si>
-  <si>
-    <t>🌍GREENWAY | ХАРЬКОВ🌍</t>
-  </si>
-  <si>
-    <t>43604926039</t>
-  </si>
-  <si>
-    <t>ttdpocketrocket</t>
-  </si>
-  <si>
-    <t>Pocket Rocket 🚀</t>
-  </si>
-  <si>
-    <t>5756884828</t>
-  </si>
-  <si>
-    <t>butterflyttofficial</t>
-  </si>
-  <si>
-    <t>Butterfly Table Tennis</t>
-  </si>
-  <si>
-    <t>42339566504</t>
-  </si>
-  <si>
-    <t>nofancyshitcooking</t>
-  </si>
-  <si>
-    <t>nofancyshit</t>
-  </si>
-  <si>
-    <t>39332267526</t>
-  </si>
-  <si>
-    <t>lin__yun_ju_</t>
-  </si>
-  <si>
-    <t>林昀儒</t>
-  </si>
-  <si>
-    <t>3245133212</t>
-  </si>
-  <si>
-    <t>fails_vidos</t>
-  </si>
-  <si>
-    <t>Видео Юмор</t>
-  </si>
-  <si>
-    <t>42613699744</t>
-  </si>
-  <si>
-    <t>mindset4freedom</t>
-  </si>
-  <si>
-    <t>Stergios | Sales Guide</t>
-  </si>
-  <si>
-    <t>1797820041</t>
-  </si>
-  <si>
-    <t>tt.cup</t>
-  </si>
-  <si>
-    <t>TT Cup</t>
-  </si>
-  <si>
-    <t>29188644182</t>
-  </si>
-  <si>
-    <t>sun_dali_travel</t>
-  </si>
-  <si>
-    <t>ТУРАГЕНТСТВО-ТУРЫ-ХАРЬКОВ🔝</t>
-  </si>
-  <si>
-    <t>6656374239</t>
-  </si>
-  <si>
-    <t>mozgoday</t>
-  </si>
-  <si>
-    <t>1427592412</t>
-  </si>
-  <si>
-    <t>music__off</t>
-  </si>
-  <si>
-    <t>Музыка | Юмор</t>
-  </si>
-  <si>
-    <t>1553049699</t>
-  </si>
-  <si>
-    <t>videorashka</t>
-  </si>
-  <si>
-    <t>Лучшие видео 😉</t>
-  </si>
-  <si>
-    <t>2105838025</t>
-  </si>
-  <si>
-    <t>nostalgy_vines</t>
-  </si>
-  <si>
-    <t>Ностальгия</t>
-  </si>
-  <si>
-    <t>10839302341</t>
-  </si>
-  <si>
-    <t>hardcorehudson</t>
-  </si>
-  <si>
-    <t>H. Hudson</t>
-  </si>
-  <si>
-    <t>4153041240</t>
-  </si>
-  <si>
-    <t>marveloff</t>
-  </si>
-  <si>
-    <t>🎬Киновселенные MARVEL И DC</t>
-  </si>
-  <si>
-    <t>21816368222</t>
-  </si>
-  <si>
-    <t>karnaval.tv</t>
-  </si>
-  <si>
-    <t>ЗАГЛЯНИ В ТЕЛЕГУ😏🔞‼</t>
-  </si>
-  <si>
-    <t>1506640563</t>
-  </si>
-  <si>
-    <t>jizn_bol_video</t>
-  </si>
-  <si>
-    <t>Экстремально! Весело! Красиво!</t>
-  </si>
-  <si>
-    <t>1454352374</t>
-  </si>
-  <si>
-    <t>videoslon</t>
-  </si>
-  <si>
-    <t>ВИДЕОСЛОН</t>
-  </si>
-  <si>
-    <t>15537004820</t>
-  </si>
-  <si>
-    <t>_double.cheese_</t>
-  </si>
-  <si>
-    <t>Доставка піци | Харків</t>
-  </si>
-  <si>
-    <t>6597457685</t>
-  </si>
-  <si>
-    <t>dolbo_tv</t>
-  </si>
-  <si>
-    <t>Видео Долб*еба</t>
-  </si>
-  <si>
-    <t>13461163012</t>
-  </si>
-  <si>
-    <t>home_taverna</t>
-  </si>
-  <si>
-    <t>Доставка еды Харьков</t>
-  </si>
-  <si>
-    <t>2321849468</t>
-  </si>
-  <si>
-    <t>valerie__travel</t>
-  </si>
-  <si>
-    <t>Турагентство Харьков🌏</t>
-  </si>
-  <si>
-    <t>4351895021</t>
-  </si>
-  <si>
-    <t>wantedloneliness</t>
-  </si>
-  <si>
-    <t>ひらめき</t>
-  </si>
-  <si>
-    <t>11767951021</t>
-  </si>
-  <si>
-    <t>foxminded.ua</t>
-  </si>
-  <si>
-    <t>Курсы программирования ОНЛАЙН</t>
-  </si>
-  <si>
-    <t>8714350266</t>
-  </si>
-  <si>
-    <t>shoniworld</t>
-  </si>
-  <si>
-    <t>Шони</t>
+    <t>7399392982</t>
+  </si>
+  <si>
+    <t>3ch_amoral</t>
+  </si>
+  <si>
+    <t>╚═════ஜ 💚3ch💚 ஜ═════╝</t>
+  </si>
+  <si>
+    <t>10826040594</t>
+  </si>
+  <si>
+    <t>pokamozg</t>
+  </si>
+  <si>
+    <t>ПОКА МОЗГ</t>
+  </si>
+  <si>
+    <t>488697530</t>
+  </si>
+  <si>
+    <t>eldarbroadway</t>
+  </si>
+  <si>
+    <t>Эльдар Бродвей</t>
+  </si>
+  <si>
+    <t>6069232545</t>
+  </si>
+  <si>
+    <t>panasenko2840</t>
+  </si>
+  <si>
+    <t>Ирина Панасенко</t>
   </si>
   <si>
     <t>39464492841</t>
@@ -2555,274 +2825,19 @@
     <t>Пивная Аллея</t>
   </si>
   <si>
-    <t>46426697374</t>
-  </si>
-  <si>
-    <t>ogoooooncat</t>
-  </si>
-  <si>
-    <t>Abyssinian / Абиссинский cat</t>
-  </si>
-  <si>
-    <t>5460808318</t>
-  </si>
-  <si>
-    <t>vladimirpolnikovtube</t>
-  </si>
-  <si>
-    <t>Vladimir Polnikov</t>
-  </si>
-  <si>
-    <t>1070096815</t>
-  </si>
-  <si>
-    <t>jetbrains</t>
-  </si>
-  <si>
-    <t>JetBrains</t>
-  </si>
-  <si>
-    <t>4933601714</t>
-  </si>
-  <si>
-    <t>chengiching.tt</t>
-  </si>
-  <si>
-    <t>Cheng I Ching🏓鄭怡靜-Table tennis</t>
-  </si>
-  <si>
-    <t>52047920</t>
-  </si>
-  <si>
-    <t>tabletennisdaily</t>
-  </si>
-  <si>
-    <t>TableTennisDaily 🏓</t>
-  </si>
-  <si>
-    <t>1279094186</t>
-  </si>
-  <si>
-    <t>mihailov.prog</t>
-  </si>
-  <si>
-    <t>Илья программист | Java Dev</t>
-  </si>
-  <si>
-    <t>14290837607</t>
-  </si>
-  <si>
-    <t>hyperussia.tv</t>
-  </si>
-  <si>
-    <t>Видео | Юмор | Фэйлы</t>
-  </si>
-  <si>
-    <t>2421865254</t>
-  </si>
-  <si>
-    <t>cats_vines</t>
-  </si>
-  <si>
-    <t>Cats Vines</t>
-  </si>
-  <si>
-    <t>15227517688</t>
-  </si>
-  <si>
-    <t>travel_advant7</t>
-  </si>
-  <si>
-    <t>Турагенство онлайн</t>
-  </si>
-  <si>
-    <t>7301114783</t>
-  </si>
-  <si>
-    <t>doctor_radion</t>
-  </si>
-  <si>
-    <t>Вертебролог.Невролог.Остеопат</t>
-  </si>
-  <si>
-    <t>15854448013</t>
-  </si>
-  <si>
-    <t>sunrisehotel_official</t>
-  </si>
-  <si>
-    <t>Sunrise Hotel</t>
-  </si>
-  <si>
-    <t>12184975594</t>
-  </si>
-  <si>
-    <t>black.sci</t>
-  </si>
-  <si>
-    <t>Black Science</t>
-  </si>
-  <si>
-    <t>1595344221</t>
-  </si>
-  <si>
-    <t>mir.strasti</t>
-  </si>
-  <si>
-    <t>Видео | Юмор</t>
-  </si>
-  <si>
-    <t>7172379883</t>
-  </si>
-  <si>
-    <t>orevo_tv</t>
-  </si>
-  <si>
-    <t>😆Аморальный контент</t>
-  </si>
-  <si>
-    <t>9198354873</t>
-  </si>
-  <si>
-    <t>tt.anastasiia</t>
-  </si>
-  <si>
-    <t>НАСТОЛЬНЫЙ ТЕННИС🏓 | ТРЕНЕР</t>
-  </si>
-  <si>
-    <t>7399392982</t>
-  </si>
-  <si>
-    <t>3ch_amoral</t>
-  </si>
-  <si>
-    <t>╚═════ஜ 💚3ch💚 ஜ═════╝</t>
-  </si>
-  <si>
-    <t>21842422587</t>
-  </si>
-  <si>
-    <t>boris_vaporsynth</t>
-  </si>
-  <si>
-    <t>Boris©</t>
-  </si>
-  <si>
-    <t>6166113347</t>
-  </si>
-  <si>
-    <t>timoboll</t>
-  </si>
-  <si>
-    <t>Timo Boll</t>
-  </si>
-  <si>
-    <t>10396754514</t>
-  </si>
-  <si>
-    <t>objavka.com_official</t>
-  </si>
-  <si>
-    <t>𝕠𝕓𝕛𝕒𝕧𝕜𝕒.𝕔𝕠𝕞</t>
-  </si>
-  <si>
-    <t>387403619</t>
-  </si>
-  <si>
-    <t>wonka42</t>
-  </si>
-  <si>
-    <t>Gamedev, 3D, SMM, Travel</t>
-  </si>
-  <si>
-    <t>2182209389</t>
-  </si>
-  <si>
-    <t>shutnik_russia</t>
-  </si>
-  <si>
-    <t>Лучшие Видео</t>
-  </si>
-  <si>
-    <t>9262569068</t>
-  </si>
-  <si>
-    <t>homsters_</t>
-  </si>
-  <si>
-    <t>Homsters</t>
-  </si>
-  <si>
-    <t>18058295205</t>
-  </si>
-  <si>
-    <t>freedomclub_info</t>
-  </si>
-  <si>
-    <t>Авторские Туры| Канары| Бали|</t>
-  </si>
-  <si>
-    <t>11400401285</t>
-  </si>
-  <si>
-    <t>ataman.shop.men</t>
-  </si>
-  <si>
-    <t>КРОССОВКИ УКРАИНА</t>
-  </si>
-  <si>
-    <t>454116557</t>
-  </si>
-  <si>
-    <t>crystalcastles</t>
-  </si>
-  <si>
-    <t>Crystal Castles</t>
-  </si>
-  <si>
-    <t>12857421710</t>
-  </si>
-  <si>
-    <t>neural_tp</t>
-  </si>
-  <si>
-    <t>Илона Нейро</t>
-  </si>
-  <si>
-    <t>438378992</t>
-  </si>
-  <si>
-    <t>lukhashdotcom</t>
-  </si>
-  <si>
-    <t>LukHash</t>
-  </si>
-  <si>
-    <t>6009575118</t>
-  </si>
-  <si>
-    <t>mews_news</t>
-  </si>
-  <si>
-    <t>Mews News</t>
-  </si>
-  <si>
-    <t>3915625350</t>
-  </si>
-  <si>
-    <t>standupstepa</t>
-  </si>
-  <si>
-    <t>Стендапы &amp; ЧБД</t>
-  </si>
-  <si>
-    <t>488697530</t>
-  </si>
-  <si>
-    <t>eldarbroadway</t>
-  </si>
-  <si>
-    <t>Эльдар Бродвей</t>
+    <t>4316505861</t>
+  </si>
+  <si>
+    <t>bar.sputnik</t>
+  </si>
+  <si>
+    <t>🛰️ Sputnik</t>
+  </si>
+  <si>
+    <t>6500858559</t>
+  </si>
+  <si>
+    <t>tajhribnikolaj</t>
   </si>
   <si>
     <t>12066720422</t>
@@ -2832,30 +2847,6 @@
   </si>
   <si>
     <t>Олег ж</t>
-  </si>
-  <si>
-    <t>6069232545</t>
-  </si>
-  <si>
-    <t>panasenko2840</t>
-  </si>
-  <si>
-    <t>Ирина Панасенко</t>
-  </si>
-  <si>
-    <t>4316505861</t>
-  </si>
-  <si>
-    <t>bar.sputnik</t>
-  </si>
-  <si>
-    <t>🛰️ Sputnik</t>
-  </si>
-  <si>
-    <t>6500858559</t>
-  </si>
-  <si>
-    <t>tajhribnikolaj</t>
   </si>
   <si>
     <t>45158586527</t>
@@ -2951,7 +2942,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C327"/>
+  <dimension ref="A1:C326"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3339,40 +3330,40 @@
         <v>103</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C36" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C37" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" t="s">
         <v>110</v>
-      </c>
-      <c r="B38" t="s">
-        <v>111</v>
-      </c>
-      <c r="C38" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="39">
@@ -3383,139 +3374,139 @@
         <v>114</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" t="s">
         <v>116</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>117</v>
-      </c>
-      <c r="C40" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" t="s">
         <v>119</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>120</v>
-      </c>
-      <c r="C41" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" t="s">
         <v>122</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>123</v>
-      </c>
-      <c r="C42" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" t="s">
         <v>125</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>126</v>
-      </c>
-      <c r="C43" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" t="s">
         <v>128</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>129</v>
-      </c>
-      <c r="C44" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45" t="s">
         <v>131</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>132</v>
-      </c>
-      <c r="C45" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" t="s">
         <v>134</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>135</v>
-      </c>
-      <c r="C46" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47" t="s">
         <v>137</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>138</v>
-      </c>
-      <c r="C47" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>139</v>
+      </c>
+      <c r="B48" t="s">
         <v>140</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>141</v>
-      </c>
-      <c r="C48" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>142</v>
+      </c>
+      <c r="B49" t="s">
         <v>143</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>144</v>
-      </c>
-      <c r="C49" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>145</v>
+      </c>
+      <c r="B50" t="s">
         <v>146</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>147</v>
-      </c>
-      <c r="C50" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>148</v>
+      </c>
+      <c r="B51" t="s">
         <v>149</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>150</v>
-      </c>
-      <c r="C51" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="52">
@@ -3812,62 +3803,62 @@
         <v>230</v>
       </c>
       <c r="C78" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>231</v>
+      </c>
+      <c r="B79" t="s">
         <v>232</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>233</v>
-      </c>
-      <c r="C79" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>234</v>
+      </c>
+      <c r="B80" t="s">
         <v>235</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>236</v>
-      </c>
-      <c r="C80" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>237</v>
+      </c>
+      <c r="B81" t="s">
         <v>238</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>239</v>
-      </c>
-      <c r="C81" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>240</v>
+      </c>
+      <c r="B82" t="s">
         <v>241</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>242</v>
-      </c>
-      <c r="C82" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
+        <v>243</v>
+      </c>
+      <c r="B83" t="s">
         <v>244</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>245</v>
-      </c>
-      <c r="C83" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="84">
@@ -3933,62 +3924,62 @@
         <v>262</v>
       </c>
       <c r="C89" t="s">
-        <v>263</v>
+        <v>110</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>263</v>
+      </c>
+      <c r="B90" t="s">
         <v>264</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>265</v>
-      </c>
-      <c r="C90" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>266</v>
+      </c>
+      <c r="B91" t="s">
         <v>267</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>268</v>
-      </c>
-      <c r="C91" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>269</v>
+      </c>
+      <c r="B92" t="s">
         <v>270</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>271</v>
-      </c>
-      <c r="C92" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>272</v>
+      </c>
+      <c r="B93" t="s">
         <v>273</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>274</v>
-      </c>
-      <c r="C93" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>275</v>
+      </c>
+      <c r="B94" t="s">
         <v>276</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>277</v>
-      </c>
-      <c r="C94" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="95">
@@ -3999,139 +3990,139 @@
         <v>279</v>
       </c>
       <c r="C95" t="s">
-        <v>228</v>
+        <v>280</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B96" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C96" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B97" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C97" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B98" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C98" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B99" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C99" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B100" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C100" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B101" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C101" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B102" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C102" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B103" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C103" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B104" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C104" t="s">
-        <v>305</v>
+        <v>110</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B105" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C105" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B106" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C106" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B107" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C107" t="s">
-        <v>314</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108">
@@ -4230,26 +4221,26 @@
         <v>340</v>
       </c>
       <c r="C116" t="s">
-        <v>11</v>
+        <v>341</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B117" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C117" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B118" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C118" t="s">
         <v>346</v>
@@ -4527,7 +4518,7 @@
         <v>420</v>
       </c>
       <c r="C143" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="144">
@@ -4538,7 +4529,7 @@
         <v>422</v>
       </c>
       <c r="C144" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="145">
@@ -4549,40 +4540,40 @@
         <v>424</v>
       </c>
       <c r="C145" t="s">
-        <v>5</v>
+        <v>425</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B146" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C146" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B147" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C147" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B148" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C148" t="s">
-        <v>433</v>
+        <v>110</v>
       </c>
     </row>
     <row r="149">
@@ -4681,62 +4672,62 @@
         <v>459</v>
       </c>
       <c r="C157" t="s">
-        <v>460</v>
+        <v>110</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
+        <v>460</v>
+      </c>
+      <c r="B158" t="s">
         <v>461</v>
       </c>
-      <c r="B158" t="s">
+      <c r="C158" t="s">
         <v>462</v>
-      </c>
-      <c r="C158" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
+        <v>463</v>
+      </c>
+      <c r="B159" t="s">
         <v>464</v>
       </c>
-      <c r="B159" t="s">
+      <c r="C159" t="s">
         <v>465</v>
-      </c>
-      <c r="C159" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
+        <v>466</v>
+      </c>
+      <c r="B160" t="s">
         <v>467</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C160" t="s">
         <v>468</v>
-      </c>
-      <c r="C160" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
+        <v>469</v>
+      </c>
+      <c r="B161" t="s">
         <v>470</v>
       </c>
-      <c r="B161" t="s">
+      <c r="C161" t="s">
         <v>471</v>
-      </c>
-      <c r="C161" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
+        <v>472</v>
+      </c>
+      <c r="B162" t="s">
         <v>473</v>
       </c>
-      <c r="B162" t="s">
+      <c r="C162" t="s">
         <v>474</v>
-      </c>
-      <c r="C162" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="163">
@@ -4769,139 +4760,139 @@
         <v>482</v>
       </c>
       <c r="C165" t="s">
-        <v>11</v>
+        <v>483</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B166" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C166" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B167" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C167" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B168" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C168" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B169" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C169" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B170" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C170" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B171" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C171" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B172" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C172" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B173" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C173" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B174" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C174" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B175" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C175" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B176" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C176" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B177" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C177" t="s">
-        <v>518</v>
+        <v>110</v>
       </c>
     </row>
     <row r="178">
@@ -4978,95 +4969,95 @@
         <v>538</v>
       </c>
       <c r="C184" t="s">
-        <v>539</v>
+        <v>110</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
+        <v>539</v>
+      </c>
+      <c r="B185" t="s">
         <v>540</v>
       </c>
-      <c r="B185" t="s">
+      <c r="C185" t="s">
         <v>541</v>
-      </c>
-      <c r="C185" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
+        <v>542</v>
+      </c>
+      <c r="B186" t="s">
         <v>543</v>
       </c>
-      <c r="B186" t="s">
+      <c r="C186" t="s">
         <v>544</v>
-      </c>
-      <c r="C186" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
+        <v>545</v>
+      </c>
+      <c r="B187" t="s">
         <v>546</v>
       </c>
-      <c r="B187" t="s">
+      <c r="C187" t="s">
         <v>547</v>
-      </c>
-      <c r="C187" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
+        <v>548</v>
+      </c>
+      <c r="B188" t="s">
         <v>549</v>
       </c>
-      <c r="B188" t="s">
+      <c r="C188" t="s">
         <v>550</v>
-      </c>
-      <c r="C188" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
+        <v>551</v>
+      </c>
+      <c r="B189" t="s">
         <v>552</v>
       </c>
-      <c r="B189" t="s">
+      <c r="C189" t="s">
         <v>553</v>
-      </c>
-      <c r="C189" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
+        <v>554</v>
+      </c>
+      <c r="B190" t="s">
         <v>555</v>
       </c>
-      <c r="B190" t="s">
+      <c r="C190" t="s">
         <v>556</v>
-      </c>
-      <c r="C190" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
+        <v>557</v>
+      </c>
+      <c r="B191" t="s">
         <v>558</v>
       </c>
-      <c r="B191" t="s">
+      <c r="C191" t="s">
         <v>559</v>
-      </c>
-      <c r="C191" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
+        <v>560</v>
+      </c>
+      <c r="B192" t="s">
         <v>561</v>
       </c>
-      <c r="B192" t="s">
+      <c r="C192" t="s">
         <v>562</v>
-      </c>
-      <c r="C192" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="193">
@@ -5935,7 +5926,7 @@
         <v>798</v>
       </c>
       <c r="C271" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
     </row>
     <row r="272">
@@ -6463,40 +6454,40 @@
         <v>941</v>
       </c>
       <c r="C319" t="s">
-        <v>942</v>
+        <v>409</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
+        <v>942</v>
+      </c>
+      <c r="B320" t="s">
         <v>943</v>
       </c>
-      <c r="B320" t="s">
+      <c r="C320" t="s">
         <v>944</v>
-      </c>
-      <c r="C320" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
+        <v>945</v>
+      </c>
+      <c r="B321" t="s">
         <v>946</v>
       </c>
-      <c r="B321" t="s">
-        <v>947</v>
-      </c>
       <c r="C321" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
+        <v>947</v>
+      </c>
+      <c r="B322" t="s">
         <v>948</v>
       </c>
-      <c r="B322" t="s">
+      <c r="C322" t="s">
         <v>949</v>
-      </c>
-      <c r="C322" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="323">
@@ -6541,17 +6532,6 @@
       </c>
       <c r="C326" t="s">
         <v>961</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="s">
-        <v>962</v>
-      </c>
-      <c r="B327" t="s">
-        <v>963</v>
-      </c>
-      <c r="C327" t="s">
-        <v>964</v>
       </c>
     </row>
   </sheetData>

--- a/Following.xlsx
+++ b/Following.xlsx
@@ -12,7 +12,109 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="951">
+  <si>
+    <t>1665158140</t>
+  </si>
+  <si>
+    <t>katerina_ne_moroz</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>4776861533</t>
+  </si>
+  <si>
+    <t>mykola_kretinin</t>
+  </si>
+  <si>
+    <t>Mykola Kretinin</t>
+  </si>
+  <si>
+    <t>9295779044</t>
+  </si>
+  <si>
+    <t>samogon19901</t>
+  </si>
+  <si>
+    <t>Олег Даценко</t>
+  </si>
+  <si>
+    <t>3194868831</t>
+  </si>
+  <si>
+    <t>nataterletskaya</t>
+  </si>
+  <si>
+    <t>1918492898</t>
+  </si>
+  <si>
+    <t>joaorosha</t>
+  </si>
+  <si>
+    <t>João Rocha</t>
+  </si>
+  <si>
+    <t>1718182182</t>
+  </si>
+  <si>
+    <t>smartfoxdev</t>
+  </si>
+  <si>
+    <t>Валерий Кузнецов</t>
+  </si>
+  <si>
+    <t>7861314594</t>
+  </si>
+  <si>
+    <t>jul.fox.0</t>
+  </si>
+  <si>
+    <t>Juliet</t>
+  </si>
+  <si>
+    <t>2282315409</t>
+  </si>
+  <si>
+    <t>novik.sergey</t>
+  </si>
+  <si>
+    <t>603510930</t>
+  </si>
+  <si>
+    <t>caxap1987</t>
+  </si>
+  <si>
+    <t>Александр Неживой</t>
+  </si>
+  <si>
+    <t>998040048</t>
+  </si>
+  <si>
+    <t>fqjony</t>
+  </si>
+  <si>
+    <t>Dmitry Smirnov</t>
+  </si>
+  <si>
+    <t>216793250</t>
+  </si>
+  <si>
+    <t>kirillvasilenko</t>
+  </si>
+  <si>
+    <t>Kyryl Vasylenko</t>
+  </si>
+  <si>
+    <t>5989541461</t>
+  </si>
+  <si>
+    <t>lavronchik_viktoriia</t>
+  </si>
+  <si>
+    <t>Виктория</t>
+  </si>
   <si>
     <t>8571005253</t>
   </si>
@@ -23,72 +125,6 @@
     <t>Антон Шеховцов</t>
   </si>
   <si>
-    <t>1665158140</t>
-  </si>
-  <si>
-    <t>katerina_ne_moroz</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>9295779044</t>
-  </si>
-  <si>
-    <t>samogon19901</t>
-  </si>
-  <si>
-    <t>Олег Даценко</t>
-  </si>
-  <si>
-    <t>998040048</t>
-  </si>
-  <si>
-    <t>fqjony</t>
-  </si>
-  <si>
-    <t>Dmitry Smirnov</t>
-  </si>
-  <si>
-    <t>2282315409</t>
-  </si>
-  <si>
-    <t>novik.sergey</t>
-  </si>
-  <si>
-    <t>3194868831</t>
-  </si>
-  <si>
-    <t>nataterletskaya</t>
-  </si>
-  <si>
-    <t>1718182182</t>
-  </si>
-  <si>
-    <t>smartfoxdev</t>
-  </si>
-  <si>
-    <t>Валерий Кузнецов</t>
-  </si>
-  <si>
-    <t>7861314594</t>
-  </si>
-  <si>
-    <t>jul.fox.0</t>
-  </si>
-  <si>
-    <t>Juliet</t>
-  </si>
-  <si>
-    <t>216793250</t>
-  </si>
-  <si>
-    <t>kirillvasilenko</t>
-  </si>
-  <si>
-    <t>Kyryl Vasylenko</t>
-  </si>
-  <si>
     <t>4205223257</t>
   </si>
   <si>
@@ -98,22 +134,31 @@
     <t>Дмитрий Курило</t>
   </si>
   <si>
-    <t>5989541461</t>
-  </si>
-  <si>
-    <t>lavronchik_viktoriia</t>
-  </si>
-  <si>
-    <t>Виктория</t>
-  </si>
-  <si>
-    <t>4776861533</t>
-  </si>
-  <si>
-    <t>mykola_kretinin</t>
-  </si>
-  <si>
-    <t>Mykola Kretinin</t>
+    <t>4390935361</t>
+  </si>
+  <si>
+    <t>olyapozyvailo</t>
+  </si>
+  <si>
+    <t>𝙾𝚕𝚑𝚊 𝙿𝚘𝚣𝚢𝚟𝚊𝚒𝚕𝚘</t>
+  </si>
+  <si>
+    <t>7404815080</t>
+  </si>
+  <si>
+    <t>kucheryavaya_s</t>
+  </si>
+  <si>
+    <t>Sveta</t>
+  </si>
+  <si>
+    <t>22927148540</t>
+  </si>
+  <si>
+    <t>senorita_anastasita</t>
+  </si>
+  <si>
+    <t>Anastasia</t>
   </si>
   <si>
     <t>1509525978</t>
@@ -125,13 +170,64 @@
     <t>Alena Alena</t>
   </si>
   <si>
-    <t>22927148540</t>
-  </si>
-  <si>
-    <t>senorita_anastasita</t>
-  </si>
-  <si>
-    <t>Anastasia</t>
+    <t>3261126243</t>
+  </si>
+  <si>
+    <t>verunja108</t>
+  </si>
+  <si>
+    <t>1554928320</t>
+  </si>
+  <si>
+    <t>topspinkharkov</t>
+  </si>
+  <si>
+    <t>НАСТОЛЬНЫЙ ТЕННИС ХАРЬКОВ</t>
+  </si>
+  <si>
+    <t>4656429905</t>
+  </si>
+  <si>
+    <t>igor_garry_verb</t>
+  </si>
+  <si>
+    <t>Igor Garry  V.</t>
+  </si>
+  <si>
+    <t>8146374396</t>
+  </si>
+  <si>
+    <t>return_cat</t>
+  </si>
+  <si>
+    <t>Natalie</t>
+  </si>
+  <si>
+    <t>9134759088</t>
+  </si>
+  <si>
+    <t>sergeialeksandrov46</t>
+  </si>
+  <si>
+    <t>Сергей Александров</t>
+  </si>
+  <si>
+    <t>3658771700</t>
+  </si>
+  <si>
+    <t>nazar.vita.m</t>
+  </si>
+  <si>
+    <t>Vita</t>
+  </si>
+  <si>
+    <t>5709552856</t>
+  </si>
+  <si>
+    <t>no.sorrrow</t>
+  </si>
+  <si>
+    <t>anastasiia</t>
   </si>
   <si>
     <t>3557576209</t>
@@ -143,13 +239,31 @@
     <t>Nikolay</t>
   </si>
   <si>
-    <t>1918492898</t>
-  </si>
-  <si>
-    <t>joaorosha</t>
-  </si>
-  <si>
-    <t>João Rocha</t>
+    <t>5608895880</t>
+  </si>
+  <si>
+    <t>mkjoy42</t>
+  </si>
+  <si>
+    <t>Марина Вакуленко</t>
+  </si>
+  <si>
+    <t>1930368337</t>
+  </si>
+  <si>
+    <t>deaddogdeus</t>
+  </si>
+  <si>
+    <t>Bondarenko Alexander</t>
+  </si>
+  <si>
+    <t>4349200104</t>
+  </si>
+  <si>
+    <t>lenok_lev4enko</t>
+  </si>
+  <si>
+    <t>Лена Диденко</t>
   </si>
   <si>
     <t>19469763805</t>
@@ -161,28 +275,46 @@
     <t>KeiSie Double</t>
   </si>
   <si>
-    <t>3261126243</t>
-  </si>
-  <si>
-    <t>verunja108</t>
-  </si>
-  <si>
-    <t>7404815080</t>
-  </si>
-  <si>
-    <t>kucheryavaya_s</t>
-  </si>
-  <si>
-    <t>Sveta</t>
-  </si>
-  <si>
-    <t>3658771700</t>
-  </si>
-  <si>
-    <t>nazar.vita.m</t>
-  </si>
-  <si>
-    <t>Vita</t>
+    <t>1675609130</t>
+  </si>
+  <si>
+    <t>anastasia_vikhot</t>
+  </si>
+  <si>
+    <t>Анастасия</t>
+  </si>
+  <si>
+    <t>37574006666</t>
+  </si>
+  <si>
+    <t>slava_dyachenko10</t>
+  </si>
+  <si>
+    <t>14016672808</t>
+  </si>
+  <si>
+    <t>batin_sbln</t>
+  </si>
+  <si>
+    <t>Станислав Ваганов</t>
+  </si>
+  <si>
+    <t>5533349388</t>
+  </si>
+  <si>
+    <t>lykina_nastyshka</t>
+  </si>
+  <si>
+    <t>Anastasiia Lukina</t>
+  </si>
+  <si>
+    <t>40924417527</t>
+  </si>
+  <si>
+    <t>sergostruk</t>
+  </si>
+  <si>
+    <t>Serg Ostruk</t>
   </si>
   <si>
     <t>5589026095</t>
@@ -194,33 +326,6 @@
     <t>Lisunov Oleksandr</t>
   </si>
   <si>
-    <t>4390935361</t>
-  </si>
-  <si>
-    <t>olyapozyvailo</t>
-  </si>
-  <si>
-    <t>𝙾𝚕𝚑𝚊 𝙿𝚘𝚣𝚢𝚟𝚊𝚒𝚕𝚘</t>
-  </si>
-  <si>
-    <t>9134759088</t>
-  </si>
-  <si>
-    <t>sergeialeksandrov46</t>
-  </si>
-  <si>
-    <t>Сергей Александров</t>
-  </si>
-  <si>
-    <t>1675609130</t>
-  </si>
-  <si>
-    <t>anastasia_vikhot</t>
-  </si>
-  <si>
-    <t>Анастасия</t>
-  </si>
-  <si>
     <t>2872342906</t>
   </si>
   <si>
@@ -230,6 +335,105 @@
     <t>Oleg</t>
   </si>
   <si>
+    <t>4398943967</t>
+  </si>
+  <si>
+    <t>vikki__tkachenko</t>
+  </si>
+  <si>
+    <t>Виктория (Заречная) Ткаченко🍀</t>
+  </si>
+  <si>
+    <t>3015590643</t>
+  </si>
+  <si>
+    <t>lunarlesta</t>
+  </si>
+  <si>
+    <t>Olha Sanzharovska</t>
+  </si>
+  <si>
+    <t>1507437372</t>
+  </si>
+  <si>
+    <t>koteikanovik</t>
+  </si>
+  <si>
+    <t>Катя Новик</t>
+  </si>
+  <si>
+    <t>4058002273</t>
+  </si>
+  <si>
+    <t>b.m.joe</t>
+  </si>
+  <si>
+    <t>Марисюк Остап</t>
+  </si>
+  <si>
+    <t>5480621170</t>
+  </si>
+  <si>
+    <t>stephaniesamo</t>
+  </si>
+  <si>
+    <t>Stephanie 🌸</t>
+  </si>
+  <si>
+    <t>3066364385</t>
+  </si>
+  <si>
+    <t>amalia_raiskaya</t>
+  </si>
+  <si>
+    <t>Amalia</t>
+  </si>
+  <si>
+    <t>8665544898</t>
+  </si>
+  <si>
+    <t>ser18ab1</t>
+  </si>
+  <si>
+    <t>Table Tennis</t>
+  </si>
+  <si>
+    <t>2460313075</t>
+  </si>
+  <si>
+    <t>krutoff_style</t>
+  </si>
+  <si>
+    <t>Александр Крутянский</t>
+  </si>
+  <si>
+    <t>6780188613</t>
+  </si>
+  <si>
+    <t>baranov.oleh</t>
+  </si>
+  <si>
+    <t>Олег Баранов</t>
+  </si>
+  <si>
+    <t>4297113243</t>
+  </si>
+  <si>
+    <t>alexsavochenko</t>
+  </si>
+  <si>
+    <t>Александр Савоченко</t>
+  </si>
+  <si>
+    <t>11523897042</t>
+  </si>
+  <si>
+    <t>naumenko1298</t>
+  </si>
+  <si>
+    <t>Лидия Науменко</t>
+  </si>
+  <si>
     <t>3286803688</t>
   </si>
   <si>
@@ -239,49 +443,13 @@
     <t>Denis Alekseenko</t>
   </si>
   <si>
-    <t>4398943967</t>
-  </si>
-  <si>
-    <t>vikki__tkachenko</t>
-  </si>
-  <si>
-    <t>Виктория (Заречная) Ткаченко🍀</t>
-  </si>
-  <si>
-    <t>8146374396</t>
-  </si>
-  <si>
-    <t>return_cat</t>
-  </si>
-  <si>
-    <t>Natalie</t>
-  </si>
-  <si>
-    <t>6780188613</t>
-  </si>
-  <si>
-    <t>baranov.oleh</t>
-  </si>
-  <si>
-    <t>Олег Баранов</t>
-  </si>
-  <si>
-    <t>14016672808</t>
-  </si>
-  <si>
-    <t>batin_sbln</t>
-  </si>
-  <si>
-    <t>Станислав Ваганов</t>
-  </si>
-  <si>
-    <t>1930368337</t>
-  </si>
-  <si>
-    <t>deaddogdeus</t>
-  </si>
-  <si>
-    <t>Bondarenko Alexander</t>
+    <t>5973121850</t>
+  </si>
+  <si>
+    <t>grigoriy.belov</t>
+  </si>
+  <si>
+    <t>Григорий Белов</t>
   </si>
   <si>
     <t>1557036485</t>
@@ -293,19 +461,370 @@
     <t>Anatolii Balakiriev</t>
   </si>
   <si>
-    <t>8665544898</t>
-  </si>
-  <si>
-    <t>ser18ab1</t>
-  </si>
-  <si>
-    <t>Table Tennis</t>
-  </si>
-  <si>
-    <t>37574006666</t>
-  </si>
-  <si>
-    <t>slava_dyachenko10</t>
+    <t>46919920426</t>
+  </si>
+  <si>
+    <t>ms.zheldak</t>
+  </si>
+  <si>
+    <t>Mikhail Zheldak</t>
+  </si>
+  <si>
+    <t>39486630028</t>
+  </si>
+  <si>
+    <t>igorlenaverba</t>
+  </si>
+  <si>
+    <t>igorlena</t>
+  </si>
+  <si>
+    <t>5776101665</t>
+  </si>
+  <si>
+    <t>ana.stazzi</t>
+  </si>
+  <si>
+    <t>Anastasia 🐾</t>
+  </si>
+  <si>
+    <t>1980124718</t>
+  </si>
+  <si>
+    <t>k.a_t_r.i.n</t>
+  </si>
+  <si>
+    <t>Екатерина Ступак</t>
+  </si>
+  <si>
+    <t>5649619609</t>
+  </si>
+  <si>
+    <t>tengoku_</t>
+  </si>
+  <si>
+    <t>Vlada</t>
+  </si>
+  <si>
+    <t>5360516989</t>
+  </si>
+  <si>
+    <t>yevgeniya_pishchevskaya</t>
+  </si>
+  <si>
+    <t>Евгения Пищевская</t>
+  </si>
+  <si>
+    <t>1960067267</t>
+  </si>
+  <si>
+    <t>ksushchan</t>
+  </si>
+  <si>
+    <t>42271971663</t>
+  </si>
+  <si>
+    <t>valentine.kravtsov</t>
+  </si>
+  <si>
+    <t>Валик Кравцов</t>
+  </si>
+  <si>
+    <t>2968278645</t>
+  </si>
+  <si>
+    <t>liudmyla_minenko</t>
+  </si>
+  <si>
+    <t>Liudmyla Minenko</t>
+  </si>
+  <si>
+    <t>3807973440</t>
+  </si>
+  <si>
+    <t>dashalutsiva</t>
+  </si>
+  <si>
+    <t>Даша Луцива</t>
+  </si>
+  <si>
+    <t>5978809531</t>
+  </si>
+  <si>
+    <t>novik.elena_</t>
+  </si>
+  <si>
+    <t>Lena</t>
+  </si>
+  <si>
+    <t>334729418</t>
+  </si>
+  <si>
+    <t>svetlana_krutik</t>
+  </si>
+  <si>
+    <t>Света Поцяпун</t>
+  </si>
+  <si>
+    <t>5836516802</t>
+  </si>
+  <si>
+    <t>sixteencolorsofme</t>
+  </si>
+  <si>
+    <t>Sergey Savchenko</t>
+  </si>
+  <si>
+    <t>5443128991</t>
+  </si>
+  <si>
+    <t>gleb_zotov7</t>
+  </si>
+  <si>
+    <t>Глеб Зотов</t>
+  </si>
+  <si>
+    <t>7694075739</t>
+  </si>
+  <si>
+    <t>greg.burghard</t>
+  </si>
+  <si>
+    <t>Gregory Bukharov</t>
+  </si>
+  <si>
+    <t>543161485</t>
+  </si>
+  <si>
+    <t>maxsorl</t>
+  </si>
+  <si>
+    <t>Макс Сорокин</t>
+  </si>
+  <si>
+    <t>6088040543</t>
+  </si>
+  <si>
+    <t>lolita_mechkauskayte</t>
+  </si>
+  <si>
+    <t>Locenok</t>
+  </si>
+  <si>
+    <t>6972153229</t>
+  </si>
+  <si>
+    <t>danileichenko.dmitriy</t>
+  </si>
+  <si>
+    <t>Дмитрий Данилейченко</t>
+  </si>
+  <si>
+    <t>33582932</t>
+  </si>
+  <si>
+    <t>karelspil</t>
+  </si>
+  <si>
+    <t>Karel Spilka</t>
+  </si>
+  <si>
+    <t>4623069415</t>
+  </si>
+  <si>
+    <t>meridian_tennis</t>
+  </si>
+  <si>
+    <t>Настольный теннис Харьков</t>
+  </si>
+  <si>
+    <t>10933221669</t>
+  </si>
+  <si>
+    <t>anpylypenko</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>7587493365</t>
+  </si>
+  <si>
+    <t>elvira__kadirova</t>
+  </si>
+  <si>
+    <t>Эльвира Кадырова</t>
+  </si>
+  <si>
+    <t>8683014817</t>
+  </si>
+  <si>
+    <t>myroslav_bakuta</t>
+  </si>
+  <si>
+    <t>Мирослав Бакута</t>
+  </si>
+  <si>
+    <t>31539667595</t>
+  </si>
+  <si>
+    <t>strukova_anette</t>
+  </si>
+  <si>
+    <t>Anna Strukova</t>
+  </si>
+  <si>
+    <t>43157567373</t>
+  </si>
+  <si>
+    <t>aleksandrsigin</t>
+  </si>
+  <si>
+    <t>Александр Сигин</t>
+  </si>
+  <si>
+    <t>7076447811</t>
+  </si>
+  <si>
+    <t>pavlishchuk_sania</t>
+  </si>
+  <si>
+    <t>Саня Павлищук</t>
+  </si>
+  <si>
+    <t>39408861207</t>
+  </si>
+  <si>
+    <t>ivanvinnikov_06</t>
+  </si>
+  <si>
+    <t>Иван Винников</t>
+  </si>
+  <si>
+    <t>1583496075</t>
+  </si>
+  <si>
+    <t>hengamemansouri</t>
+  </si>
+  <si>
+    <t>Hengame Mansouri</t>
+  </si>
+  <si>
+    <t>1080866431</t>
+  </si>
+  <si>
+    <t>manuel_kobbi</t>
+  </si>
+  <si>
+    <t>Manuel Kobby</t>
+  </si>
+  <si>
+    <t>4767075514</t>
+  </si>
+  <si>
+    <t>pavel_hunt</t>
+  </si>
+  <si>
+    <t>Павел</t>
+  </si>
+  <si>
+    <t>1969480744</t>
+  </si>
+  <si>
+    <t>jenina_jenya</t>
+  </si>
+  <si>
+    <t>СТУДИЯ JJ</t>
+  </si>
+  <si>
+    <t>2987001354</t>
+  </si>
+  <si>
+    <t>vovo444ka86</t>
+  </si>
+  <si>
+    <t>Владимир</t>
+  </si>
+  <si>
+    <t>46035603330</t>
+  </si>
+  <si>
+    <t>ttkrest</t>
+  </si>
+  <si>
+    <t>Товары для настольного тенниса</t>
+  </si>
+  <si>
+    <t>2241082037</t>
+  </si>
+  <si>
+    <t>katiushka_kot</t>
+  </si>
+  <si>
+    <t>Екатерина Кутепова</t>
+  </si>
+  <si>
+    <t>3083007165</t>
+  </si>
+  <si>
+    <t>bezmen.live</t>
+  </si>
+  <si>
+    <t>Иван Безменов</t>
+  </si>
+  <si>
+    <t>6139757237</t>
+  </si>
+  <si>
+    <t>vova_mixx</t>
+  </si>
+  <si>
+    <t>Владимир Сериков</t>
+  </si>
+  <si>
+    <t>6919696194</t>
+  </si>
+  <si>
+    <t>nikolai.pokatilov</t>
+  </si>
+  <si>
+    <t>Николай</t>
+  </si>
+  <si>
+    <t>5581548784</t>
+  </si>
+  <si>
+    <t>sergkraina</t>
+  </si>
+  <si>
+    <t>Сергей Николаевич</t>
+  </si>
+  <si>
+    <t>2052730441</t>
+  </si>
+  <si>
+    <t>kyb85</t>
+  </si>
+  <si>
+    <t>Алексей</t>
+  </si>
+  <si>
+    <t>54524405</t>
+  </si>
+  <si>
+    <t>olgaodynezz</t>
+  </si>
+  <si>
+    <t>Olga Odynets</t>
+  </si>
+  <si>
+    <t>5836694356</t>
+  </si>
+  <si>
+    <t>anthony.kurochka</t>
+  </si>
+  <si>
+    <t>Anton  Kurochka</t>
   </si>
   <si>
     <t>6888074835</t>
@@ -317,76 +836,112 @@
     <t>Artem Maksimchyk</t>
   </si>
   <si>
-    <t>3066364385</t>
-  </si>
-  <si>
-    <t>amalia_raiskaya</t>
-  </si>
-  <si>
-    <t>Amalia</t>
-  </si>
-  <si>
-    <t>4349200104</t>
-  </si>
-  <si>
-    <t>lenok_lev4enko</t>
-  </si>
-  <si>
-    <t>Лена Диденко</t>
-  </si>
-  <si>
-    <t>5973121850</t>
-  </si>
-  <si>
-    <t>grigoriy.belov</t>
-  </si>
-  <si>
-    <t>Григорий Белов</t>
-  </si>
-  <si>
-    <t>2968278645</t>
-  </si>
-  <si>
-    <t>liudmyla_minenko</t>
-  </si>
-  <si>
-    <t>Liudmyla Minenko</t>
-  </si>
-  <si>
-    <t>33582932</t>
-  </si>
-  <si>
-    <t>karelspil</t>
-  </si>
-  <si>
-    <t>Karel Spilka</t>
-  </si>
-  <si>
-    <t>5978809531</t>
-  </si>
-  <si>
-    <t>novik.elena_</t>
-  </si>
-  <si>
-    <t>Lena</t>
-  </si>
-  <si>
-    <t>5480621170</t>
-  </si>
-  <si>
-    <t>steshastepa</t>
-  </si>
-  <si>
-    <t>Stephanie 🌸</t>
-  </si>
-  <si>
-    <t>334729418</t>
-  </si>
-  <si>
-    <t>svetlana_krutik</t>
-  </si>
-  <si>
-    <t>Света Поцяпун</t>
+    <t>2378416242</t>
+  </si>
+  <si>
+    <t>n_a_t_a_l_i_94</t>
+  </si>
+  <si>
+    <t>Натали</t>
+  </si>
+  <si>
+    <t>46736323946</t>
+  </si>
+  <si>
+    <t>___chpok_v_pupok___</t>
+  </si>
+  <si>
+    <t>Igoryan</t>
+  </si>
+  <si>
+    <t>643074866</t>
+  </si>
+  <si>
+    <t>justhappyann</t>
+  </si>
+  <si>
+    <t>Аня Саранча</t>
+  </si>
+  <si>
+    <t>420614558</t>
+  </si>
+  <si>
+    <t>ksyu_anomaly</t>
+  </si>
+  <si>
+    <t>Ksyu Torina</t>
+  </si>
+  <si>
+    <t>6720001536</t>
+  </si>
+  <si>
+    <t>vita.prishchepa</t>
+  </si>
+  <si>
+    <t>PrishchepaVictoria</t>
+  </si>
+  <si>
+    <t>9480853479</t>
+  </si>
+  <si>
+    <t>tenisdnepr</t>
+  </si>
+  <si>
+    <t>Настольный Теннис Днепр</t>
+  </si>
+  <si>
+    <t>1289460729</t>
+  </si>
+  <si>
+    <t>miss_kvitka</t>
+  </si>
+  <si>
+    <t>Julia Marushchenko</t>
+  </si>
+  <si>
+    <t>31770896422</t>
+  </si>
+  <si>
+    <t>knt_spirit</t>
+  </si>
+  <si>
+    <t>Настольный теннис Харьков</t>
+  </si>
+  <si>
+    <t>41902230851</t>
+  </si>
+  <si>
+    <t>timofei.kasianov1992</t>
+  </si>
+  <si>
+    <t>Timofei Kasianov</t>
+  </si>
+  <si>
+    <t>7877598311</t>
+  </si>
+  <si>
+    <t>bugaiovmikhailo</t>
+  </si>
+  <si>
+    <t>Михайло Бугайов</t>
+  </si>
+  <si>
+    <t>1423890471</t>
+  </si>
+  <si>
+    <t>a__kostenko__</t>
+  </si>
+  <si>
+    <t>Андрей Костенко</t>
+  </si>
+  <si>
+    <t>9375328733</t>
+  </si>
+  <si>
+    <t>topspinshop.com.ua</t>
+  </si>
+  <si>
+    <t>ТОВАРЫ ДЛЯ НАСТОЛЬНОГО ТЕННИСА</t>
   </si>
   <si>
     <t>5800991337</t>
@@ -398,289 +953,103 @@
     <t>Анатолий Гусев</t>
   </si>
   <si>
-    <t>1980124718</t>
-  </si>
-  <si>
-    <t>k.a_t_r.i.n</t>
-  </si>
-  <si>
-    <t>Екатерина Сергеевна</t>
-  </si>
-  <si>
-    <t>1960067267</t>
-  </si>
-  <si>
-    <t>ksushchan</t>
-  </si>
-  <si>
-    <t>5533349388</t>
-  </si>
-  <si>
-    <t>lykina_nastyshka</t>
-  </si>
-  <si>
-    <t>Anastasiia Lukina</t>
-  </si>
-  <si>
-    <t>1969480744</t>
-  </si>
-  <si>
-    <t>jenina_jenya</t>
-  </si>
-  <si>
-    <t>СТУДИЯ JJ</t>
-  </si>
-  <si>
-    <t>4058002273</t>
-  </si>
-  <si>
-    <t>b.m.joe</t>
-  </si>
-  <si>
-    <t>Марисюк Остап</t>
-  </si>
-  <si>
-    <t>5776101665</t>
-  </si>
-  <si>
-    <t>ana.stazzi</t>
-  </si>
-  <si>
-    <t>Anastasia 🐾</t>
-  </si>
-  <si>
-    <t>31539667595</t>
-  </si>
-  <si>
-    <t>strukova_anette</t>
-  </si>
-  <si>
-    <t>Anna Strukova</t>
-  </si>
-  <si>
-    <t>5649619609</t>
-  </si>
-  <si>
-    <t>tengoku_</t>
-  </si>
-  <si>
-    <t>Vlada</t>
-  </si>
-  <si>
-    <t>46919920426</t>
-  </si>
-  <si>
-    <t>ms.zheldak</t>
-  </si>
-  <si>
-    <t>Mikhail Zheldak</t>
-  </si>
-  <si>
-    <t>7076447811</t>
-  </si>
-  <si>
-    <t>pavlishchuk_sania</t>
-  </si>
-  <si>
-    <t>Саня Павлищук</t>
-  </si>
-  <si>
-    <t>5836516802</t>
-  </si>
-  <si>
-    <t>sixteencolorsofme</t>
-  </si>
-  <si>
-    <t>Sergey Savchenko</t>
-  </si>
-  <si>
-    <t>3015590643</t>
-  </si>
-  <si>
-    <t>lunarlesta</t>
-  </si>
-  <si>
-    <t>Olha Sanzharovska</t>
-  </si>
-  <si>
-    <t>2460313075</t>
-  </si>
-  <si>
-    <t>krutoff_style</t>
-  </si>
-  <si>
-    <t>Александр Крутянский</t>
-  </si>
-  <si>
-    <t>543161485</t>
-  </si>
-  <si>
-    <t>maxsorl</t>
-  </si>
-  <si>
-    <t>Макс Сорокин</t>
-  </si>
-  <si>
-    <t>643074866</t>
-  </si>
-  <si>
-    <t>justhappyann</t>
-  </si>
-  <si>
-    <t>Аня Саранча</t>
-  </si>
-  <si>
-    <t>2378416242</t>
-  </si>
-  <si>
-    <t>n_a_t_a_l_i_94</t>
-  </si>
-  <si>
-    <t>Натали</t>
-  </si>
-  <si>
-    <t>4297113243</t>
-  </si>
-  <si>
-    <t>alexsavochenko</t>
-  </si>
-  <si>
-    <t>Александр Савоченко</t>
-  </si>
-  <si>
-    <t>1554928320</t>
-  </si>
-  <si>
-    <t>topspinkharkov</t>
-  </si>
-  <si>
-    <t>НАСТОЛЬНЫЙ ТЕННИС ХАРЬКОВ</t>
-  </si>
-  <si>
-    <t>1507437372</t>
-  </si>
-  <si>
-    <t>koteikanovik</t>
-  </si>
-  <si>
-    <t>Катя Новик</t>
-  </si>
-  <si>
-    <t>42271971663</t>
-  </si>
-  <si>
-    <t>valentine.kravtsov</t>
-  </si>
-  <si>
-    <t>Валик Кравцов</t>
-  </si>
-  <si>
-    <t>40924417527</t>
-  </si>
-  <si>
-    <t>sergostruk</t>
-  </si>
-  <si>
-    <t>Serg Ostruk</t>
-  </si>
-  <si>
-    <t>7587493365</t>
-  </si>
-  <si>
-    <t>elvira__kadirova</t>
-  </si>
-  <si>
-    <t>Эльвира Кадырова</t>
+    <t>1760538822</t>
+  </si>
+  <si>
+    <t>artem_pavlov_ua</t>
+  </si>
+  <si>
+    <t>Артём Павлов</t>
+  </si>
+  <si>
+    <t>5592849355</t>
+  </si>
+  <si>
+    <t>chaosbest</t>
+  </si>
+  <si>
+    <t>Alexander Victorovich</t>
+  </si>
+  <si>
+    <t>2514549667</t>
+  </si>
+  <si>
+    <t>irina0044</t>
+  </si>
+  <si>
+    <t>🌎 Irina Korba  #Kharkiv 🌎</t>
+  </si>
+  <si>
+    <t>272786242</t>
+  </si>
+  <si>
+    <t>cirius_kh</t>
+  </si>
+  <si>
+    <t>Tolya</t>
+  </si>
+  <si>
+    <t>5685672290</t>
+  </si>
+  <si>
+    <t>maksim_shiyan</t>
+  </si>
+  <si>
+    <t>Максим Шиян</t>
   </si>
   <si>
     <t>7239973909</t>
   </si>
   <si>
-    <t>piuumee</t>
+    <t>therealretchy</t>
   </si>
   <si>
     <t>Ruslan Vadimovich</t>
   </si>
   <si>
-    <t>6972153229</t>
-  </si>
-  <si>
-    <t>danileichenko.dmitriy</t>
-  </si>
-  <si>
-    <t>Дмитрий Данилейченко</t>
-  </si>
-  <si>
     <t>6535902432</t>
   </si>
   <si>
-    <t>oksanakriokhova</t>
+    <t>oksana_krekhova</t>
   </si>
   <si>
     <t>Оксана Крёхова</t>
   </si>
   <si>
-    <t>5685672290</t>
-  </si>
-  <si>
-    <t>maksim_shiyan</t>
-  </si>
-  <si>
-    <t>Максим Шиян</t>
-  </si>
-  <si>
-    <t>4623069415</t>
-  </si>
-  <si>
-    <t>meridian_tennis</t>
-  </si>
-  <si>
-    <t>Настольный теннис Харьков</t>
-  </si>
-  <si>
-    <t>2007944267</t>
-  </si>
-  <si>
-    <t>saltanovska</t>
-  </si>
-  <si>
-    <t>Marharyta Saltanovska💜</t>
-  </si>
-  <si>
-    <t>2987001354</t>
-  </si>
-  <si>
-    <t>vovo444ka86</t>
-  </si>
-  <si>
-    <t>Владимир</t>
-  </si>
-  <si>
-    <t>5836694356</t>
-  </si>
-  <si>
-    <t>anthony.kurochka</t>
-  </si>
-  <si>
-    <t>Anton Kurochka</t>
-  </si>
-  <si>
-    <t>3807973440</t>
-  </si>
-  <si>
-    <t>dashalutsiva</t>
-  </si>
-  <si>
-    <t>Даша Луцива</t>
-  </si>
-  <si>
-    <t>39408861207</t>
-  </si>
-  <si>
-    <t>ivanvinnikov_06</t>
-  </si>
-  <si>
-    <t>Иван Винников</t>
+    <t>7501003464</t>
+  </si>
+  <si>
+    <t>vladsirozhko</t>
+  </si>
+  <si>
+    <t>Влад Сирожко</t>
+  </si>
+  <si>
+    <t>1636627502</t>
+  </si>
+  <si>
+    <t>olgasmelik</t>
+  </si>
+  <si>
+    <t>Olga Smelik</t>
+  </si>
+  <si>
+    <t>14019691361</t>
+  </si>
+  <si>
+    <t>sharaman7777</t>
+  </si>
+  <si>
+    <t>Sharaman</t>
+  </si>
+  <si>
+    <t>2032233620</t>
+  </si>
+  <si>
+    <t>pyatkovaan</t>
+  </si>
+  <si>
+    <t>Natalia</t>
   </si>
   <si>
     <t>6069232545</t>
@@ -692,238 +1061,97 @@
     <t>Ирина Панасенко</t>
   </si>
   <si>
-    <t>5360516989</t>
-  </si>
-  <si>
-    <t>yevgeniya_pishchevskaya</t>
-  </si>
-  <si>
-    <t>Евгения Пищевская</t>
-  </si>
-  <si>
-    <t>420614558</t>
-  </si>
-  <si>
-    <t>ksyu_anomaly</t>
-  </si>
-  <si>
-    <t>Ksyu Torina</t>
-  </si>
-  <si>
-    <t>6088040543</t>
-  </si>
-  <si>
-    <t>lolita_mechkauskayte</t>
-  </si>
-  <si>
-    <t>Locenok</t>
-  </si>
-  <si>
-    <t>2032233620</t>
-  </si>
-  <si>
-    <t>pyatkovaan</t>
-  </si>
-  <si>
-    <t>Natalia</t>
-  </si>
-  <si>
-    <t>7694075739</t>
-  </si>
-  <si>
-    <t>greg.burghard</t>
-  </si>
-  <si>
-    <t>Gregory Bukharov</t>
-  </si>
-  <si>
-    <t>5443128991</t>
-  </si>
-  <si>
-    <t>gleb_zotov7</t>
-  </si>
-  <si>
-    <t>Глеб Зотов</t>
+    <t>39383552563</t>
+  </si>
+  <si>
+    <t>vlogs_ivan_life</t>
+  </si>
+  <si>
+    <t>Иван Пелих</t>
+  </si>
+  <si>
+    <t>6537477830</t>
+  </si>
+  <si>
+    <t>darkward666</t>
+  </si>
+  <si>
+    <t>Дмитрий Слончинский</t>
+  </si>
+  <si>
+    <t>5653354215</t>
+  </si>
+  <si>
+    <t>morris_my_life</t>
+  </si>
+  <si>
+    <t>Елена Ревякина</t>
+  </si>
+  <si>
+    <t>12035188875</t>
+  </si>
+  <si>
+    <t>mswaleron</t>
+  </si>
+  <si>
+    <t>Валерий</t>
+  </si>
+  <si>
+    <t>17617023602</t>
+  </si>
+  <si>
+    <t>viacheslavrudenko34</t>
+  </si>
+  <si>
+    <t>Вячеслав Руденко</t>
+  </si>
+  <si>
+    <t>2262155321</t>
+  </si>
+  <si>
+    <t>nastyaionenko</t>
+  </si>
+  <si>
+    <t>8018318830</t>
+  </si>
+  <si>
+    <t>iliyamisevra</t>
+  </si>
+  <si>
+    <t>Илья Мисевра</t>
+  </si>
+  <si>
+    <t>4448583004</t>
+  </si>
+  <si>
+    <t>shevanton_</t>
+  </si>
+  <si>
+    <t>Toxa</t>
+  </si>
+  <si>
+    <t>718852048</t>
+  </si>
+  <si>
+    <t>pupsarin</t>
   </si>
   <si>
     <t>8630127905</t>
   </si>
   <si>
-    <t>iullia_iullia5019</t>
+    <t>iullia_iullia90</t>
   </si>
   <si>
     <t>Юляшка (АЛЕКС)</t>
   </si>
   <si>
-    <t>1080866431</t>
-  </si>
-  <si>
-    <t>manuel_kobbi</t>
-  </si>
-  <si>
-    <t>Manuel Kobby</t>
-  </si>
-  <si>
-    <t>46736323946</t>
-  </si>
-  <si>
-    <t>___chpok_v_pupok___</t>
-  </si>
-  <si>
-    <t>Igoryan</t>
-  </si>
-  <si>
-    <t>5608895880</t>
-  </si>
-  <si>
-    <t>mkjoy42</t>
-  </si>
-  <si>
-    <t>Марина Вакуленко</t>
-  </si>
-  <si>
-    <t>6720001536</t>
-  </si>
-  <si>
-    <t>vita.prishchepa</t>
-  </si>
-  <si>
-    <t>PrishchepaVictoria</t>
-  </si>
-  <si>
-    <t>8683014817</t>
-  </si>
-  <si>
-    <t>myroslav_bakuta</t>
-  </si>
-  <si>
-    <t>Мирослав Бакута</t>
-  </si>
-  <si>
-    <t>10933221669</t>
-  </si>
-  <si>
-    <t>anpylypenko</t>
-  </si>
-  <si>
-    <t>Anna</t>
-  </si>
-  <si>
-    <t>5709552856</t>
-  </si>
-  <si>
-    <t>no.sorrrow</t>
-  </si>
-  <si>
-    <t>anastasiia</t>
-  </si>
-  <si>
-    <t>6139757237</t>
-  </si>
-  <si>
-    <t>vova_mixx</t>
-  </si>
-  <si>
-    <t>Владимир Сериков</t>
-  </si>
-  <si>
-    <t>4767075514</t>
-  </si>
-  <si>
-    <t>pavel_hunt</t>
-  </si>
-  <si>
-    <t>Павел</t>
-  </si>
-  <si>
-    <t>6919696194</t>
-  </si>
-  <si>
-    <t>nikolai.pokatilov</t>
-  </si>
-  <si>
-    <t>Николай</t>
-  </si>
-  <si>
-    <t>31770896422</t>
-  </si>
-  <si>
-    <t>knt_spirit</t>
-  </si>
-  <si>
-    <t>Настольный теннис Харьков</t>
-  </si>
-  <si>
-    <t>54524405</t>
-  </si>
-  <si>
-    <t>olgaodynezz</t>
-  </si>
-  <si>
-    <t>Olga Odynets</t>
-  </si>
-  <si>
-    <t>2514549667</t>
-  </si>
-  <si>
-    <t>irina0044</t>
-  </si>
-  <si>
-    <t>🌎 Irina Korba  #Kharkiv 🌎</t>
-  </si>
-  <si>
-    <t>46035603330</t>
-  </si>
-  <si>
-    <t>ttkrest</t>
-  </si>
-  <si>
-    <t>Товары для настольного тенниса</t>
-  </si>
-  <si>
-    <t>9480853479</t>
-  </si>
-  <si>
-    <t>tenisdnepr</t>
-  </si>
-  <si>
-    <t>Настольный Теннис Днепр</t>
-  </si>
-  <si>
-    <t>2052730441</t>
-  </si>
-  <si>
-    <t>kyb85</t>
-  </si>
-  <si>
-    <t>Алексей</t>
-  </si>
-  <si>
-    <t>3083007165</t>
-  </si>
-  <si>
-    <t>bezmen.live</t>
-  </si>
-  <si>
-    <t>Иван Безменов</t>
-  </si>
-  <si>
-    <t>4656429905</t>
-  </si>
-  <si>
-    <t>igor_garry_verb</t>
-  </si>
-  <si>
-    <t>Igor Garry  V.</t>
-  </si>
-  <si>
-    <t>7877598311</t>
-  </si>
-  <si>
-    <t>bugaiovmikhailo</t>
-  </si>
-  <si>
-    <t>Михайло Бугайов</t>
+    <t>37347412681</t>
+  </si>
+  <si>
+    <t>balint_borsodi_eu_2032</t>
+  </si>
+  <si>
+    <t>Bælint Børsodi</t>
   </si>
   <si>
     <t>4974294280</t>
@@ -935,78 +1163,6 @@
     <t>Margitta</t>
   </si>
   <si>
-    <t>1760538822</t>
-  </si>
-  <si>
-    <t>artem_pavlov_ua</t>
-  </si>
-  <si>
-    <t>Артём Павлов</t>
-  </si>
-  <si>
-    <t>1583496075</t>
-  </si>
-  <si>
-    <t>hengamemansouri</t>
-  </si>
-  <si>
-    <t>Hengame Mansouri</t>
-  </si>
-  <si>
-    <t>603510930</t>
-  </si>
-  <si>
-    <t>caxap1987</t>
-  </si>
-  <si>
-    <t>Александр Неживой</t>
-  </si>
-  <si>
-    <t>5581548784</t>
-  </si>
-  <si>
-    <t>sergkraina</t>
-  </si>
-  <si>
-    <t>Сергей Николаевич</t>
-  </si>
-  <si>
-    <t>12035188875</t>
-  </si>
-  <si>
-    <t>mswaleron</t>
-  </si>
-  <si>
-    <t>Валерий</t>
-  </si>
-  <si>
-    <t>7501003464</t>
-  </si>
-  <si>
-    <t>vladsirozhko</t>
-  </si>
-  <si>
-    <t>Влад Сирожко</t>
-  </si>
-  <si>
-    <t>43157567373</t>
-  </si>
-  <si>
-    <t>aleksandrsigin</t>
-  </si>
-  <si>
-    <t>Александр Сигин</t>
-  </si>
-  <si>
-    <t>272786242</t>
-  </si>
-  <si>
-    <t>cirius_kh</t>
-  </si>
-  <si>
-    <t>Tolya</t>
-  </si>
-  <si>
     <t>4490756624</t>
   </si>
   <si>
@@ -1016,46 +1172,13 @@
     <t>Алёна</t>
   </si>
   <si>
-    <t>1636627502</t>
-  </si>
-  <si>
-    <t>olgasmelik</t>
-  </si>
-  <si>
-    <t>Olga Smelik</t>
-  </si>
-  <si>
-    <t>718852048</t>
-  </si>
-  <si>
-    <t>pupsarin</t>
-  </si>
-  <si>
-    <t>1423890471</t>
-  </si>
-  <si>
-    <t>a__kostenko__</t>
-  </si>
-  <si>
-    <t>Андрей Костенко</t>
-  </si>
-  <si>
-    <t>39383552563</t>
-  </si>
-  <si>
-    <t>vlogs_ivan_life</t>
-  </si>
-  <si>
-    <t>Иван Пелих</t>
-  </si>
-  <si>
-    <t>14019691361</t>
-  </si>
-  <si>
-    <t>sharaman7777</t>
-  </si>
-  <si>
-    <t>Sharaman</t>
+    <t>44006848755</t>
+  </si>
+  <si>
+    <t>taxi.lisichansk</t>
+  </si>
+  <si>
+    <t>Сергей</t>
   </si>
   <si>
     <t>479640061</t>
@@ -1067,40 +1190,22 @@
     <t>Marina Bezuglaya</t>
   </si>
   <si>
-    <t>1289460729</t>
-  </si>
-  <si>
-    <t>miss_kvitka</t>
-  </si>
-  <si>
-    <t>Julia Marushchenko</t>
-  </si>
-  <si>
-    <t>5592849355</t>
-  </si>
-  <si>
-    <t>chaosbest</t>
-  </si>
-  <si>
-    <t>Alexander Victorovich</t>
-  </si>
-  <si>
-    <t>17617023602</t>
-  </si>
-  <si>
-    <t>viacheslavrudenko34</t>
-  </si>
-  <si>
-    <t>Вячеслав Руденко</t>
-  </si>
-  <si>
-    <t>6537477830</t>
-  </si>
-  <si>
-    <t>darkward666</t>
-  </si>
-  <si>
-    <t>Дмитрий Слончинский</t>
+    <t>45649772571</t>
+  </si>
+  <si>
+    <t>nikita.startup</t>
+  </si>
+  <si>
+    <t>Никита Стартап</t>
+  </si>
+  <si>
+    <t>26666034377</t>
+  </si>
+  <si>
+    <t>yatsenko_1041_</t>
+  </si>
+  <si>
+    <t>Alex Yatsenko</t>
   </si>
   <si>
     <t>8628968557</t>
@@ -1112,13 +1217,178 @@
     <t>Сергей Цыбулин</t>
   </si>
   <si>
-    <t>4448583004</t>
-  </si>
-  <si>
-    <t>shevanton_</t>
-  </si>
-  <si>
-    <t>Toxa</t>
+    <t>8704514423</t>
+  </si>
+  <si>
+    <t>natik1285</t>
+  </si>
+  <si>
+    <t>Natalka</t>
+  </si>
+  <si>
+    <t>8941412338</t>
+  </si>
+  <si>
+    <t>lukina_lenchik</t>
+  </si>
+  <si>
+    <t>Елена Лукина</t>
+  </si>
+  <si>
+    <t>5518314093</t>
+  </si>
+  <si>
+    <t>lubyanitskii</t>
+  </si>
+  <si>
+    <t>Андрей Лубяницкий</t>
+  </si>
+  <si>
+    <t>46571608989</t>
+  </si>
+  <si>
+    <t>k.a_t_rin.photo</t>
+  </si>
+  <si>
+    <t>Екатерина</t>
+  </si>
+  <si>
+    <t>49695917410</t>
+  </si>
+  <si>
+    <t>msaltanovska</t>
+  </si>
+  <si>
+    <t>Marharyta Saltanovska</t>
+  </si>
+  <si>
+    <t>216391754</t>
+  </si>
+  <si>
+    <t>max._.makarenko</t>
+  </si>
+  <si>
+    <t>Max Makarenko</t>
+  </si>
+  <si>
+    <t>15227517688</t>
+  </si>
+  <si>
+    <t>travel_advant7</t>
+  </si>
+  <si>
+    <t>Турагенство онлайн</t>
+  </si>
+  <si>
+    <t>3298306558</t>
+  </si>
+  <si>
+    <t>katiushakhomut</t>
+  </si>
+  <si>
+    <t>Катюша Хомут</t>
+  </si>
+  <si>
+    <t>6503651182</t>
+  </si>
+  <si>
+    <t>sia_kardum</t>
+  </si>
+  <si>
+    <t>8636031716</t>
+  </si>
+  <si>
+    <t>alexxeiyyyy</t>
+  </si>
+  <si>
+    <t>Лёха Серебрянский</t>
+  </si>
+  <si>
+    <t>5682107042</t>
+  </si>
+  <si>
+    <t>timurryazantcev</t>
+  </si>
+  <si>
+    <t>Timur Ryazantcev</t>
+  </si>
+  <si>
+    <t>1535665604</t>
+  </si>
+  <si>
+    <t>haruspex1897</t>
+  </si>
+  <si>
+    <t>Valdemar Vynnyk</t>
+  </si>
+  <si>
+    <t>15854448013</t>
+  </si>
+  <si>
+    <t>sunrisehotel_official</t>
+  </si>
+  <si>
+    <t>Sunrise Hotel</t>
+  </si>
+  <si>
+    <t>45253615238</t>
+  </si>
+  <si>
+    <t>danileichenko_photo</t>
+  </si>
+  <si>
+    <t>Фотограф Лисичанск</t>
+  </si>
+  <si>
+    <t>43681973646</t>
+  </si>
+  <si>
+    <t>andruha2552</t>
+  </si>
+  <si>
+    <t>Андрей Удоденко</t>
+  </si>
+  <si>
+    <t>422554428</t>
+  </si>
+  <si>
+    <t>anastasiabugrim</t>
+  </si>
+  <si>
+    <t>27928412773</t>
+  </si>
+  <si>
+    <t>alphaburgerua</t>
+  </si>
+  <si>
+    <t>Alpha Burger</t>
+  </si>
+  <si>
+    <t>8995965862</t>
+  </si>
+  <si>
+    <t>ar_b0n</t>
+  </si>
+  <si>
+    <t>Артём Бондаренко</t>
+  </si>
+  <si>
+    <t>2955845920</t>
+  </si>
+  <si>
+    <t>roman_mironets</t>
+  </si>
+  <si>
+    <t>Роман Миронец</t>
+  </si>
+  <si>
+    <t>21842422587</t>
+  </si>
+  <si>
+    <t>boris_vaporsynth</t>
+  </si>
+  <si>
+    <t>Boris©</t>
   </si>
   <si>
     <t>3724731092</t>
@@ -1127,148 +1397,7 @@
     <t>oleg.pavliuk_</t>
   </si>
   <si>
-    <t>Oleg Pavliuk</t>
-  </si>
-  <si>
-    <t>44006848755</t>
-  </si>
-  <si>
-    <t>taxi.lisichansk</t>
-  </si>
-  <si>
-    <t>Сергей</t>
-  </si>
-  <si>
-    <t>9375328733</t>
-  </si>
-  <si>
-    <t>topspinshop.com.ua</t>
-  </si>
-  <si>
-    <t>ТОВАРЫ ДЛЯ НАСТОЛЬНОГО ТЕННИСА</t>
-  </si>
-  <si>
-    <t>5653354215</t>
-  </si>
-  <si>
-    <t>morris_my_life</t>
-  </si>
-  <si>
-    <t>Elena Revyakina</t>
-  </si>
-  <si>
-    <t>46571608989</t>
-  </si>
-  <si>
-    <t>k.a_t_rin.photo</t>
-  </si>
-  <si>
-    <t>Екатерина</t>
-  </si>
-  <si>
-    <t>2241082037</t>
-  </si>
-  <si>
-    <t>katiushka_kot</t>
-  </si>
-  <si>
-    <t>Катюшка</t>
-  </si>
-  <si>
-    <t>27928412773</t>
-  </si>
-  <si>
-    <t>alphaburgerua</t>
-  </si>
-  <si>
-    <t>Alpha Burger</t>
-  </si>
-  <si>
-    <t>8018318830</t>
-  </si>
-  <si>
-    <t>iliyamisevra</t>
-  </si>
-  <si>
-    <t>Илья Мисевра</t>
-  </si>
-  <si>
-    <t>8941412338</t>
-  </si>
-  <si>
-    <t>lukina_lenchik</t>
-  </si>
-  <si>
-    <t>Елена Лукина</t>
-  </si>
-  <si>
-    <t>1535665604</t>
-  </si>
-  <si>
-    <t>haruspex1897</t>
-  </si>
-  <si>
-    <t>Valdemar Vynnyk</t>
-  </si>
-  <si>
-    <t>15227517688</t>
-  </si>
-  <si>
-    <t>travel_advant7</t>
-  </si>
-  <si>
-    <t>Турагенство онлайн</t>
-  </si>
-  <si>
-    <t>2262155321</t>
-  </si>
-  <si>
-    <t>nastyaionenko</t>
-  </si>
-  <si>
-    <t>41902230851</t>
-  </si>
-  <si>
-    <t>timofei.kasianov1992</t>
-  </si>
-  <si>
-    <t>Timofei Kasianov</t>
-  </si>
-  <si>
-    <t>8704514423</t>
-  </si>
-  <si>
-    <t>natik1285</t>
-  </si>
-  <si>
-    <t>Natalka</t>
-  </si>
-  <si>
-    <t>216391754</t>
-  </si>
-  <si>
-    <t>max._.makarenko</t>
-  </si>
-  <si>
-    <t>Max Makarenko</t>
-  </si>
-  <si>
-    <t>5518314093</t>
-  </si>
-  <si>
-    <t>lubyanitskii</t>
-  </si>
-  <si>
-    <t>Андрей Лубяницкий</t>
-  </si>
-  <si>
-    <t>45253615238</t>
-  </si>
-  <si>
-    <t>danileichenko_photo</t>
-  </si>
-  <si>
-    <t>Фотограф Лисичанск</t>
+    <t>Олег Павлюк</t>
   </si>
   <si>
     <t>5496836121</t>
@@ -1280,28 +1409,166 @@
     <t>Karuchenko Dmitry</t>
   </si>
   <si>
-    <t>6503651182</t>
-  </si>
-  <si>
-    <t>sia_kardum</t>
-  </si>
-  <si>
-    <t>8636031716</t>
-  </si>
-  <si>
-    <t>alexxeiyyyy</t>
-  </si>
-  <si>
-    <t>Лёха Серебрянский</t>
-  </si>
-  <si>
-    <t>3298306558</t>
-  </si>
-  <si>
-    <t>katiushakhomut</t>
-  </si>
-  <si>
-    <t>Катюша Хомут</t>
+    <t>49513832996</t>
+  </si>
+  <si>
+    <t>olezhanskiy_official</t>
+  </si>
+  <si>
+    <t>Олег</t>
+  </si>
+  <si>
+    <t>9381435639</t>
+  </si>
+  <si>
+    <t>pashenko_lisihansk</t>
+  </si>
+  <si>
+    <t>Андрюха Пащенко</t>
+  </si>
+  <si>
+    <t>5823545291</t>
+  </si>
+  <si>
+    <t>artemkosyakevich</t>
+  </si>
+  <si>
+    <t>Artem  Kosyakevich</t>
+  </si>
+  <si>
+    <t>1548626158</t>
+  </si>
+  <si>
+    <t>mak.alina</t>
+  </si>
+  <si>
+    <t>Alina Mak</t>
+  </si>
+  <si>
+    <t>48859615591</t>
+  </si>
+  <si>
+    <t>_sam_semen_</t>
+  </si>
+  <si>
+    <t>Семён</t>
+  </si>
+  <si>
+    <t>387403619</t>
+  </si>
+  <si>
+    <t>wonka42</t>
+  </si>
+  <si>
+    <t>Gamedev, 3D, SMM, Travel</t>
+  </si>
+  <si>
+    <t>2953565099</t>
+  </si>
+  <si>
+    <t>treneraa</t>
+  </si>
+  <si>
+    <t>Александр Минин</t>
+  </si>
+  <si>
+    <t>8259933491</t>
+  </si>
+  <si>
+    <t>vitalii.ask</t>
+  </si>
+  <si>
+    <t>Vitalii</t>
+  </si>
+  <si>
+    <t>9198354873</t>
+  </si>
+  <si>
+    <t>tt.anastasiia</t>
+  </si>
+  <si>
+    <t>НАСТОЛЬНЫЙ ТЕННИС🏓 | ТРЕНЕР</t>
+  </si>
+  <si>
+    <t>324409988</t>
+  </si>
+  <si>
+    <t>shevtsov__denis</t>
+  </si>
+  <si>
+    <t>Видеограф | Видеосъемка</t>
+  </si>
+  <si>
+    <t>10685035713</t>
+  </si>
+  <si>
+    <t>vadimmisevra</t>
+  </si>
+  <si>
+    <t>Вадим Мисевра</t>
+  </si>
+  <si>
+    <t>8683534015</t>
+  </si>
+  <si>
+    <t>greenway.iko</t>
+  </si>
+  <si>
+    <t>🌍GREENWAY | ХАРЬКОВ🌍</t>
+  </si>
+  <si>
+    <t>4109924763</t>
+  </si>
+  <si>
+    <t>artem.koltunov</t>
+  </si>
+  <si>
+    <t>АРТЕМ КОЛТУНОВ | ПРОГРАММИСТ</t>
+  </si>
+  <si>
+    <t>48043873394</t>
+  </si>
+  <si>
+    <t>n.3d.design</t>
+  </si>
+  <si>
+    <t>N.design.3D</t>
+  </si>
+  <si>
+    <t>9262569068</t>
+  </si>
+  <si>
+    <t>homsters_</t>
+  </si>
+  <si>
+    <t>Homsters</t>
+  </si>
+  <si>
+    <t>4813340383</t>
+  </si>
+  <si>
+    <t>malashenko.80</t>
+  </si>
+  <si>
+    <t>Малашенко</t>
+  </si>
+  <si>
+    <t>18058295205</t>
+  </si>
+  <si>
+    <t>freedomclub_info</t>
+  </si>
+  <si>
+    <t>Авторские Туры| Канары| Бали|</t>
+  </si>
+  <si>
+    <t>5460808318</t>
+  </si>
+  <si>
+    <t>vladimirpolnikovtube</t>
+  </si>
+  <si>
+    <t>Vladimir Polnikov</t>
   </si>
   <si>
     <t>46426697374</t>
@@ -1313,208 +1580,40 @@
     <t>Abyssinian / Абиссинский cat</t>
   </si>
   <si>
-    <t>4872254528</t>
-  </si>
-  <si>
-    <t>podarki_podarki_podarki</t>
-  </si>
-  <si>
-    <t>Podarki Podarki</t>
-  </si>
-  <si>
-    <t>45649772571</t>
-  </si>
-  <si>
-    <t>nikita.startup</t>
-  </si>
-  <si>
-    <t>Никита Стартап</t>
-  </si>
-  <si>
-    <t>37347412681</t>
-  </si>
-  <si>
-    <t>balint_borsodi_eu_2032</t>
-  </si>
-  <si>
-    <t>Bælint Børsodi</t>
-  </si>
-  <si>
-    <t>39486630028</t>
-  </si>
-  <si>
-    <t>igorlenaverba</t>
-  </si>
-  <si>
-    <t>igorlena</t>
-  </si>
-  <si>
-    <t>8995965862</t>
-  </si>
-  <si>
-    <t>ar_b0n</t>
-  </si>
-  <si>
-    <t>Артём Бондаренко</t>
-  </si>
-  <si>
-    <t>9381435639</t>
-  </si>
-  <si>
-    <t>pashenko_lisihansk</t>
-  </si>
-  <si>
-    <t>Андрюха Пащенко</t>
-  </si>
-  <si>
-    <t>2955845920</t>
-  </si>
-  <si>
-    <t>roman_mironets</t>
-  </si>
-  <si>
-    <t>Роман Миронец</t>
-  </si>
-  <si>
-    <t>48043873394</t>
-  </si>
-  <si>
-    <t>n.3d.design</t>
-  </si>
-  <si>
-    <t>N.design.3D</t>
-  </si>
-  <si>
-    <t>43681973646</t>
-  </si>
-  <si>
-    <t>andruha2552</t>
-  </si>
-  <si>
-    <t>Андрей Удоденко</t>
-  </si>
-  <si>
-    <t>48859615591</t>
-  </si>
-  <si>
-    <t>_sam_semen_</t>
-  </si>
-  <si>
-    <t>Семён</t>
-  </si>
-  <si>
-    <t>15854448013</t>
-  </si>
-  <si>
-    <t>sunrisehotel_official</t>
-  </si>
-  <si>
-    <t>Sunrise Hotel</t>
-  </si>
-  <si>
-    <t>5682107042</t>
-  </si>
-  <si>
-    <t>timurryazantcev</t>
-  </si>
-  <si>
-    <t>Timur Ryazantcev</t>
-  </si>
-  <si>
-    <t>387403619</t>
-  </si>
-  <si>
-    <t>wonka42</t>
-  </si>
-  <si>
-    <t>Gamedev, 3D, SMM, Travel</t>
-  </si>
-  <si>
-    <t>5823545291</t>
-  </si>
-  <si>
-    <t>artemkosyakevich</t>
-  </si>
-  <si>
-    <t>Artem  Kosyakevich</t>
-  </si>
-  <si>
-    <t>2953565099</t>
-  </si>
-  <si>
-    <t>treneraa</t>
-  </si>
-  <si>
-    <t>Александр Минин</t>
-  </si>
-  <si>
-    <t>422554428</t>
-  </si>
-  <si>
-    <t>anastasiabugrim</t>
-  </si>
-  <si>
-    <t>26666034377</t>
-  </si>
-  <si>
-    <t>yatsenko_1041_</t>
-  </si>
-  <si>
-    <t>Alex Yatsenko</t>
-  </si>
-  <si>
-    <t>8683534015</t>
-  </si>
-  <si>
-    <t>greenway.iko</t>
-  </si>
-  <si>
-    <t>🌍GREENWAY | ХАРЬКОВ🌍</t>
-  </si>
-  <si>
-    <t>1548626158</t>
-  </si>
-  <si>
-    <t>mak.alina</t>
-  </si>
-  <si>
-    <t>Alina Mak</t>
-  </si>
-  <si>
-    <t>9198354873</t>
-  </si>
-  <si>
-    <t>tt.anastasiia</t>
-  </si>
-  <si>
-    <t>НАСТОЛЬНЫЙ ТЕННИС🏓 | ТРЕНЕР</t>
-  </si>
-  <si>
-    <t>8259933491</t>
-  </si>
-  <si>
-    <t>vitalii.ask</t>
-  </si>
-  <si>
-    <t>Vitalii</t>
-  </si>
-  <si>
-    <t>9262569068</t>
-  </si>
-  <si>
-    <t>homsters_</t>
-  </si>
-  <si>
-    <t>Homsters</t>
-  </si>
-  <si>
-    <t>21842422587</t>
-  </si>
-  <si>
-    <t>boris_vaporsynth</t>
-  </si>
-  <si>
-    <t>Boris©</t>
+    <t>10396754514</t>
+  </si>
+  <si>
+    <t>objavka.com_official</t>
+  </si>
+  <si>
+    <t>𝕠𝕓𝕛𝕒𝕧𝕜𝕒.𝕔𝕠𝕞</t>
+  </si>
+  <si>
+    <t>4316505861</t>
+  </si>
+  <si>
+    <t>bar.sputnik</t>
+  </si>
+  <si>
+    <t>🛰️ Sputnik</t>
+  </si>
+  <si>
+    <t>21967846913</t>
+  </si>
+  <si>
+    <t>malashenko608</t>
+  </si>
+  <si>
+    <t>Дмитрий Малашенко</t>
+  </si>
+  <si>
+    <t>6894521451</t>
+  </si>
+  <si>
+    <t>ri.lykova</t>
+  </si>
+  <si>
+    <t>Ирина Лыкова-Бондарева</t>
   </si>
   <si>
     <t>11881080270</t>
@@ -1526,58 +1625,157 @@
     <t>🌍Туристическое агентство🌏</t>
   </si>
   <si>
-    <t>18058295205</t>
-  </si>
-  <si>
-    <t>freedomclub_info</t>
-  </si>
-  <si>
-    <t>Авторские Туры| Канары| Бали|</t>
-  </si>
-  <si>
-    <t>4109924763</t>
-  </si>
-  <si>
-    <t>artem.koltunov</t>
-  </si>
-  <si>
-    <t>АРТЕМ КОЛТУНОВ | ПРОГРАММИСТ</t>
-  </si>
-  <si>
-    <t>4813340383</t>
-  </si>
-  <si>
-    <t>malashenko.80</t>
-  </si>
-  <si>
-    <t>Малашенко</t>
-  </si>
-  <si>
-    <t>21967846913</t>
-  </si>
-  <si>
-    <t>malashenko608</t>
-  </si>
-  <si>
-    <t>Дмитрий Малашенко</t>
-  </si>
-  <si>
-    <t>10396754514</t>
-  </si>
-  <si>
-    <t>objavka.com_official</t>
-  </si>
-  <si>
-    <t>𝕠𝕓𝕛𝕒𝕧𝕜𝕒.𝕔𝕠𝕞</t>
-  </si>
-  <si>
-    <t>5460808318</t>
-  </si>
-  <si>
-    <t>vladimirpolnikovtube</t>
-  </si>
-  <si>
-    <t>Vladimir Polnikov</t>
+    <t>3085152173</t>
+  </si>
+  <si>
+    <t>dream_motor</t>
+  </si>
+  <si>
+    <t>Авто из Канады и США под Заказ</t>
+  </si>
+  <si>
+    <t>31214092681</t>
+  </si>
+  <si>
+    <t>joolaportugal</t>
+  </si>
+  <si>
+    <t>Joola Portugal</t>
+  </si>
+  <si>
+    <t>46084843138</t>
+  </si>
+  <si>
+    <t>sigfox_ukraine</t>
+  </si>
+  <si>
+    <t>Sigfox Ukraine</t>
+  </si>
+  <si>
+    <t>2921724163</t>
+  </si>
+  <si>
+    <t>vsamsonov_tt</t>
+  </si>
+  <si>
+    <t>Official  Vladimir samsonov</t>
+  </si>
+  <si>
+    <t>4286104321</t>
+  </si>
+  <si>
+    <t>anatoliilegkii</t>
+  </si>
+  <si>
+    <t>Анатолий Легкий</t>
+  </si>
+  <si>
+    <t>11400401285</t>
+  </si>
+  <si>
+    <t>obuvnoi.store</t>
+  </si>
+  <si>
+    <t>Магазин обуви</t>
+  </si>
+  <si>
+    <t>3509164846</t>
+  </si>
+  <si>
+    <t>svarog_hard</t>
+  </si>
+  <si>
+    <t>CDR~SVAROG~</t>
+  </si>
+  <si>
+    <t>31691424063</t>
+  </si>
+  <si>
+    <t>fantastic_tushina</t>
+  </si>
+  <si>
+    <t>Наталья Тушина</t>
+  </si>
+  <si>
+    <t>39464492841</t>
+  </si>
+  <si>
+    <t>_beer_alley_</t>
+  </si>
+  <si>
+    <t>Пивная Аллея</t>
+  </si>
+  <si>
+    <t>188841268</t>
+  </si>
+  <si>
+    <t>zeotron_art</t>
+  </si>
+  <si>
+    <t>Roma🌿</t>
+  </si>
+  <si>
+    <t>7772209292</t>
+  </si>
+  <si>
+    <t>boiko317</t>
+  </si>
+  <si>
+    <t>Виктор Бойко</t>
+  </si>
+  <si>
+    <t>12066720422</t>
+  </si>
+  <si>
+    <t>olegzh9</t>
+  </si>
+  <si>
+    <t>Олег ж</t>
+  </si>
+  <si>
+    <t>6500858559</t>
+  </si>
+  <si>
+    <t>tajhribnikolaj</t>
+  </si>
+  <si>
+    <t>45158586527</t>
+  </si>
+  <si>
+    <t>sirozhkovlad</t>
+  </si>
+  <si>
+    <t>3969814310</t>
+  </si>
+  <si>
+    <t>kn1jon</t>
+  </si>
+  <si>
+    <t>Aleksandr Knizhnik</t>
+  </si>
+  <si>
+    <t>513542139</t>
+  </si>
+  <si>
+    <t>lizohka44</t>
+  </si>
+  <si>
+    <t>Елизавета Лебедка</t>
+  </si>
+  <si>
+    <t>43604926039</t>
+  </si>
+  <si>
+    <t>ttdpocketrocket</t>
+  </si>
+  <si>
+    <t>Pocket Rocket 🚀</t>
+  </si>
+  <si>
+    <t>9039668697</t>
+  </si>
+  <si>
+    <t>wincuptt</t>
   </si>
   <si>
     <t>3131549598</t>
@@ -1589,145 +1787,13 @@
     <t>Safe4u Germany</t>
   </si>
   <si>
-    <t>6894521451</t>
-  </si>
-  <si>
-    <t>ri.lykova</t>
-  </si>
-  <si>
-    <t>Irina Lykova</t>
-  </si>
-  <si>
-    <t>324409988</t>
-  </si>
-  <si>
-    <t>shevtsov__denis</t>
-  </si>
-  <si>
-    <t>Видеограф | Видеосъемка</t>
-  </si>
-  <si>
-    <t>3085152173</t>
-  </si>
-  <si>
-    <t>dream_motor</t>
-  </si>
-  <si>
-    <t>Авто из Канады и США под Заказ</t>
-  </si>
-  <si>
-    <t>31214092681</t>
-  </si>
-  <si>
-    <t>joolaportugal</t>
-  </si>
-  <si>
-    <t>joola portugal</t>
-  </si>
-  <si>
-    <t>2921724163</t>
-  </si>
-  <si>
-    <t>vsamsonov_tt</t>
-  </si>
-  <si>
-    <t>Official  Vladimir samsonov</t>
-  </si>
-  <si>
-    <t>39464492841</t>
-  </si>
-  <si>
-    <t>_beer_alley_</t>
-  </si>
-  <si>
-    <t>Пивная Аллея</t>
-  </si>
-  <si>
-    <t>4316505861</t>
-  </si>
-  <si>
-    <t>bar.sputnik</t>
-  </si>
-  <si>
-    <t>🛰️ Sputnik</t>
-  </si>
-  <si>
-    <t>10685035713</t>
-  </si>
-  <si>
-    <t>vadimmisevra</t>
-  </si>
-  <si>
-    <t>Вадим Мисевра</t>
-  </si>
-  <si>
-    <t>3509164846</t>
-  </si>
-  <si>
-    <t>svarog_hard</t>
-  </si>
-  <si>
-    <t>CDR~SVAROG~</t>
-  </si>
-  <si>
-    <t>4286104321</t>
-  </si>
-  <si>
-    <t>anatoliilegkii</t>
-  </si>
-  <si>
-    <t>Анатолий Легкий</t>
-  </si>
-  <si>
-    <t>46084843138</t>
-  </si>
-  <si>
-    <t>sigfox_ukraine</t>
-  </si>
-  <si>
-    <t>Sigfox Ukraine</t>
-  </si>
-  <si>
-    <t>3969814310</t>
-  </si>
-  <si>
-    <t>kn1jon</t>
-  </si>
-  <si>
-    <t>Aleksandr Knizhnik</t>
-  </si>
-  <si>
-    <t>12066720422</t>
-  </si>
-  <si>
-    <t>olegzh9</t>
-  </si>
-  <si>
-    <t>Олег ж</t>
-  </si>
-  <si>
-    <t>43604926039</t>
-  </si>
-  <si>
-    <t>ttdpocketrocket</t>
-  </si>
-  <si>
-    <t>Pocket Rocket 🚀</t>
-  </si>
-  <si>
-    <t>7772209292</t>
-  </si>
-  <si>
-    <t>boiko317</t>
-  </si>
-  <si>
-    <t>Виктор Бойко</t>
-  </si>
-  <si>
-    <t>45158586527</t>
-  </si>
-  <si>
-    <t>sirozhkovlad</t>
+    <t>7941480640</t>
+  </si>
+  <si>
+    <t>alexandr.hard</t>
+  </si>
+  <si>
+    <t>Харжевский Александр</t>
   </si>
   <si>
     <t>45413292705</t>
@@ -1739,22 +1805,76 @@
     <t>Турагенство "Sunmart travel"</t>
   </si>
   <si>
-    <t>513542139</t>
-  </si>
-  <si>
-    <t>lizohka44</t>
-  </si>
-  <si>
-    <t>Елизавета Лебедка</t>
-  </si>
-  <si>
-    <t>188841268</t>
-  </si>
-  <si>
-    <t>zeotron_art</t>
-  </si>
-  <si>
-    <t>Roma🌿</t>
+    <t>3887126646</t>
+  </si>
+  <si>
+    <t>nikodim_don</t>
+  </si>
+  <si>
+    <t>Никодим</t>
+  </si>
+  <si>
+    <t>10460165601</t>
+  </si>
+  <si>
+    <t>nora.6608</t>
+  </si>
+  <si>
+    <t>Nora</t>
+  </si>
+  <si>
+    <t>4351895021</t>
+  </si>
+  <si>
+    <t>wantedloneliness</t>
+  </si>
+  <si>
+    <t>ひらめき</t>
+  </si>
+  <si>
+    <t>47696463513</t>
+  </si>
+  <si>
+    <t>ttsmashcity</t>
+  </si>
+  <si>
+    <t>Table Tennis Smash🏓 City</t>
+  </si>
+  <si>
+    <t>5487997204</t>
+  </si>
+  <si>
+    <t>photographer_mariya_gorbenko</t>
+  </si>
+  <si>
+    <t>Мария Горбенко</t>
+  </si>
+  <si>
+    <t>2620587772</t>
+  </si>
+  <si>
+    <t>nadinefrasiak</t>
+  </si>
+  <si>
+    <t>Nadine Frasiak</t>
+  </si>
+  <si>
+    <t>39693408069</t>
+  </si>
+  <si>
+    <t>sister_sun</t>
+  </si>
+  <si>
+    <t>Olivia</t>
+  </si>
+  <si>
+    <t>10839302341</t>
+  </si>
+  <si>
+    <t>hardcorehudson</t>
+  </si>
+  <si>
+    <t>H. Hudson</t>
   </si>
   <si>
     <t>1279094186</t>
@@ -1766,46 +1886,85 @@
     <t>ПРОГРАММИСТ | JAVA DEVELOPER</t>
   </si>
   <si>
-    <t>39693408069</t>
-  </si>
-  <si>
-    <t>sister_sun</t>
-  </si>
-  <si>
-    <t>Olivia</t>
-  </si>
-  <si>
-    <t>11400401285</t>
-  </si>
-  <si>
-    <t>ataman.shop.new</t>
-  </si>
-  <si>
-    <t>КРОССОВКИ УКРАИНА</t>
-  </si>
-  <si>
-    <t>31691424063</t>
-  </si>
-  <si>
-    <t>fantastic_tushina</t>
-  </si>
-  <si>
-    <t>Наталья Тушина</t>
-  </si>
-  <si>
-    <t>10460165601</t>
-  </si>
-  <si>
-    <t>nora.6608</t>
-  </si>
-  <si>
-    <t>Nora</t>
-  </si>
-  <si>
-    <t>6500858559</t>
-  </si>
-  <si>
-    <t>tajhribnikolaj</t>
+    <t>4772787868</t>
+  </si>
+  <si>
+    <t>7_seas_tour</t>
+  </si>
+  <si>
+    <t>Турагентство "7 МОРЕЙ тур"</t>
+  </si>
+  <si>
+    <t>7295786599</t>
+  </si>
+  <si>
+    <t>everrest_touring</t>
+  </si>
+  <si>
+    <t>ТУРАГЕНТСТВО ХАРЬКОВ</t>
+  </si>
+  <si>
+    <t>454116557</t>
+  </si>
+  <si>
+    <t>crystalcastles</t>
+  </si>
+  <si>
+    <t>Crystal Castles</t>
+  </si>
+  <si>
+    <t>37337003520</t>
+  </si>
+  <si>
+    <t>apextech.co</t>
+  </si>
+  <si>
+    <t>Driven by Synergy</t>
+  </si>
+  <si>
+    <t>7119623838</t>
+  </si>
+  <si>
+    <t>tt4u.com.ua</t>
+  </si>
+  <si>
+    <t>Table Tennis For You</t>
+  </si>
+  <si>
+    <t>4627256829</t>
+  </si>
+  <si>
+    <t>tatoopavel1975tatooirovka</t>
+  </si>
+  <si>
+    <t>Леванов  Павел</t>
+  </si>
+  <si>
+    <t>11767951021</t>
+  </si>
+  <si>
+    <t>foxminded.ua</t>
+  </si>
+  <si>
+    <t>Курсы программирования ОНЛАЙН</t>
+  </si>
+  <si>
+    <t>8702332531</t>
+  </si>
+  <si>
+    <t>fantastikys</t>
+  </si>
+  <si>
+    <t>Лучшая современная фантастика</t>
+  </si>
+  <si>
+    <t>691900162</t>
+  </si>
+  <si>
+    <t>destabilizers.io</t>
+  </si>
+  <si>
+    <t>D3STΛB1LIZED</t>
   </si>
   <si>
     <t>16127390313</t>
@@ -1817,85 +1976,76 @@
     <t>Лилия</t>
   </si>
   <si>
-    <t>3887126646</t>
-  </si>
-  <si>
-    <t>nikodim_don</t>
-  </si>
-  <si>
-    <t>Никодим</t>
-  </si>
-  <si>
-    <t>7941480640</t>
-  </si>
-  <si>
-    <t>alexandr.hard</t>
-  </si>
-  <si>
-    <t>Харжевский Александр</t>
-  </si>
-  <si>
-    <t>454116557</t>
-  </si>
-  <si>
-    <t>crystalcastles</t>
-  </si>
-  <si>
-    <t>Crystal Castles</t>
-  </si>
-  <si>
-    <t>5487997204</t>
-  </si>
-  <si>
-    <t>photographer_mariya_gorbenko</t>
-  </si>
-  <si>
-    <t>Мария Горбенко</t>
-  </si>
-  <si>
-    <t>4351895021</t>
-  </si>
-  <si>
-    <t>wantedloneliness</t>
-  </si>
-  <si>
-    <t>ひらめき</t>
-  </si>
-  <si>
-    <t>37337003520</t>
-  </si>
-  <si>
-    <t>apextech.co</t>
-  </si>
-  <si>
-    <t>Driven by Synergy</t>
-  </si>
-  <si>
-    <t>2620587772</t>
-  </si>
-  <si>
-    <t>nadinefrasiak</t>
-  </si>
-  <si>
-    <t>Nadine Frasiak</t>
-  </si>
-  <si>
-    <t>47696463513</t>
-  </si>
-  <si>
-    <t>ttsmashcity</t>
-  </si>
-  <si>
-    <t>TT Smash🏓 City</t>
-  </si>
-  <si>
-    <t>10839302341</t>
-  </si>
-  <si>
-    <t>hardcorehudson</t>
-  </si>
-  <si>
-    <t>H. Hudson</t>
+    <t>4192347652</t>
+  </si>
+  <si>
+    <t>homatravel</t>
+  </si>
+  <si>
+    <t>Максон Власов</t>
+  </si>
+  <si>
+    <t>8914189722</t>
+  </si>
+  <si>
+    <t>travel_mir_kharkov</t>
+  </si>
+  <si>
+    <t>Юлия | Туры Харьков</t>
+  </si>
+  <si>
+    <t>9848203195</t>
+  </si>
+  <si>
+    <t>ramennaya</t>
+  </si>
+  <si>
+    <t>ПЕРША РАМЕННА У ХАРКОВІ</t>
+  </si>
+  <si>
+    <t>224289567</t>
+  </si>
+  <si>
+    <t>ciklum</t>
+  </si>
+  <si>
+    <t>Ciklum</t>
+  </si>
+  <si>
+    <t>4531718038</t>
+  </si>
+  <si>
+    <t>movienight_kh</t>
+  </si>
+  <si>
+    <t>MOVIENIGHT🌙 ХАРЬКОВ</t>
+  </si>
+  <si>
+    <t>3956301784</t>
+  </si>
+  <si>
+    <t>selyuki_official</t>
+  </si>
+  <si>
+    <t>Блаженное село</t>
+  </si>
+  <si>
+    <t>13461163012</t>
+  </si>
+  <si>
+    <t>home_taverna</t>
+  </si>
+  <si>
+    <t>Доставка еды Харьков</t>
+  </si>
+  <si>
+    <t>938822840</t>
+  </si>
+  <si>
+    <t>paranoia.tat</t>
+  </si>
+  <si>
+    <t>ᴏʟʏᴀ ᴘᴀʀᴀsᴏᴄʜᴋᴀ</t>
   </si>
   <si>
     <t>1282733316</t>
@@ -1907,40 +2057,22 @@
     <t>©©©</t>
   </si>
   <si>
-    <t>4627256829</t>
-  </si>
-  <si>
-    <t>pavel1975tatooirovka</t>
-  </si>
-  <si>
-    <t>Леванов  Павел</t>
-  </si>
-  <si>
-    <t>4739087564</t>
-  </si>
-  <si>
-    <t>comrade.goose</t>
-  </si>
-  <si>
-    <t>Товарищ Гусь. (18+)</t>
-  </si>
-  <si>
-    <t>7295786599</t>
-  </si>
-  <si>
-    <t>everrest_touring</t>
-  </si>
-  <si>
-    <t>ТУРАГЕНТСТВО ХАРЬКОВ</t>
-  </si>
-  <si>
-    <t>4772787868</t>
-  </si>
-  <si>
-    <t>7_seas_tour</t>
-  </si>
-  <si>
-    <t>Турагентство "7 МОРЕЙ тур"</t>
+    <t>438378992</t>
+  </si>
+  <si>
+    <t>lukhashdotcom</t>
+  </si>
+  <si>
+    <t>LukHash</t>
+  </si>
+  <si>
+    <t>4963387845</t>
+  </si>
+  <si>
+    <t>marya_leontyeva</t>
+  </si>
+  <si>
+    <t>Коуч-достигатор</t>
   </si>
   <si>
     <t>6857856729</t>
@@ -1952,105 +2084,6 @@
     <t>Сухофрукты,орехи по Украине</t>
   </si>
   <si>
-    <t>8702332531</t>
-  </si>
-  <si>
-    <t>fantastikys</t>
-  </si>
-  <si>
-    <t>Лучшая современная фантастика</t>
-  </si>
-  <si>
-    <t>4963387845</t>
-  </si>
-  <si>
-    <t>marya_leontyeva</t>
-  </si>
-  <si>
-    <t>Коучинг/ женский мастер-клуб</t>
-  </si>
-  <si>
-    <t>8914189722</t>
-  </si>
-  <si>
-    <t>travel_mir_kharkov</t>
-  </si>
-  <si>
-    <t>Юлия | Туры Харьков</t>
-  </si>
-  <si>
-    <t>13461163012</t>
-  </si>
-  <si>
-    <t>home_taverna</t>
-  </si>
-  <si>
-    <t>Доставка еды Харьков</t>
-  </si>
-  <si>
-    <t>9848203195</t>
-  </si>
-  <si>
-    <t>ramennaya</t>
-  </si>
-  <si>
-    <t>ПЕРША РАМЕННА У ХАРКОВІ</t>
-  </si>
-  <si>
-    <t>691900162</t>
-  </si>
-  <si>
-    <t>destabilizers.io</t>
-  </si>
-  <si>
-    <t>D3STΛB1LIZED</t>
-  </si>
-  <si>
-    <t>938822840</t>
-  </si>
-  <si>
-    <t>paranoia.tat</t>
-  </si>
-  <si>
-    <t>ᴏʟʏᴀ ᴘᴀʀᴀsᴏᴄʜᴋᴀ</t>
-  </si>
-  <si>
-    <t>4531718038</t>
-  </si>
-  <si>
-    <t>movienight_kh</t>
-  </si>
-  <si>
-    <t>MOVIENIGHT🌙 ХАРЬКОВ</t>
-  </si>
-  <si>
-    <t>224289567</t>
-  </si>
-  <si>
-    <t>ciklum</t>
-  </si>
-  <si>
-    <t>Ciklum</t>
-  </si>
-  <si>
-    <t>4192347652</t>
-  </si>
-  <si>
-    <t>homatravel</t>
-  </si>
-  <si>
-    <t>Максон Власов</t>
-  </si>
-  <si>
-    <t>438378992</t>
-  </si>
-  <si>
-    <t>lukhashdotcom</t>
-  </si>
-  <si>
-    <t>LukHash</t>
-  </si>
-  <si>
     <t>1323501355</t>
   </si>
   <si>
@@ -2060,6 +2093,33 @@
     <t>ОСНОВАТЕЛЬ SHPAGAT.TEAM</t>
   </si>
   <si>
+    <t>15537004820</t>
+  </si>
+  <si>
+    <t>_double.cheese_</t>
+  </si>
+  <si>
+    <t>Доставка піци | Харків</t>
+  </si>
+  <si>
+    <t>27030660796</t>
+  </si>
+  <si>
+    <t>huevuy_ukraine</t>
+  </si>
+  <si>
+    <t>ХУкраина</t>
+  </si>
+  <si>
+    <t>314372975</t>
+  </si>
+  <si>
+    <t>tiagoapolonia</t>
+  </si>
+  <si>
+    <t>Tiago Apolónia - Table Tennis</t>
+  </si>
+  <si>
     <t>7399392982</t>
   </si>
   <si>
@@ -2069,22 +2129,49 @@
     <t>╚═════ஜ 💚3ch💚 ஜ═════╝</t>
   </si>
   <si>
-    <t>11767951021</t>
-  </si>
-  <si>
-    <t>foxminded.ua</t>
-  </si>
-  <si>
-    <t>Курсы программирования ОНЛАЙН</t>
-  </si>
-  <si>
-    <t>15537004820</t>
-  </si>
-  <si>
-    <t>_double.cheese_</t>
-  </si>
-  <si>
-    <t>Доставка піци | Харків</t>
+    <t>1797820041</t>
+  </si>
+  <si>
+    <t>tt.cup</t>
+  </si>
+  <si>
+    <t>TT Cup</t>
+  </si>
+  <si>
+    <t>1506640563</t>
+  </si>
+  <si>
+    <t>jizn_bol_video</t>
+  </si>
+  <si>
+    <t>Экстремально! Весело! Красиво!</t>
+  </si>
+  <si>
+    <t>2321849468</t>
+  </si>
+  <si>
+    <t>valerie__travel</t>
+  </si>
+  <si>
+    <t>Турагентство Харьков🌏</t>
+  </si>
+  <si>
+    <t>4190933959</t>
+  </si>
+  <si>
+    <t>redress.journal</t>
+  </si>
+  <si>
+    <t>#REDRESS JOURNAL</t>
+  </si>
+  <si>
+    <t>174970748</t>
+  </si>
+  <si>
+    <t>_.benditkis._</t>
+  </si>
+  <si>
+    <t>Igor Benditkis</t>
   </si>
   <si>
     <t>42339566504</t>
@@ -2096,31 +2183,55 @@
     <t>nofancyshit</t>
   </si>
   <si>
-    <t>1797820041</t>
-  </si>
-  <si>
-    <t>tt.cup</t>
-  </si>
-  <si>
-    <t>TT Cup</t>
-  </si>
-  <si>
-    <t>3956301784</t>
-  </si>
-  <si>
-    <t>selyuki_official</t>
-  </si>
-  <si>
-    <t>Блаженное село</t>
-  </si>
-  <si>
-    <t>174970748</t>
-  </si>
-  <si>
-    <t>_.benditkis._</t>
-  </si>
-  <si>
-    <t>Igor Benditkis</t>
+    <t>1070096815</t>
+  </si>
+  <si>
+    <t>jetbrains</t>
+  </si>
+  <si>
+    <t>JetBrains</t>
+  </si>
+  <si>
+    <t>29188644182</t>
+  </si>
+  <si>
+    <t>sun_dali_travel</t>
+  </si>
+  <si>
+    <t>ТУРАГЕНТСТВО-ТУРЫ-ХАРЬКОВ🔝</t>
+  </si>
+  <si>
+    <t>722423750</t>
+  </si>
+  <si>
+    <t>_ebatt</t>
+  </si>
+  <si>
+    <t>eBaTT</t>
+  </si>
+  <si>
+    <t>1027945159</t>
+  </si>
+  <si>
+    <t>kierandoesthings</t>
+  </si>
+  <si>
+    <t>Kmac2021</t>
+  </si>
+  <si>
+    <t>488697530</t>
+  </si>
+  <si>
+    <t>eldarbroadway</t>
+  </si>
+  <si>
+    <t>Эльдар Бродвей</t>
+  </si>
+  <si>
+    <t>2288579411</t>
+  </si>
+  <si>
+    <t>kyivmusicfilm</t>
   </si>
   <si>
     <t>45497625272</t>
@@ -2132,31 +2243,40 @@
     <t>Адвокат</t>
   </si>
   <si>
-    <t>1506640563</t>
-  </si>
-  <si>
-    <t>jizn_bol_video</t>
-  </si>
-  <si>
-    <t>Экстремально! Весело! Красиво!</t>
-  </si>
-  <si>
-    <t>4190933959</t>
-  </si>
-  <si>
-    <t>redress.journal</t>
-  </si>
-  <si>
-    <t>#REDRESS JOURNAL</t>
-  </si>
-  <si>
-    <t>1027945159</t>
-  </si>
-  <si>
-    <t>kierandoesthings</t>
-  </si>
-  <si>
-    <t>Kmac2021</t>
+    <t>3428979023</t>
+  </si>
+  <si>
+    <t>red.forest.leather</t>
+  </si>
+  <si>
+    <t>RED FOREST</t>
+  </si>
+  <si>
+    <t>3432795339</t>
+  </si>
+  <si>
+    <t>trimer_shop</t>
+  </si>
+  <si>
+    <t>Машинки для стрижки / Триммеры</t>
+  </si>
+  <si>
+    <t>327748958</t>
+  </si>
+  <si>
+    <t>omarassar</t>
+  </si>
+  <si>
+    <t>Omar Assar عمر عصر</t>
+  </si>
+  <si>
+    <t>12857421710</t>
+  </si>
+  <si>
+    <t>neural_tp</t>
+  </si>
+  <si>
+    <t>Илона Нейро</t>
   </si>
   <si>
     <t>39690991651</t>
@@ -2168,82 +2288,103 @@
     <t>𝙄𝙜𝙤𝙧' 𝙃𝙤𝙙𝙮𝙪𝙠</t>
   </si>
   <si>
-    <t>17036010</t>
-  </si>
-  <si>
-    <t>mujuice</t>
-  </si>
-  <si>
-    <t>MUJUICE</t>
-  </si>
-  <si>
-    <t>29188644182</t>
-  </si>
-  <si>
-    <t>sun_dali_travel</t>
-  </si>
-  <si>
-    <t>ТУРАГЕНТСТВО-ТУРЫ-ХАРЬКОВ🔝</t>
-  </si>
-  <si>
-    <t>488697530</t>
-  </si>
-  <si>
-    <t>eldarbroadway</t>
-  </si>
-  <si>
-    <t>Эльдар Бродвей</t>
-  </si>
-  <si>
-    <t>314372975</t>
-  </si>
-  <si>
-    <t>tiagoapolonia</t>
-  </si>
-  <si>
-    <t>Tiago Apolónia - Table Tennis</t>
-  </si>
-  <si>
-    <t>2321849468</t>
-  </si>
-  <si>
-    <t>valerie__travel</t>
-  </si>
-  <si>
-    <t>Турагентство Харьков🌏</t>
-  </si>
-  <si>
-    <t>3432795339</t>
-  </si>
-  <si>
-    <t>trimer_shop</t>
-  </si>
-  <si>
-    <t>Машинки для стрижки / Триммеры</t>
-  </si>
-  <si>
-    <t>1070096815</t>
-  </si>
-  <si>
-    <t>jetbrains</t>
-  </si>
-  <si>
-    <t>JetBrains</t>
-  </si>
-  <si>
-    <t>12857421710</t>
-  </si>
-  <si>
-    <t>neural_tp</t>
-  </si>
-  <si>
-    <t>Илона Нейро</t>
-  </si>
-  <si>
-    <t>2288579411</t>
-  </si>
-  <si>
-    <t>kyivmusicfilm</t>
+    <t>248142126</t>
+  </si>
+  <si>
+    <t>stigatabletennis</t>
+  </si>
+  <si>
+    <t>STIGA Table Tennis</t>
+  </si>
+  <si>
+    <t>27931275153</t>
+  </si>
+  <si>
+    <t>yaje.mama</t>
+  </si>
+  <si>
+    <t>Я ЖЕ МАТЬ 💁‍♀️</t>
+  </si>
+  <si>
+    <t>8166483174</t>
+  </si>
+  <si>
+    <t>critical.mask</t>
+  </si>
+  <si>
+    <t>Teo Pulgar - Assemblage Artist</t>
+  </si>
+  <si>
+    <t>6318102721</t>
+  </si>
+  <si>
+    <t>trash.hot</t>
+  </si>
+  <si>
+    <t>👇ПРОДОЛЖЕНИЕ У НАС👇</t>
+  </si>
+  <si>
+    <t>16111206735</t>
+  </si>
+  <si>
+    <t>vinogradovtt</t>
+  </si>
+  <si>
+    <t>𝓥𝓲𝓷𝓸𝓰𝓻𝓪𝓭𝓸𝓿 𝓟𝓪𝓿𝓮𝓵</t>
+  </si>
+  <si>
+    <t>1484054018</t>
+  </si>
+  <si>
+    <t>nemi_roman</t>
+  </si>
+  <si>
+    <t>Роман Немычников</t>
+  </si>
+  <si>
+    <t>7301114783</t>
+  </si>
+  <si>
+    <t>doctor_radion</t>
+  </si>
+  <si>
+    <t>Вертебролог.Невролог.Остеопат</t>
+  </si>
+  <si>
+    <t>42613699744</t>
+  </si>
+  <si>
+    <t>mindset4freedom</t>
+  </si>
+  <si>
+    <t>Stergios | Business Specialist</t>
+  </si>
+  <si>
+    <t>6344984705</t>
+  </si>
+  <si>
+    <t>kharkov_24_7</t>
+  </si>
+  <si>
+    <t>Харьков 24/7</t>
+  </si>
+  <si>
+    <t>6166113347</t>
+  </si>
+  <si>
+    <t>timoboll</t>
+  </si>
+  <si>
+    <t>Timo Boll</t>
+  </si>
+  <si>
+    <t>201467759</t>
+  </si>
+  <si>
+    <t>_brunatakahashi</t>
+  </si>
+  <si>
+    <t>Bruna takahashi</t>
   </si>
   <si>
     <t>3408971671</t>
@@ -2255,31 +2396,58 @@
     <t>🌔 Kamil Szpejenkowski 🌖</t>
   </si>
   <si>
-    <t>3428979023</t>
-  </si>
-  <si>
-    <t>red.forest.leather</t>
-  </si>
-  <si>
-    <t>RED FOREST</t>
-  </si>
-  <si>
-    <t>7301114783</t>
-  </si>
-  <si>
-    <t>doctor_radion</t>
-  </si>
-  <si>
-    <t>Вертебролог.Невролог.Остеопат</t>
-  </si>
-  <si>
-    <t>327748958</t>
-  </si>
-  <si>
-    <t>omarassar</t>
-  </si>
-  <si>
-    <t>Omar Assar عمر عصر</t>
+    <t>21816368222</t>
+  </si>
+  <si>
+    <t>karnaval.tv</t>
+  </si>
+  <si>
+    <t>ЗАЯВКИ ПРИНИМАЕМ МГНОВЕННО ‼️</t>
+  </si>
+  <si>
+    <t>5756884828</t>
+  </si>
+  <si>
+    <t>butterflyttofficial</t>
+  </si>
+  <si>
+    <t>Butterfly Table Tennis</t>
+  </si>
+  <si>
+    <t>3612823573</t>
+  </si>
+  <si>
+    <t>sabelgera</t>
+  </si>
+  <si>
+    <t>Руслан Сабельгера</t>
+  </si>
+  <si>
+    <t>3564283161</t>
+  </si>
+  <si>
+    <t>arlen.boss</t>
+  </si>
+  <si>
+    <t>ARLEN BOSS😎</t>
+  </si>
+  <si>
+    <t>52047920</t>
+  </si>
+  <si>
+    <t>tabletennisdaily</t>
+  </si>
+  <si>
+    <t>TableTennisDaily 🏓</t>
+  </si>
+  <si>
+    <t>283664353</t>
+  </si>
+  <si>
+    <t>mariiarichard</t>
+  </si>
+  <si>
+    <t>🥢🎎Мария Ричард 🇯🇵🍣</t>
   </si>
   <si>
     <t>2035208589</t>
@@ -2291,94 +2459,49 @@
     <t>🔞С ПЕТЕЙ ЛУЧШЕ ЧЕМ В ШКОЛЕ🔞</t>
   </si>
   <si>
-    <t>248142126</t>
-  </si>
-  <si>
-    <t>stigatabletennis</t>
-  </si>
-  <si>
-    <t>STIGA Table Tennis</t>
-  </si>
-  <si>
-    <t>6344984705</t>
-  </si>
-  <si>
-    <t>kharkov_24_7</t>
-  </si>
-  <si>
-    <t>Харьков 24/7</t>
-  </si>
-  <si>
-    <t>2982158557</t>
-  </si>
-  <si>
-    <t>neo.rock</t>
-  </si>
-  <si>
-    <t>Рок 😈</t>
-  </si>
-  <si>
-    <t>10106677553</t>
-  </si>
-  <si>
-    <t>advocatprava</t>
-  </si>
-  <si>
-    <t>Tg-канал "Адвокат Права" ⚖️</t>
-  </si>
-  <si>
-    <t>42613699744</t>
-  </si>
-  <si>
-    <t>mindset4freedom</t>
-  </si>
-  <si>
-    <t>Stergios | Business Specialist</t>
-  </si>
-  <si>
-    <t>6166113347</t>
-  </si>
-  <si>
-    <t>timoboll</t>
-  </si>
-  <si>
-    <t>Timo Boll</t>
-  </si>
-  <si>
-    <t>6318102721</t>
-  </si>
-  <si>
-    <t>trash.hot</t>
-  </si>
-  <si>
-    <t>👇ПРОДОЛЖЕНИЕ У НАС👇</t>
-  </si>
-  <si>
-    <t>21816368222</t>
-  </si>
-  <si>
-    <t>karnaval.tv</t>
-  </si>
-  <si>
-    <t>ЗАЯВКИ ПРИНИМАЕМ МГНОВЕННО ‼️</t>
-  </si>
-  <si>
-    <t>5756884828</t>
-  </si>
-  <si>
-    <t>butterflyttofficial</t>
-  </si>
-  <si>
-    <t>Butterfly Table Tennis</t>
-  </si>
-  <si>
-    <t>1484054018</t>
-  </si>
-  <si>
-    <t>nemi_roman</t>
-  </si>
-  <si>
-    <t>я ʀᴏᴍᴀɴ 🙆🏼‍♂️</t>
+    <t>410092223</t>
+  </si>
+  <si>
+    <t>official_juliavolkova</t>
+  </si>
+  <si>
+    <t>Julia Volkova | Юля Волкова</t>
+  </si>
+  <si>
+    <t>3086789087</t>
+  </si>
+  <si>
+    <t>amoralnof</t>
+  </si>
+  <si>
+    <t>Аморальный Контент 🚷</t>
+  </si>
+  <si>
+    <t>8714350266</t>
+  </si>
+  <si>
+    <t>shoniworld</t>
+  </si>
+  <si>
+    <t>Шони</t>
+  </si>
+  <si>
+    <t>1390356803</t>
+  </si>
+  <si>
+    <t>dimaovtcharov</t>
+  </si>
+  <si>
+    <t>Dima Ovtcharov</t>
+  </si>
+  <si>
+    <t>4482375232</t>
+  </si>
+  <si>
+    <t>tihii_chas</t>
+  </si>
+  <si>
+    <t>БАЛДЁЖНИК</t>
   </si>
   <si>
     <t>1498883561</t>
@@ -2387,22 +2510,34 @@
     <t>insiderkiev</t>
   </si>
   <si>
-    <t>3564283161</t>
-  </si>
-  <si>
-    <t>arlen.boss</t>
-  </si>
-  <si>
-    <t>ARLEN BOSS😎</t>
-  </si>
-  <si>
-    <t>8166483174</t>
-  </si>
-  <si>
-    <t>critical.mask</t>
-  </si>
-  <si>
-    <t>Teo Pulgar - Assemblage Artist</t>
+    <t>Инсайдер Киев</t>
+  </si>
+  <si>
+    <t>49357196355</t>
+  </si>
+  <si>
+    <t>brilliant_biz</t>
+  </si>
+  <si>
+    <t>Бизнес | мотивация</t>
+  </si>
+  <si>
+    <t>39332267526</t>
+  </si>
+  <si>
+    <t>lin__yun_ju_</t>
+  </si>
+  <si>
+    <t>林昀儒</t>
+  </si>
+  <si>
+    <t>6937642557</t>
+  </si>
+  <si>
+    <t>zvachkin</t>
+  </si>
+  <si>
+    <t>🔥Продолжение уже в ленте👇</t>
   </si>
   <si>
     <t>308126696</t>
@@ -2414,40 +2549,22 @@
     <t>Lena Katina</t>
   </si>
   <si>
-    <t>201467759</t>
-  </si>
-  <si>
-    <t>_brunatakahashi</t>
-  </si>
-  <si>
-    <t>Bruna takahashi</t>
-  </si>
-  <si>
-    <t>283664353</t>
-  </si>
-  <si>
-    <t>mariiarichard</t>
-  </si>
-  <si>
-    <t>🥢🎎Мария Ричард Japan🇯🇵🍣</t>
-  </si>
-  <si>
-    <t>3612823573</t>
-  </si>
-  <si>
-    <t>sabelgera</t>
-  </si>
-  <si>
-    <t>Руслан Сабельгера</t>
-  </si>
-  <si>
-    <t>27931275153</t>
-  </si>
-  <si>
-    <t>yaje.mama</t>
-  </si>
-  <si>
-    <t>Я ЖЕ МАТЬ 💁‍♀️</t>
+    <t>3167937988</t>
+  </si>
+  <si>
+    <t>wicked_eye_candy_art</t>
+  </si>
+  <si>
+    <t>Wicked Eye Candy Art</t>
+  </si>
+  <si>
+    <t>4933601714</t>
+  </si>
+  <si>
+    <t>chengiching.tt</t>
+  </si>
+  <si>
+    <t>鄭怡靜 Cheng I Ching</t>
   </si>
   <si>
     <t>1553049699</t>
@@ -2459,58 +2576,118 @@
     <t>Лучшие видео 😉</t>
   </si>
   <si>
-    <t>52047920</t>
-  </si>
-  <si>
-    <t>tabletennisdaily</t>
-  </si>
-  <si>
-    <t>TableTennisDaily 🏓</t>
-  </si>
-  <si>
-    <t>8714350266</t>
-  </si>
-  <si>
-    <t>shoniworld</t>
-  </si>
-  <si>
-    <t>Шони</t>
-  </si>
-  <si>
-    <t>3086789087</t>
-  </si>
-  <si>
-    <t>amoralnof</t>
-  </si>
-  <si>
-    <t>Аморальный Контент 🚷</t>
-  </si>
-  <si>
-    <t>410092223</t>
-  </si>
-  <si>
-    <t>official_juliavolkova</t>
-  </si>
-  <si>
-    <t>Julia Volkova | Юля Волкова</t>
-  </si>
-  <si>
-    <t>6937642557</t>
-  </si>
-  <si>
-    <t>zvachkin</t>
-  </si>
-  <si>
-    <t>🔥Продолжение уже в ленте👇</t>
-  </si>
-  <si>
-    <t>4482375232</t>
-  </si>
-  <si>
-    <t>tihii_chas</t>
-  </si>
-  <si>
-    <t>БАЛДЁЖНИК</t>
+    <t>10826040594</t>
+  </si>
+  <si>
+    <t>pokamozg</t>
+  </si>
+  <si>
+    <t>ПОКА МОЗГ</t>
+  </si>
+  <si>
+    <t>12184975594</t>
+  </si>
+  <si>
+    <t>black.sci</t>
+  </si>
+  <si>
+    <t>Black Science</t>
+  </si>
+  <si>
+    <t>658567576</t>
+  </si>
+  <si>
+    <t>sense_me_dance</t>
+  </si>
+  <si>
+    <t>8797160179</t>
+  </si>
+  <si>
+    <t>richest_tm</t>
+  </si>
+  <si>
+    <t>RICHEST | Бизнес и Мотивация</t>
+  </si>
+  <si>
+    <t>16006044177</t>
+  </si>
+  <si>
+    <t>psy.loves</t>
+  </si>
+  <si>
+    <t>Психология.</t>
+  </si>
+  <si>
+    <t>10903826375</t>
+  </si>
+  <si>
+    <t>m0xnach</t>
+  </si>
+  <si>
+    <t>Твой бро 🖤</t>
+  </si>
+  <si>
+    <t>36495907092</t>
+  </si>
+  <si>
+    <t>virusnach</t>
+  </si>
+  <si>
+    <t>ВИДЕО | ЮМОР | ПРИКОЛЫ</t>
+  </si>
+  <si>
+    <t>1352288822</t>
+  </si>
+  <si>
+    <t>ptencoff</t>
+  </si>
+  <si>
+    <t>Лучшие Видео🐥</t>
+  </si>
+  <si>
+    <t>3915625350</t>
+  </si>
+  <si>
+    <t>standupstepa</t>
+  </si>
+  <si>
+    <t>Стендапы &amp; ЧБД</t>
+  </si>
+  <si>
+    <t>2105838025</t>
+  </si>
+  <si>
+    <t>nostalgy_vines</t>
+  </si>
+  <si>
+    <t>Ностальгия</t>
+  </si>
+  <si>
+    <t>28592696115</t>
+  </si>
+  <si>
+    <t>scifiatmospheres</t>
+  </si>
+  <si>
+    <t>Sci-fi &amp; Fantasy Atmospheres</t>
+  </si>
+  <si>
+    <t>14290837607</t>
+  </si>
+  <si>
+    <t>hyperussia.tv</t>
+  </si>
+  <si>
+    <t>Видео | Юмор | Фэйлы</t>
+  </si>
+  <si>
+    <t>4123471608</t>
+  </si>
+  <si>
+    <t>gangster_tm</t>
+  </si>
+  <si>
+    <t>🔪G A N G S T E R ™️ 🎩</t>
   </si>
   <si>
     <t>1595344221</t>
@@ -2522,40 +2699,49 @@
     <t>Видео | Юмор</t>
   </si>
   <si>
-    <t>1390356803</t>
-  </si>
-  <si>
-    <t>dimaovtcharov</t>
-  </si>
-  <si>
-    <t>Dima Ovtcharov</t>
-  </si>
-  <si>
-    <t>8226956098</t>
-  </si>
-  <si>
-    <t>h_saltovka</t>
-  </si>
-  <si>
-    <t>ХС | Харьков</t>
-  </si>
-  <si>
-    <t>3167937988</t>
-  </si>
-  <si>
-    <t>wicked_eye_candy_art</t>
-  </si>
-  <si>
-    <t>Wicked Eye Candy Art</t>
-  </si>
-  <si>
-    <t>12184975594</t>
-  </si>
-  <si>
-    <t>black.sci</t>
-  </si>
-  <si>
-    <t>Black Science</t>
+    <t>2421865254</t>
+  </si>
+  <si>
+    <t>cats_vines</t>
+  </si>
+  <si>
+    <t>Cats Vines</t>
+  </si>
+  <si>
+    <t>4153041240</t>
+  </si>
+  <si>
+    <t>marveloff</t>
+  </si>
+  <si>
+    <t>🎬Киновселенные MARVEL И DC</t>
+  </si>
+  <si>
+    <t>2182209389</t>
+  </si>
+  <si>
+    <t>shutnik_russia</t>
+  </si>
+  <si>
+    <t>Лучшие Видео</t>
+  </si>
+  <si>
+    <t>46736303</t>
+  </si>
+  <si>
+    <t>viksi666</t>
+  </si>
+  <si>
+    <t>Виктория Рахматулина🏳️‍🌈</t>
+  </si>
+  <si>
+    <t>3230850889</t>
+  </si>
+  <si>
+    <t>bez.kota</t>
+  </si>
+  <si>
+    <t>Без Кота И Жизнь Не Та</t>
   </si>
   <si>
     <t>6009575118</t>
@@ -2567,97 +2753,13 @@
     <t>Mews News</t>
   </si>
   <si>
-    <t>46736303</t>
-  </si>
-  <si>
-    <t>viksi666</t>
-  </si>
-  <si>
-    <t>Виктория Рахматулина🏳️‍🌈</t>
-  </si>
-  <si>
-    <t>3260997269</t>
-  </si>
-  <si>
-    <t>u_video</t>
-  </si>
-  <si>
-    <t>Видео I ПОДПИШИСЬ,ЕСЛИ БРО ❤️</t>
-  </si>
-  <si>
-    <t>14290837607</t>
-  </si>
-  <si>
-    <t>hyperussia.tv</t>
-  </si>
-  <si>
-    <t>Видео | Юмор | Фэйлы</t>
-  </si>
-  <si>
-    <t>6656374239</t>
-  </si>
-  <si>
-    <t>mozgoday</t>
-  </si>
-  <si>
-    <t>39332267526</t>
-  </si>
-  <si>
-    <t>lin__yun_ju_</t>
-  </si>
-  <si>
-    <t>林昀儒</t>
-  </si>
-  <si>
-    <t>2105838025</t>
-  </si>
-  <si>
-    <t>nostalgy_vines</t>
-  </si>
-  <si>
-    <t>Ностальгия</t>
-  </si>
-  <si>
-    <t>4933601714</t>
-  </si>
-  <si>
-    <t>chengiching.tt</t>
-  </si>
-  <si>
-    <t>鄭怡靜 Cheng I Ching</t>
-  </si>
-  <si>
-    <t>2421865254</t>
-  </si>
-  <si>
-    <t>cats_vines</t>
-  </si>
-  <si>
-    <t>Cats Vines</t>
-  </si>
-  <si>
-    <t>3915625350</t>
-  </si>
-  <si>
-    <t>standupstepa</t>
-  </si>
-  <si>
-    <t>Стендапы &amp; ЧБД</t>
-  </si>
-  <si>
-    <t>658567576</t>
-  </si>
-  <si>
-    <t>sense_me_dance</t>
-  </si>
-  <si>
-    <t>4123471608</t>
-  </si>
-  <si>
-    <t>gangster_tm</t>
-  </si>
-  <si>
-    <t>🔪G A N G S T E R ™️ 🎩</t>
+    <t>44544565475</t>
+  </si>
+  <si>
+    <t>motivatortvoy</t>
+  </si>
+  <si>
+    <t>МОТИВАЦИЯ | ВДОХНОВЕНИЕ</t>
   </si>
   <si>
     <t>215063898</t>
@@ -2666,85 +2768,22 @@
     <t>zusjeofficial</t>
   </si>
   <si>
-    <t>10903826375</t>
-  </si>
-  <si>
-    <t>m0xnach</t>
-  </si>
-  <si>
-    <t>Твой бро 🖤</t>
-  </si>
-  <si>
-    <t>4153041240</t>
-  </si>
-  <si>
-    <t>marveloff</t>
-  </si>
-  <si>
-    <t>🎬Киновселенные MARVEL И DC</t>
-  </si>
-  <si>
-    <t>8797160179</t>
-  </si>
-  <si>
-    <t>richest_tm</t>
-  </si>
-  <si>
-    <t>RICHEST | Бизнес и Мотивация</t>
-  </si>
-  <si>
-    <t>3230850889</t>
-  </si>
-  <si>
-    <t>bez.kota</t>
-  </si>
-  <si>
-    <t>Без Кота И Жизнь Не Та</t>
-  </si>
-  <si>
-    <t>16006044177</t>
-  </si>
-  <si>
-    <t>psy.loves</t>
-  </si>
-  <si>
-    <t>Психология.</t>
-  </si>
-  <si>
-    <t>1352288822</t>
-  </si>
-  <si>
-    <t>ptencoff</t>
-  </si>
-  <si>
-    <t>Лучшие Видео🐥</t>
-  </si>
-  <si>
-    <t>2182209389</t>
-  </si>
-  <si>
-    <t>shutnik_russia</t>
-  </si>
-  <si>
-    <t>Лучшие Видео</t>
-  </si>
-  <si>
-    <t>44544565475</t>
-  </si>
-  <si>
-    <t>motivatortvoy</t>
-  </si>
-  <si>
-    <t>МОТИВАЦИЯ | ВДОХНОВЕНИЕ</t>
-  </si>
-  <si>
-    <t>28592696115</t>
-  </si>
-  <si>
-    <t>scifiatmospheres</t>
-  </si>
-  <si>
-    <t>Sci-fi &amp; Fantasy Atmospheres</t>
+    <t>2117713276</t>
+  </si>
+  <si>
+    <t>devochki_vine</t>
+  </si>
+  <si>
+    <t>Видео/Женское/Мемы</t>
+  </si>
+  <si>
+    <t>50787298</t>
+  </si>
+  <si>
+    <t>anton_lapenko</t>
+  </si>
+  <si>
+    <t>Anton Lapenko</t>
   </si>
   <si>
     <t>337340410</t>
@@ -2756,15 +2795,6 @@
     <t>World Table Tennis</t>
   </si>
   <si>
-    <t>50787298</t>
-  </si>
-  <si>
-    <t>anton_lapenko</t>
-  </si>
-  <si>
-    <t>Anton Lapenko</t>
-  </si>
-  <si>
     <t>1812324489</t>
   </si>
   <si>
@@ -2774,24 +2804,6 @@
     <t>КОТОМАНИЯ</t>
   </si>
   <si>
-    <t>2117713276</t>
-  </si>
-  <si>
-    <t>devochki_vine</t>
-  </si>
-  <si>
-    <t>Видео/Женское</t>
-  </si>
-  <si>
-    <t>36495907092</t>
-  </si>
-  <si>
-    <t>virusnach</t>
-  </si>
-  <si>
-    <t>ВИДЕО | ЮМОР | ПРИКОЛЫ</t>
-  </si>
-  <si>
     <t>2979849929</t>
   </si>
   <si>
@@ -2801,6 +2813,15 @@
     <t>КОСТЯ №1 В АНГЛИЙСКОМ</t>
   </si>
   <si>
+    <t>4254967</t>
+  </si>
+  <si>
+    <t>beeple_crap</t>
+  </si>
+  <si>
+    <t>beeple</t>
+  </si>
+  <si>
     <t>239344551</t>
   </si>
   <si>
@@ -2810,13 +2831,13 @@
     <t>#lowkeyfamous.</t>
   </si>
   <si>
-    <t>4254967</t>
-  </si>
-  <si>
-    <t>beeple_crap</t>
-  </si>
-  <si>
-    <t>beeple</t>
+    <t>2328336758</t>
+  </si>
+  <si>
+    <t>apasnayaryka</t>
+  </si>
+  <si>
+    <t>Апасный</t>
   </si>
   <si>
     <t>289615210</t>
@@ -2828,28 +2849,22 @@
     <t>Toktarbek Sergazy</t>
   </si>
   <si>
-    <t>2328336758</t>
-  </si>
-  <si>
-    <t>apasnayaryka</t>
-  </si>
-  <si>
-    <t>Апасный</t>
-  </si>
-  <si>
-    <t>1494802073</t>
-  </si>
-  <si>
-    <t>multachgram</t>
-  </si>
-  <si>
-    <t>Мультач - Видео Юмор Мемы</t>
-  </si>
-  <si>
-    <t>9039668697</t>
-  </si>
-  <si>
-    <t>wincuptt</t>
+    <t>361836445</t>
+  </si>
+  <si>
+    <t>hoooooyeony</t>
+  </si>
+  <si>
+    <t>HoYeon Jung(Chung)</t>
+  </si>
+  <si>
+    <t>1587496359</t>
+  </si>
+  <si>
+    <t>belok_bero</t>
+  </si>
+  <si>
+    <t>Вероника Власовских</t>
   </si>
 </sst>
 </file>
@@ -2894,7 +2909,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C321"/>
+  <dimension ref="A1:C322"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2941,18 +2956,18 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -2963,29 +2978,29 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -3095,18 +3110,18 @@
         <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -3249,29 +3264,29 @@
         <v>91</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" t="s">
         <v>93</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>94</v>
-      </c>
-      <c r="C33" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" t="s">
         <v>96</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>97</v>
-      </c>
-      <c r="C34" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -3403,139 +3418,139 @@
         <v>132</v>
       </c>
       <c r="C46" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B47" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C47" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B48" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C48" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B49" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C49" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B50" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C50" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B51" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C51" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B52" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C52" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B53" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C53" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B54" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C54" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B55" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C55" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B56" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C56" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B57" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C57" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B58" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C58" t="s">
-        <v>168</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -4162,106 +4177,106 @@
         <v>338</v>
       </c>
       <c r="C115" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B116" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C116" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B117" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C117" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B118" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C118" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B119" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C119" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B120" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C120" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B121" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C121" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B122" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C122" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B123" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C123" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B124" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C124" t="s">
-        <v>365</v>
+        <v>89</v>
       </c>
     </row>
     <row r="125">
@@ -4294,117 +4309,117 @@
         <v>373</v>
       </c>
       <c r="C127" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
+        <v>374</v>
+      </c>
+      <c r="B128" t="s">
         <v>375</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C128" t="s">
         <v>376</v>
-      </c>
-      <c r="C128" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
+        <v>377</v>
+      </c>
+      <c r="B129" t="s">
         <v>378</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C129" t="s">
         <v>379</v>
-      </c>
-      <c r="C129" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
+        <v>380</v>
+      </c>
+      <c r="B130" t="s">
         <v>381</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130" t="s">
         <v>382</v>
-      </c>
-      <c r="C130" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
+        <v>383</v>
+      </c>
+      <c r="B131" t="s">
         <v>384</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C131" t="s">
         <v>385</v>
-      </c>
-      <c r="C131" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
+        <v>386</v>
+      </c>
+      <c r="B132" t="s">
         <v>387</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
         <v>388</v>
-      </c>
-      <c r="C132" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
+        <v>389</v>
+      </c>
+      <c r="B133" t="s">
         <v>390</v>
       </c>
-      <c r="B133" t="s">
+      <c r="C133" t="s">
         <v>391</v>
-      </c>
-      <c r="C133" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
+        <v>392</v>
+      </c>
+      <c r="B134" t="s">
         <v>393</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" t="s">
         <v>394</v>
-      </c>
-      <c r="C134" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
+        <v>395</v>
+      </c>
+      <c r="B135" t="s">
         <v>396</v>
       </c>
-      <c r="B135" t="s">
+      <c r="C135" t="s">
         <v>397</v>
-      </c>
-      <c r="C135" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
+        <v>398</v>
+      </c>
+      <c r="B136" t="s">
         <v>399</v>
       </c>
-      <c r="B136" t="s">
+      <c r="C136" t="s">
         <v>400</v>
-      </c>
-      <c r="C136" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
+        <v>401</v>
+      </c>
+      <c r="B137" t="s">
         <v>402</v>
       </c>
-      <c r="B137" t="s">
+      <c r="C137" t="s">
         <v>403</v>
-      </c>
-      <c r="C137" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="138">
@@ -4481,18 +4496,18 @@
         <v>423</v>
       </c>
       <c r="C144" t="s">
-        <v>39</v>
+        <v>424</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B145" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C145" t="s">
-        <v>426</v>
+        <v>48</v>
       </c>
     </row>
     <row r="146">
@@ -4569,128 +4584,128 @@
         <v>446</v>
       </c>
       <c r="C152" t="s">
-        <v>447</v>
+        <v>48</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
+        <v>447</v>
+      </c>
+      <c r="B153" t="s">
         <v>448</v>
       </c>
-      <c r="B153" t="s">
+      <c r="C153" t="s">
         <v>449</v>
-      </c>
-      <c r="C153" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
+        <v>450</v>
+      </c>
+      <c r="B154" t="s">
         <v>451</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C154" t="s">
         <v>452</v>
-      </c>
-      <c r="C154" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
+        <v>453</v>
+      </c>
+      <c r="B155" t="s">
         <v>454</v>
       </c>
-      <c r="B155" t="s">
+      <c r="C155" t="s">
         <v>455</v>
-      </c>
-      <c r="C155" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
+        <v>456</v>
+      </c>
+      <c r="B156" t="s">
         <v>457</v>
       </c>
-      <c r="B156" t="s">
+      <c r="C156" t="s">
         <v>458</v>
-      </c>
-      <c r="C156" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
+        <v>459</v>
+      </c>
+      <c r="B157" t="s">
         <v>460</v>
       </c>
-      <c r="B157" t="s">
+      <c r="C157" t="s">
         <v>461</v>
-      </c>
-      <c r="C157" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
+        <v>462</v>
+      </c>
+      <c r="B158" t="s">
         <v>463</v>
       </c>
-      <c r="B158" t="s">
+      <c r="C158" t="s">
         <v>464</v>
-      </c>
-      <c r="C158" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
+        <v>465</v>
+      </c>
+      <c r="B159" t="s">
         <v>466</v>
       </c>
-      <c r="B159" t="s">
+      <c r="C159" t="s">
         <v>467</v>
-      </c>
-      <c r="C159" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
+        <v>468</v>
+      </c>
+      <c r="B160" t="s">
         <v>469</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C160" t="s">
         <v>470</v>
-      </c>
-      <c r="C160" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
+        <v>471</v>
+      </c>
+      <c r="B161" t="s">
         <v>472</v>
       </c>
-      <c r="B161" t="s">
+      <c r="C161" t="s">
         <v>473</v>
-      </c>
-      <c r="C161" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
+        <v>474</v>
+      </c>
+      <c r="B162" t="s">
         <v>475</v>
       </c>
-      <c r="B162" t="s">
+      <c r="C162" t="s">
         <v>476</v>
-      </c>
-      <c r="C162" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
+        <v>477</v>
+      </c>
+      <c r="B163" t="s">
         <v>478</v>
       </c>
-      <c r="B163" t="s">
+      <c r="C163" t="s">
         <v>479</v>
-      </c>
-      <c r="C163" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="164">
@@ -5031,18 +5046,18 @@
         <v>571</v>
       </c>
       <c r="C194" t="s">
-        <v>324</v>
+        <v>572</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B195" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C195" t="s">
-        <v>574</v>
+        <v>258</v>
       </c>
     </row>
     <row r="196">
@@ -5053,799 +5068,799 @@
         <v>576</v>
       </c>
       <c r="C196" t="s">
-        <v>577</v>
+        <v>336</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
+        <v>577</v>
+      </c>
+      <c r="B197" t="s">
         <v>578</v>
       </c>
-      <c r="B197" t="s">
+      <c r="C197" t="s">
         <v>579</v>
-      </c>
-      <c r="C197" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
+        <v>580</v>
+      </c>
+      <c r="B198" t="s">
         <v>581</v>
       </c>
-      <c r="B198" t="s">
+      <c r="C198" t="s">
         <v>582</v>
-      </c>
-      <c r="C198" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
+        <v>583</v>
+      </c>
+      <c r="B199" t="s">
         <v>584</v>
       </c>
-      <c r="B199" t="s">
+      <c r="C199" t="s">
         <v>585</v>
-      </c>
-      <c r="C199" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
+        <v>586</v>
+      </c>
+      <c r="B200" t="s">
         <v>587</v>
       </c>
-      <c r="B200" t="s">
-        <v>588</v>
-      </c>
       <c r="C200" t="s">
-        <v>589</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
+        <v>588</v>
+      </c>
+      <c r="B201" t="s">
+        <v>589</v>
+      </c>
+      <c r="C201" t="s">
         <v>590</v>
-      </c>
-      <c r="B201" t="s">
-        <v>591</v>
-      </c>
-      <c r="C201" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
+        <v>591</v>
+      </c>
+      <c r="B202" t="s">
+        <v>592</v>
+      </c>
+      <c r="C202" t="s">
         <v>593</v>
-      </c>
-      <c r="B202" t="s">
-        <v>594</v>
-      </c>
-      <c r="C202" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
+        <v>594</v>
+      </c>
+      <c r="B203" t="s">
+        <v>595</v>
+      </c>
+      <c r="C203" t="s">
         <v>596</v>
-      </c>
-      <c r="B203" t="s">
-        <v>597</v>
-      </c>
-      <c r="C203" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
+        <v>597</v>
+      </c>
+      <c r="B204" t="s">
         <v>598</v>
       </c>
-      <c r="B204" t="s">
+      <c r="C204" t="s">
         <v>599</v>
-      </c>
-      <c r="C204" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
+        <v>600</v>
+      </c>
+      <c r="B205" t="s">
         <v>601</v>
       </c>
-      <c r="B205" t="s">
+      <c r="C205" t="s">
         <v>602</v>
-      </c>
-      <c r="C205" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
+        <v>603</v>
+      </c>
+      <c r="B206" t="s">
         <v>604</v>
       </c>
-      <c r="B206" t="s">
+      <c r="C206" t="s">
         <v>605</v>
-      </c>
-      <c r="C206" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
+        <v>606</v>
+      </c>
+      <c r="B207" t="s">
         <v>607</v>
       </c>
-      <c r="B207" t="s">
+      <c r="C207" t="s">
         <v>608</v>
-      </c>
-      <c r="C207" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
+        <v>609</v>
+      </c>
+      <c r="B208" t="s">
         <v>610</v>
       </c>
-      <c r="B208" t="s">
+      <c r="C208" t="s">
         <v>611</v>
-      </c>
-      <c r="C208" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
+        <v>612</v>
+      </c>
+      <c r="B209" t="s">
         <v>613</v>
       </c>
-      <c r="B209" t="s">
+      <c r="C209" t="s">
         <v>614</v>
-      </c>
-      <c r="C209" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
+        <v>615</v>
+      </c>
+      <c r="B210" t="s">
         <v>616</v>
       </c>
-      <c r="B210" t="s">
+      <c r="C210" t="s">
         <v>617</v>
-      </c>
-      <c r="C210" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
+        <v>618</v>
+      </c>
+      <c r="B211" t="s">
         <v>619</v>
       </c>
-      <c r="B211" t="s">
+      <c r="C211" t="s">
         <v>620</v>
-      </c>
-      <c r="C211" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
+        <v>621</v>
+      </c>
+      <c r="B212" t="s">
         <v>622</v>
       </c>
-      <c r="B212" t="s">
+      <c r="C212" t="s">
         <v>623</v>
-      </c>
-      <c r="C212" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
+        <v>624</v>
+      </c>
+      <c r="B213" t="s">
         <v>625</v>
       </c>
-      <c r="B213" t="s">
+      <c r="C213" t="s">
         <v>626</v>
-      </c>
-      <c r="C213" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
+        <v>627</v>
+      </c>
+      <c r="B214" t="s">
         <v>628</v>
       </c>
-      <c r="B214" t="s">
+      <c r="C214" t="s">
         <v>629</v>
-      </c>
-      <c r="C214" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
+        <v>630</v>
+      </c>
+      <c r="B215" t="s">
         <v>631</v>
       </c>
-      <c r="B215" t="s">
+      <c r="C215" t="s">
         <v>632</v>
-      </c>
-      <c r="C215" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
+        <v>633</v>
+      </c>
+      <c r="B216" t="s">
         <v>634</v>
       </c>
-      <c r="B216" t="s">
+      <c r="C216" t="s">
         <v>635</v>
-      </c>
-      <c r="C216" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
+        <v>636</v>
+      </c>
+      <c r="B217" t="s">
         <v>637</v>
       </c>
-      <c r="B217" t="s">
+      <c r="C217" t="s">
         <v>638</v>
-      </c>
-      <c r="C217" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
+        <v>639</v>
+      </c>
+      <c r="B218" t="s">
         <v>640</v>
       </c>
-      <c r="B218" t="s">
+      <c r="C218" t="s">
         <v>641</v>
-      </c>
-      <c r="C218" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
+        <v>642</v>
+      </c>
+      <c r="B219" t="s">
         <v>643</v>
       </c>
-      <c r="B219" t="s">
+      <c r="C219" t="s">
         <v>644</v>
-      </c>
-      <c r="C219" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
+        <v>645</v>
+      </c>
+      <c r="B220" t="s">
         <v>646</v>
       </c>
-      <c r="B220" t="s">
+      <c r="C220" t="s">
         <v>647</v>
-      </c>
-      <c r="C220" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
+        <v>648</v>
+      </c>
+      <c r="B221" t="s">
         <v>649</v>
       </c>
-      <c r="B221" t="s">
+      <c r="C221" t="s">
         <v>650</v>
-      </c>
-      <c r="C221" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
+        <v>651</v>
+      </c>
+      <c r="B222" t="s">
         <v>652</v>
       </c>
-      <c r="B222" t="s">
+      <c r="C222" t="s">
         <v>653</v>
-      </c>
-      <c r="C222" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
+        <v>654</v>
+      </c>
+      <c r="B223" t="s">
         <v>655</v>
       </c>
-      <c r="B223" t="s">
+      <c r="C223" t="s">
         <v>656</v>
-      </c>
-      <c r="C223" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
+        <v>657</v>
+      </c>
+      <c r="B224" t="s">
         <v>658</v>
       </c>
-      <c r="B224" t="s">
+      <c r="C224" t="s">
         <v>659</v>
-      </c>
-      <c r="C224" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
+        <v>660</v>
+      </c>
+      <c r="B225" t="s">
         <v>661</v>
       </c>
-      <c r="B225" t="s">
+      <c r="C225" t="s">
         <v>662</v>
-      </c>
-      <c r="C225" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
+        <v>663</v>
+      </c>
+      <c r="B226" t="s">
         <v>664</v>
       </c>
-      <c r="B226" t="s">
+      <c r="C226" t="s">
         <v>665</v>
-      </c>
-      <c r="C226" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
+        <v>666</v>
+      </c>
+      <c r="B227" t="s">
         <v>667</v>
       </c>
-      <c r="B227" t="s">
+      <c r="C227" t="s">
         <v>668</v>
-      </c>
-      <c r="C227" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
+        <v>669</v>
+      </c>
+      <c r="B228" t="s">
         <v>670</v>
       </c>
-      <c r="B228" t="s">
+      <c r="C228" t="s">
         <v>671</v>
-      </c>
-      <c r="C228" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
+        <v>672</v>
+      </c>
+      <c r="B229" t="s">
         <v>673</v>
       </c>
-      <c r="B229" t="s">
+      <c r="C229" t="s">
         <v>674</v>
-      </c>
-      <c r="C229" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
+        <v>675</v>
+      </c>
+      <c r="B230" t="s">
         <v>676</v>
       </c>
-      <c r="B230" t="s">
+      <c r="C230" t="s">
         <v>677</v>
-      </c>
-      <c r="C230" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
+        <v>678</v>
+      </c>
+      <c r="B231" t="s">
         <v>679</v>
       </c>
-      <c r="B231" t="s">
+      <c r="C231" t="s">
         <v>680</v>
-      </c>
-      <c r="C231" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
+        <v>681</v>
+      </c>
+      <c r="B232" t="s">
         <v>682</v>
       </c>
-      <c r="B232" t="s">
+      <c r="C232" t="s">
         <v>683</v>
-      </c>
-      <c r="C232" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
+        <v>684</v>
+      </c>
+      <c r="B233" t="s">
         <v>685</v>
       </c>
-      <c r="B233" t="s">
+      <c r="C233" t="s">
         <v>686</v>
-      </c>
-      <c r="C233" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
+        <v>687</v>
+      </c>
+      <c r="B234" t="s">
         <v>688</v>
       </c>
-      <c r="B234" t="s">
+      <c r="C234" t="s">
         <v>689</v>
-      </c>
-      <c r="C234" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
+        <v>690</v>
+      </c>
+      <c r="B235" t="s">
         <v>691</v>
       </c>
-      <c r="B235" t="s">
+      <c r="C235" t="s">
         <v>692</v>
-      </c>
-      <c r="C235" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
+        <v>693</v>
+      </c>
+      <c r="B236" t="s">
         <v>694</v>
       </c>
-      <c r="B236" t="s">
+      <c r="C236" t="s">
         <v>695</v>
-      </c>
-      <c r="C236" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
+        <v>696</v>
+      </c>
+      <c r="B237" t="s">
         <v>697</v>
       </c>
-      <c r="B237" t="s">
+      <c r="C237" t="s">
         <v>698</v>
-      </c>
-      <c r="C237" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
+        <v>699</v>
+      </c>
+      <c r="B238" t="s">
         <v>700</v>
       </c>
-      <c r="B238" t="s">
+      <c r="C238" t="s">
         <v>701</v>
-      </c>
-      <c r="C238" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
+        <v>702</v>
+      </c>
+      <c r="B239" t="s">
         <v>703</v>
       </c>
-      <c r="B239" t="s">
+      <c r="C239" t="s">
         <v>704</v>
-      </c>
-      <c r="C239" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
+        <v>705</v>
+      </c>
+      <c r="B240" t="s">
         <v>706</v>
       </c>
-      <c r="B240" t="s">
+      <c r="C240" t="s">
         <v>707</v>
-      </c>
-      <c r="C240" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
+        <v>708</v>
+      </c>
+      <c r="B241" t="s">
         <v>709</v>
       </c>
-      <c r="B241" t="s">
+      <c r="C241" t="s">
         <v>710</v>
-      </c>
-      <c r="C241" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
+        <v>711</v>
+      </c>
+      <c r="B242" t="s">
         <v>712</v>
       </c>
-      <c r="B242" t="s">
+      <c r="C242" t="s">
         <v>713</v>
-      </c>
-      <c r="C242" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
+        <v>714</v>
+      </c>
+      <c r="B243" t="s">
         <v>715</v>
       </c>
-      <c r="B243" t="s">
+      <c r="C243" t="s">
         <v>716</v>
-      </c>
-      <c r="C243" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
+        <v>717</v>
+      </c>
+      <c r="B244" t="s">
         <v>718</v>
       </c>
-      <c r="B244" t="s">
+      <c r="C244" t="s">
         <v>719</v>
-      </c>
-      <c r="C244" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
+        <v>720</v>
+      </c>
+      <c r="B245" t="s">
         <v>721</v>
       </c>
-      <c r="B245" t="s">
+      <c r="C245" t="s">
         <v>722</v>
-      </c>
-      <c r="C245" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
+        <v>723</v>
+      </c>
+      <c r="B246" t="s">
         <v>724</v>
       </c>
-      <c r="B246" t="s">
+      <c r="C246" t="s">
         <v>725</v>
-      </c>
-      <c r="C246" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
+        <v>726</v>
+      </c>
+      <c r="B247" t="s">
         <v>727</v>
       </c>
-      <c r="B247" t="s">
+      <c r="C247" t="s">
         <v>728</v>
-      </c>
-      <c r="C247" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
+        <v>729</v>
+      </c>
+      <c r="B248" t="s">
         <v>730</v>
       </c>
-      <c r="B248" t="s">
+      <c r="C248" t="s">
         <v>731</v>
-      </c>
-      <c r="C248" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
+        <v>732</v>
+      </c>
+      <c r="B249" t="s">
         <v>733</v>
       </c>
-      <c r="B249" t="s">
+      <c r="C249" t="s">
         <v>734</v>
-      </c>
-      <c r="C249" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
+        <v>735</v>
+      </c>
+      <c r="B250" t="s">
         <v>736</v>
       </c>
-      <c r="B250" t="s">
+      <c r="C250" t="s">
         <v>737</v>
-      </c>
-      <c r="C250" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
+        <v>738</v>
+      </c>
+      <c r="B251" t="s">
         <v>739</v>
       </c>
-      <c r="B251" t="s">
-        <v>740</v>
-      </c>
       <c r="C251" t="s">
-        <v>741</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
+        <v>740</v>
+      </c>
+      <c r="B252" t="s">
+        <v>741</v>
+      </c>
+      <c r="C252" t="s">
         <v>742</v>
-      </c>
-      <c r="B252" t="s">
-        <v>743</v>
-      </c>
-      <c r="C252" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
+        <v>743</v>
+      </c>
+      <c r="B253" t="s">
         <v>744</v>
       </c>
-      <c r="B253" t="s">
+      <c r="C253" t="s">
         <v>745</v>
-      </c>
-      <c r="C253" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
+        <v>746</v>
+      </c>
+      <c r="B254" t="s">
         <v>747</v>
       </c>
-      <c r="B254" t="s">
+      <c r="C254" t="s">
         <v>748</v>
-      </c>
-      <c r="C254" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
+        <v>749</v>
+      </c>
+      <c r="B255" t="s">
         <v>750</v>
       </c>
-      <c r="B255" t="s">
+      <c r="C255" t="s">
         <v>751</v>
-      </c>
-      <c r="C255" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
+        <v>752</v>
+      </c>
+      <c r="B256" t="s">
         <v>753</v>
       </c>
-      <c r="B256" t="s">
+      <c r="C256" t="s">
         <v>754</v>
-      </c>
-      <c r="C256" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
+        <v>755</v>
+      </c>
+      <c r="B257" t="s">
         <v>756</v>
       </c>
-      <c r="B257" t="s">
+      <c r="C257" t="s">
         <v>757</v>
-      </c>
-      <c r="C257" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
+        <v>758</v>
+      </c>
+      <c r="B258" t="s">
         <v>759</v>
       </c>
-      <c r="B258" t="s">
+      <c r="C258" t="s">
         <v>760</v>
-      </c>
-      <c r="C258" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
+        <v>761</v>
+      </c>
+      <c r="B259" t="s">
         <v>762</v>
       </c>
-      <c r="B259" t="s">
+      <c r="C259" t="s">
         <v>763</v>
-      </c>
-      <c r="C259" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
+        <v>764</v>
+      </c>
+      <c r="B260" t="s">
         <v>765</v>
       </c>
-      <c r="B260" t="s">
+      <c r="C260" t="s">
         <v>766</v>
-      </c>
-      <c r="C260" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
+        <v>767</v>
+      </c>
+      <c r="B261" t="s">
         <v>768</v>
       </c>
-      <c r="B261" t="s">
+      <c r="C261" t="s">
         <v>769</v>
-      </c>
-      <c r="C261" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
+        <v>770</v>
+      </c>
+      <c r="B262" t="s">
         <v>771</v>
       </c>
-      <c r="B262" t="s">
+      <c r="C262" t="s">
         <v>772</v>
-      </c>
-      <c r="C262" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
+        <v>773</v>
+      </c>
+      <c r="B263" t="s">
         <v>774</v>
       </c>
-      <c r="B263" t="s">
+      <c r="C263" t="s">
         <v>775</v>
-      </c>
-      <c r="C263" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
+        <v>776</v>
+      </c>
+      <c r="B264" t="s">
         <v>777</v>
       </c>
-      <c r="B264" t="s">
+      <c r="C264" t="s">
         <v>778</v>
-      </c>
-      <c r="C264" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
+        <v>779</v>
+      </c>
+      <c r="B265" t="s">
         <v>780</v>
       </c>
-      <c r="B265" t="s">
+      <c r="C265" t="s">
         <v>781</v>
-      </c>
-      <c r="C265" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
+        <v>782</v>
+      </c>
+      <c r="B266" t="s">
         <v>783</v>
       </c>
-      <c r="B266" t="s">
+      <c r="C266" t="s">
         <v>784</v>
-      </c>
-      <c r="C266" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
+        <v>785</v>
+      </c>
+      <c r="B267" t="s">
         <v>786</v>
       </c>
-      <c r="B267" t="s">
+      <c r="C267" t="s">
         <v>787</v>
-      </c>
-      <c r="C267" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
+        <v>788</v>
+      </c>
+      <c r="B268" t="s">
         <v>789</v>
       </c>
-      <c r="B268" t="s">
+      <c r="C268" t="s">
         <v>790</v>
-      </c>
-      <c r="C268" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="269">
@@ -6109,7 +6124,7 @@
         <v>861</v>
       </c>
       <c r="C292" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293">
@@ -6175,260 +6190,271 @@
         <v>878</v>
       </c>
       <c r="C298" t="s">
-        <v>5</v>
+        <v>879</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B299" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C299" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B300" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C300" t="s">
-        <v>5</v>
+        <v>885</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="B301" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="C301" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="B302" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="C302" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="B303" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="C303" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="B304" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="C304" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="B305" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="C305" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="B306" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="C306" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="B307" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="C307" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="B308" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="C308" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="B309" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="C309" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="B310" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="C310" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="B311" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="C311" t="s">
-        <v>916</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B312" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C312" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B313" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C313" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B314" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="C314" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B315" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C315" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B316" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C316" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B317" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="C317" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B318" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C318" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B319" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C319" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B320" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C320" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B321" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C321" t="s">
-        <v>5</v>
+        <v>947</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>948</v>
+      </c>
+      <c r="B322" t="s">
+        <v>949</v>
+      </c>
+      <c r="C322" t="s">
+        <v>950</v>
       </c>
     </row>
   </sheetData>
